--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -28,34 +28,34 @@
     <t>fine</t>
   </si>
   <si>
-    <t>phi_0.0909</t>
-  </si>
-  <si>
-    <t>phi_1.8485</t>
-  </si>
-  <si>
-    <t>phi_3.6061</t>
-  </si>
-  <si>
-    <t>phi_5.3636</t>
-  </si>
-  <si>
-    <t>phi_7.1212</t>
-  </si>
-  <si>
-    <t>phi_8.8788</t>
-  </si>
-  <si>
-    <t>phi_10.6364</t>
-  </si>
-  <si>
-    <t>phi_12.3939</t>
-  </si>
-  <si>
-    <t>phi_14.1515</t>
-  </si>
-  <si>
-    <t>phi_15.9091</t>
+    <t>phi_-39.1919</t>
+  </si>
+  <si>
+    <t>phi_-30.4826</t>
+  </si>
+  <si>
+    <t>phi_-21.7733</t>
+  </si>
+  <si>
+    <t>phi_-13.0640</t>
+  </si>
+  <si>
+    <t>phi_-4.3547</t>
+  </si>
+  <si>
+    <t>phi_4.3547</t>
+  </si>
+  <si>
+    <t>phi_13.0640</t>
+  </si>
+  <si>
+    <t>phi_21.7733</t>
+  </si>
+  <si>
+    <t>phi_30.4826</t>
+  </si>
+  <si>
+    <t>phi_39.1919</t>
   </si>
 </sst>
 </file>
@@ -438,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.0285432</v>
+        <v>0.116385</v>
       </c>
       <c r="C2">
-        <v>0.015417</v>
+        <v>0.120924</v>
       </c>
       <c r="D2">
-        <v>0.0167104</v>
+        <v>0.124169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -452,13 +452,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.03679522109394488</v>
+        <v>0.1088098969120531</v>
       </c>
       <c r="C3">
-        <v>0.02885570160181032</v>
+        <v>0.08313353698746626</v>
       </c>
       <c r="D3">
-        <v>0.03306434173036499</v>
+        <v>0.0884639535325617</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -466,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.03454044364966431</v>
+        <v>0.05609367140965987</v>
       </c>
       <c r="C4">
-        <v>0.02839692133409969</v>
+        <v>0.04510535966394135</v>
       </c>
       <c r="D4">
-        <v>0.0313539563207735</v>
+        <v>0.04395225753250435</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -480,13 +480,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.03151160221605824</v>
+        <v>0.0515836105596202</v>
       </c>
       <c r="C5">
-        <v>0.02122540382645402</v>
+        <v>0.04927181992785484</v>
       </c>
       <c r="D5">
-        <v>0.02958330064837136</v>
+        <v>0.04043054893970422</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -494,13 +494,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.02272188226412454</v>
+        <v>0.05100365171875737</v>
       </c>
       <c r="C6">
-        <v>0.007104562587777935</v>
+        <v>0.0444909215296873</v>
       </c>
       <c r="D6">
-        <v>0.02710936877379344</v>
+        <v>0.02993859020240561</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -508,13 +508,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.01214283084998917</v>
+        <v>0.05088486074867121</v>
       </c>
       <c r="C7">
-        <v>0.0127970224628907</v>
+        <v>0.04446278147651022</v>
       </c>
       <c r="D7">
-        <v>0.02297163267740077</v>
+        <v>0.03567471147229517</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -522,13 +522,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.01919686632235369</v>
+        <v>0.04663806688978126</v>
       </c>
       <c r="C8">
-        <v>0.02901706275961144</v>
+        <v>0.0433806495083609</v>
       </c>
       <c r="D8">
-        <v>0.01662783383089592</v>
+        <v>0.03830120507474102</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -536,13 +536,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.03305660127822112</v>
+        <v>0.03036599542765936</v>
       </c>
       <c r="C9">
-        <v>0.03916357265348958</v>
+        <v>0.03359750051473912</v>
       </c>
       <c r="D9">
-        <v>0.03649928312102831</v>
+        <v>0.03302289985585431</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -550,13 +550,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.04266018463086071</v>
+        <v>0.06018899484969921</v>
       </c>
       <c r="C10">
-        <v>0.04377782727214611</v>
+        <v>0.03431110190727814</v>
       </c>
       <c r="D10">
-        <v>0.0578008644661673</v>
+        <v>0.02069044316097955</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -564,13 +564,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.0348656</v>
+        <v>0.118676</v>
       </c>
       <c r="C11">
-        <v>0.0351509</v>
+        <v>0.179188</v>
       </c>
       <c r="D11">
-        <v>0.0509917</v>
+        <v>0.239373</v>
       </c>
     </row>
   </sheetData>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>variable</t>
   </si>
@@ -28,31 +28,67 @@
     <t>fine</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>phi_-39.1919</t>
   </si>
   <si>
-    <t>phi_-30.4826</t>
-  </si>
-  <si>
-    <t>phi_-21.7733</t>
-  </si>
-  <si>
-    <t>phi_-13.0640</t>
-  </si>
-  <si>
-    <t>phi_-4.3547</t>
-  </si>
-  <si>
-    <t>phi_4.3547</t>
-  </si>
-  <si>
-    <t>phi_13.0640</t>
-  </si>
-  <si>
-    <t>phi_21.7733</t>
-  </si>
-  <si>
-    <t>phi_30.4826</t>
+    <t>phi_-35.2727</t>
+  </si>
+  <si>
+    <t>phi_-31.3535</t>
+  </si>
+  <si>
+    <t>phi_-27.4343</t>
+  </si>
+  <si>
+    <t>phi_-23.5151</t>
+  </si>
+  <si>
+    <t>phi_-19.5959</t>
+  </si>
+  <si>
+    <t>phi_-15.6768</t>
+  </si>
+  <si>
+    <t>phi_-11.7576</t>
+  </si>
+  <si>
+    <t>phi_-7.8384</t>
+  </si>
+  <si>
+    <t>phi_-3.9192</t>
+  </si>
+  <si>
+    <t>phi_0.0000</t>
+  </si>
+  <si>
+    <t>phi_3.9192</t>
+  </si>
+  <si>
+    <t>phi_7.8384</t>
+  </si>
+  <si>
+    <t>phi_11.7576</t>
+  </si>
+  <si>
+    <t>phi_15.6768</t>
+  </si>
+  <si>
+    <t>phi_19.5959</t>
+  </si>
+  <si>
+    <t>phi_23.5151</t>
+  </si>
+  <si>
+    <t>phi_27.4343</t>
+  </si>
+  <si>
+    <t>phi_31.3535</t>
+  </si>
+  <si>
+    <t>phi_35.2727</t>
   </si>
   <si>
     <t>phi_39.1919</t>
@@ -413,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,145 +468,365 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0.116385</v>
       </c>
       <c r="C2">
-        <v>0.120924</v>
+        <v>0.117809</v>
       </c>
       <c r="D2">
-        <v>0.124169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.119767</v>
+      </c>
+      <c r="E2">
+        <v>-39.1919</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.1088098969120531</v>
+        <v>0.2330773876306763</v>
       </c>
       <c r="C3">
-        <v>0.08313353698746626</v>
+        <v>0.2332636863564586</v>
       </c>
       <c r="D3">
-        <v>0.0884639535325617</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.2332254403426214</v>
+      </c>
+      <c r="E3">
+        <v>-35.27271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.05609367140965987</v>
+        <v>0.1141414944082127</v>
       </c>
       <c r="C4">
-        <v>0.04510535966394135</v>
+        <v>0.1248133265298429</v>
       </c>
       <c r="D4">
-        <v>0.04395225753250435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1070112593827685</v>
+      </c>
+      <c r="E4">
+        <v>-31.35352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.0515836105596202</v>
+        <v>0.07982418374146617</v>
       </c>
       <c r="C5">
-        <v>0.04927181992785484</v>
+        <v>0.07160573696953156</v>
       </c>
       <c r="D5">
-        <v>0.04043054893970422</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.06778108755172271</v>
+      </c>
+      <c r="E5">
+        <v>-27.43433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.05100365171875737</v>
+        <v>0.05996446332323008</v>
       </c>
       <c r="C6">
-        <v>0.0444909215296873</v>
+        <v>0.05324865682411403</v>
       </c>
       <c r="D6">
-        <v>0.02993859020240561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.05042009585483901</v>
+      </c>
+      <c r="E6">
+        <v>-23.51514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05088486074867121</v>
+        <v>0.05307880356495883</v>
       </c>
       <c r="C7">
-        <v>0.04446278147651022</v>
+        <v>0.05128016860525351</v>
       </c>
       <c r="D7">
-        <v>0.03567471147229517</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05079715160765227</v>
+      </c>
+      <c r="E7">
+        <v>-19.59595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04663806688978126</v>
+        <v>0.05139906609486104</v>
       </c>
       <c r="C8">
-        <v>0.0433806495083609</v>
+        <v>0.05159519455341637</v>
       </c>
       <c r="D8">
-        <v>0.03830120507474102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.05200345180025884</v>
+      </c>
+      <c r="E8">
+        <v>-15.67676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03036599542765936</v>
+        <v>0.0517329405515833</v>
       </c>
       <c r="C9">
-        <v>0.03359750051473912</v>
+        <v>0.05078037324794527</v>
       </c>
       <c r="D9">
-        <v>0.03302289985585431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05051489337825593</v>
+      </c>
+      <c r="E9">
+        <v>-11.75757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06018899484969921</v>
+        <v>0.05142174786500953</v>
       </c>
       <c r="C10">
-        <v>0.03431110190727814</v>
+        <v>0.04886788342557875</v>
       </c>
       <c r="D10">
-        <v>0.02069044316097955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.04790635477908094</v>
+      </c>
+      <c r="E10">
+        <v>-7.838380000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
+        <v>0.05101004492363284</v>
+      </c>
+      <c r="C11">
+        <v>0.04677607154158121</v>
+      </c>
+      <c r="D11">
+        <v>0.04538180368483884</v>
+      </c>
+      <c r="E11">
+        <v>-3.91919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.05106639726328794</v>
+      </c>
+      <c r="C12">
+        <v>0.04531498190848789</v>
+      </c>
+      <c r="D12">
+        <v>0.04394984356489545</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.05092247663299326</v>
+      </c>
+      <c r="C13">
+        <v>0.04429306057893989</v>
+      </c>
+      <c r="D13">
+        <v>0.04347834885214561</v>
+      </c>
+      <c r="E13">
+        <v>3.91919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.05007114322196055</v>
+      </c>
+      <c r="C14">
+        <v>0.04334430770184911</v>
+      </c>
+      <c r="D14">
+        <v>0.04307937012077025</v>
+      </c>
+      <c r="E14">
+        <v>7.838379999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.04792160238381817</v>
+      </c>
+      <c r="C15">
+        <v>0.04181144084289555</v>
+      </c>
+      <c r="D15">
+        <v>0.04209211900905983</v>
+      </c>
+      <c r="E15">
+        <v>11.75756999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.043270004513227</v>
+      </c>
+      <c r="C16">
+        <v>0.0392306145328976</v>
+      </c>
+      <c r="D16">
+        <v>0.03962498637674577</v>
+      </c>
+      <c r="E16">
+        <v>15.67675999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.03551672944717684</v>
+      </c>
+      <c r="C17">
+        <v>0.03384376362519147</v>
+      </c>
+      <c r="D17">
+        <v>0.03520475604852591</v>
+      </c>
+      <c r="E17">
+        <v>19.59594999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.02776384427926987</v>
+      </c>
+      <c r="C18">
+        <v>0.02608810107102206</v>
+      </c>
+      <c r="D18">
+        <v>0.02702841548902172</v>
+      </c>
+      <c r="E18">
+        <v>23.51514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0.03849939738512763</v>
+      </c>
+      <c r="C19">
+        <v>0.02894344357531028</v>
+      </c>
+      <c r="D19">
+        <v>0.02306384997670196</v>
+      </c>
+      <c r="E19">
+        <v>27.43433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.06730568601312549</v>
+      </c>
+      <c r="C20">
+        <v>0.06102455313732853</v>
+      </c>
+      <c r="D20">
+        <v>0.0537308445610626</v>
+      </c>
+      <c r="E20">
+        <v>31.35352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.1002931075603099</v>
+      </c>
+      <c r="C21">
+        <v>0.1090555181619975</v>
+      </c>
+      <c r="D21">
+        <v>0.1151052726793786</v>
+      </c>
+      <c r="E21">
+        <v>35.27271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>0.118676</v>
       </c>
-      <c r="C11">
-        <v>0.179188</v>
-      </c>
-      <c r="D11">
-        <v>0.239373</v>
+      <c r="C22">
+        <v>0.143354</v>
+      </c>
+      <c r="D22">
+        <v>0.16016</v>
+      </c>
+      <c r="E22">
+        <v>39.1919</v>
       </c>
     </row>
   </sheetData>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -477,13 +477,13 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.116385</v>
+        <v>0.0762028</v>
       </c>
       <c r="C2">
-        <v>0.117809</v>
+        <v>0.098555</v>
       </c>
       <c r="D2">
-        <v>0.119767</v>
+        <v>0.118094</v>
       </c>
       <c r="E2">
         <v>-39.1919</v>
@@ -494,13 +494,13 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.2330773876306763</v>
+        <v>0.09082753195903721</v>
       </c>
       <c r="C3">
-        <v>0.2332636863564586</v>
+        <v>0.1069450247205669</v>
       </c>
       <c r="D3">
-        <v>0.2332254403426214</v>
+        <v>0.1103875320142812</v>
       </c>
       <c r="E3">
         <v>-35.27271</v>
@@ -511,13 +511,13 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1141414944082127</v>
+        <v>0.08480150651392439</v>
       </c>
       <c r="C4">
-        <v>0.1248133265298429</v>
+        <v>0.09394559257687594</v>
       </c>
       <c r="D4">
-        <v>0.1070112593827685</v>
+        <v>0.09213723277681811</v>
       </c>
       <c r="E4">
         <v>-31.35352</v>
@@ -528,13 +528,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.07982418374146617</v>
+        <v>0.07677222379981566</v>
       </c>
       <c r="C5">
-        <v>0.07160573696953156</v>
+        <v>0.07793044144783545</v>
       </c>
       <c r="D5">
-        <v>0.06778108755172271</v>
+        <v>0.07660007303170682</v>
       </c>
       <c r="E5">
         <v>-27.43433</v>
@@ -545,13 +545,13 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.05996446332323008</v>
+        <v>0.06781354697431136</v>
       </c>
       <c r="C6">
-        <v>0.05324865682411403</v>
+        <v>0.06033275320299808</v>
       </c>
       <c r="D6">
-        <v>0.05042009585483901</v>
+        <v>0.06161549486511007</v>
       </c>
       <c r="E6">
         <v>-23.51514</v>
@@ -562,13 +562,13 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05307880356495883</v>
+        <v>0.05830345210737423</v>
       </c>
       <c r="C7">
-        <v>0.05128016860525351</v>
+        <v>0.04100529759003956</v>
       </c>
       <c r="D7">
-        <v>0.05079715160765227</v>
+        <v>0.05019786329147541</v>
       </c>
       <c r="E7">
         <v>-19.59595</v>
@@ -579,13 +579,13 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05139906609486104</v>
+        <v>0.05075089456044515</v>
       </c>
       <c r="C8">
-        <v>0.05159519455341637</v>
+        <v>0.01698417226446389</v>
       </c>
       <c r="D8">
-        <v>0.05200345180025884</v>
+        <v>0.04546218491543556</v>
       </c>
       <c r="E8">
         <v>-15.67676</v>
@@ -596,13 +596,13 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0517329405515833</v>
+        <v>0.04697763717490645</v>
       </c>
       <c r="C9">
-        <v>0.05078037324794527</v>
+        <v>0.01846762777251612</v>
       </c>
       <c r="D9">
-        <v>0.05051489337825593</v>
+        <v>0.04518322001283182</v>
       </c>
       <c r="E9">
         <v>-11.75757</v>
@@ -613,13 +613,13 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.05142174786500953</v>
+        <v>0.04776815328797624</v>
       </c>
       <c r="C10">
-        <v>0.04886788342557875</v>
+        <v>0.02834420456962991</v>
       </c>
       <c r="D10">
-        <v>0.04790635477908094</v>
+        <v>0.04425208367883845</v>
       </c>
       <c r="E10">
         <v>-7.838380000000001</v>
@@ -630,13 +630,13 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.05101004492363284</v>
+        <v>0.05087885814055114</v>
       </c>
       <c r="C11">
-        <v>0.04677607154158121</v>
+        <v>0.03474009492370727</v>
       </c>
       <c r="D11">
-        <v>0.04538180368483884</v>
+        <v>0.04028162699499822</v>
       </c>
       <c r="E11">
         <v>-3.91919</v>
@@ -647,13 +647,13 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.05106639726328794</v>
+        <v>0.05109250256374865</v>
       </c>
       <c r="C12">
-        <v>0.04531498190848789</v>
+        <v>0.03852522959707071</v>
       </c>
       <c r="D12">
-        <v>0.04394984356489545</v>
+        <v>0.03274868233368551</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.05092247663299326</v>
+        <v>0.04582933606166303</v>
       </c>
       <c r="C13">
-        <v>0.04429306057893989</v>
+        <v>0.03577339444571054</v>
       </c>
       <c r="D13">
-        <v>0.04347834885214561</v>
+        <v>0.03749739502915501</v>
       </c>
       <c r="E13">
         <v>3.91919</v>
@@ -681,13 +681,13 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.05007114322196055</v>
+        <v>0.2120509971738629</v>
       </c>
       <c r="C14">
-        <v>0.04334430770184911</v>
+        <v>0.3131332320201367</v>
       </c>
       <c r="D14">
-        <v>0.04307937012077025</v>
+        <v>0.450880998794807</v>
       </c>
       <c r="E14">
         <v>7.838379999999994</v>
@@ -698,13 +698,13 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.04792160238381817</v>
+        <v>0.3340436573372462</v>
       </c>
       <c r="C15">
-        <v>0.04181144084289555</v>
+        <v>0.3991256194718152</v>
       </c>
       <c r="D15">
-        <v>0.04209211900905983</v>
+        <v>0.3676637667542095</v>
       </c>
       <c r="E15">
         <v>11.75756999999999</v>
@@ -715,13 +715,13 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.043270004513227</v>
+        <v>0.2026699242124342</v>
       </c>
       <c r="C16">
-        <v>0.0392306145328976</v>
+        <v>0.1561133070535213</v>
       </c>
       <c r="D16">
-        <v>0.03962498637674577</v>
+        <v>0.02009066353765652</v>
       </c>
       <c r="E16">
         <v>15.67675999999999</v>
@@ -732,13 +732,13 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.03551672944717684</v>
+        <v>0.06239887968652127</v>
       </c>
       <c r="C17">
-        <v>0.03384376362519147</v>
+        <v>0.04593695559619689</v>
       </c>
       <c r="D17">
-        <v>0.03520475604852591</v>
+        <v>0.0643195334689278</v>
       </c>
       <c r="E17">
         <v>19.59594999999999</v>
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02776384427926987</v>
+        <v>0.0609787516693896</v>
       </c>
       <c r="C18">
-        <v>0.02608810107102206</v>
+        <v>0.03249835590590325</v>
       </c>
       <c r="D18">
-        <v>0.02702841548902172</v>
+        <v>0.0360927694002546</v>
       </c>
       <c r="E18">
         <v>23.51514</v>
@@ -766,13 +766,13 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.03849939738512763</v>
+        <v>0.06230838861311395</v>
       </c>
       <c r="C19">
-        <v>0.02894344357531028</v>
+        <v>0.04528455001727074</v>
       </c>
       <c r="D19">
-        <v>0.02306384997670196</v>
+        <v>0.02297456931904263</v>
       </c>
       <c r="E19">
         <v>27.43433</v>
@@ -783,13 +783,13 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06730568601312549</v>
+        <v>0.05612586017979099</v>
       </c>
       <c r="C20">
-        <v>0.06102455313732853</v>
+        <v>0.06307746950834157</v>
       </c>
       <c r="D20">
-        <v>0.0537308445610626</v>
+        <v>0.07235297711498261</v>
       </c>
       <c r="E20">
         <v>31.35352</v>
@@ -800,13 +800,13 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.1002931075603099</v>
+        <v>0.04842743529573486</v>
       </c>
       <c r="C21">
-        <v>0.1090555181619975</v>
+        <v>0.07471024273056755</v>
       </c>
       <c r="D21">
-        <v>0.1151052726793786</v>
+        <v>0.08640342433514968</v>
       </c>
       <c r="E21">
         <v>35.27271</v>
@@ -817,13 +817,13 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.118676</v>
+        <v>0.0384777</v>
       </c>
       <c r="C22">
-        <v>0.143354</v>
+        <v>0.0493915</v>
       </c>
       <c r="D22">
-        <v>0.16016</v>
+        <v>0.0774174</v>
       </c>
       <c r="E22">
         <v>39.1919</v>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>variable</t>
   </si>
@@ -31,67 +31,157 @@
     <t>x</t>
   </si>
   <si>
-    <t>phi_-39.1919</t>
-  </si>
-  <si>
-    <t>phi_-35.2727</t>
-  </si>
-  <si>
-    <t>phi_-31.3535</t>
-  </si>
-  <si>
-    <t>phi_-27.4343</t>
-  </si>
-  <si>
-    <t>phi_-23.5151</t>
-  </si>
-  <si>
-    <t>phi_-19.5959</t>
-  </si>
-  <si>
-    <t>phi_-15.6768</t>
-  </si>
-  <si>
-    <t>phi_-11.7576</t>
-  </si>
-  <si>
-    <t>phi_-7.8384</t>
-  </si>
-  <si>
-    <t>phi_-3.9192</t>
+    <t>phi_-1.0000</t>
+  </si>
+  <si>
+    <t>phi_-0.9600</t>
+  </si>
+  <si>
+    <t>phi_-0.9200</t>
+  </si>
+  <si>
+    <t>phi_-0.8800</t>
+  </si>
+  <si>
+    <t>phi_-0.8400</t>
+  </si>
+  <si>
+    <t>phi_-0.8000</t>
+  </si>
+  <si>
+    <t>phi_-0.7600</t>
+  </si>
+  <si>
+    <t>phi_-0.7200</t>
+  </si>
+  <si>
+    <t>phi_-0.6800</t>
+  </si>
+  <si>
+    <t>phi_-0.6400</t>
+  </si>
+  <si>
+    <t>phi_-0.6000</t>
+  </si>
+  <si>
+    <t>phi_-0.5600</t>
+  </si>
+  <si>
+    <t>phi_-0.5200</t>
+  </si>
+  <si>
+    <t>phi_-0.4800</t>
+  </si>
+  <si>
+    <t>phi_-0.4400</t>
+  </si>
+  <si>
+    <t>phi_-0.4000</t>
+  </si>
+  <si>
+    <t>phi_-0.3600</t>
+  </si>
+  <si>
+    <t>phi_-0.3200</t>
+  </si>
+  <si>
+    <t>phi_-0.2800</t>
+  </si>
+  <si>
+    <t>phi_-0.2400</t>
+  </si>
+  <si>
+    <t>phi_-0.2000</t>
+  </si>
+  <si>
+    <t>phi_-0.1600</t>
+  </si>
+  <si>
+    <t>phi_-0.1200</t>
+  </si>
+  <si>
+    <t>phi_-0.0800</t>
+  </si>
+  <si>
+    <t>phi_-0.0400</t>
   </si>
   <si>
     <t>phi_0.0000</t>
   </si>
   <si>
-    <t>phi_3.9192</t>
-  </si>
-  <si>
-    <t>phi_7.8384</t>
-  </si>
-  <si>
-    <t>phi_11.7576</t>
-  </si>
-  <si>
-    <t>phi_15.6768</t>
-  </si>
-  <si>
-    <t>phi_19.5959</t>
-  </si>
-  <si>
-    <t>phi_23.5151</t>
-  </si>
-  <si>
-    <t>phi_27.4343</t>
-  </si>
-  <si>
-    <t>phi_31.3535</t>
-  </si>
-  <si>
-    <t>phi_35.2727</t>
-  </si>
-  <si>
-    <t>phi_39.1919</t>
+    <t>phi_0.0400</t>
+  </si>
+  <si>
+    <t>phi_0.0800</t>
+  </si>
+  <si>
+    <t>phi_0.1200</t>
+  </si>
+  <si>
+    <t>phi_0.1600</t>
+  </si>
+  <si>
+    <t>phi_0.2000</t>
+  </si>
+  <si>
+    <t>phi_0.2400</t>
+  </si>
+  <si>
+    <t>phi_0.2800</t>
+  </si>
+  <si>
+    <t>phi_0.3200</t>
+  </si>
+  <si>
+    <t>phi_0.3600</t>
+  </si>
+  <si>
+    <t>phi_0.4000</t>
+  </si>
+  <si>
+    <t>phi_0.4400</t>
+  </si>
+  <si>
+    <t>phi_0.4800</t>
+  </si>
+  <si>
+    <t>phi_0.5200</t>
+  </si>
+  <si>
+    <t>phi_0.5600</t>
+  </si>
+  <si>
+    <t>phi_0.6000</t>
+  </si>
+  <si>
+    <t>phi_0.6400</t>
+  </si>
+  <si>
+    <t>phi_0.6800</t>
+  </si>
+  <si>
+    <t>phi_0.7200</t>
+  </si>
+  <si>
+    <t>phi_0.7600</t>
+  </si>
+  <si>
+    <t>phi_0.8000</t>
+  </si>
+  <si>
+    <t>phi_0.8400</t>
+  </si>
+  <si>
+    <t>phi_0.8800</t>
+  </si>
+  <si>
+    <t>phi_0.9200</t>
+  </si>
+  <si>
+    <t>phi_0.9600</t>
+  </si>
+  <si>
+    <t>phi_1.0000</t>
   </si>
 </sst>
 </file>
@@ -449,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -486,7 +576,7 @@
         <v>0.118094</v>
       </c>
       <c r="E2">
-        <v>-39.1919</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -494,16 +584,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.09082753195903721</v>
+        <v>0.09266996912586437</v>
       </c>
       <c r="C3">
-        <v>0.1069450247205669</v>
+        <v>0.1101372298349777</v>
       </c>
       <c r="D3">
-        <v>0.1103875320142812</v>
+        <v>0.1220743349446357</v>
       </c>
       <c r="E3">
-        <v>-35.27271</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -511,16 +601,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08480150651392439</v>
+        <v>0.09156628517687292</v>
       </c>
       <c r="C4">
-        <v>0.09394559257687594</v>
+        <v>0.108475128617696</v>
       </c>
       <c r="D4">
-        <v>0.09213723277681811</v>
+        <v>0.1146077851353489</v>
       </c>
       <c r="E4">
-        <v>-31.35352</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,16 +618,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.07677222379981566</v>
+        <v>0.08993252801674853</v>
       </c>
       <c r="C5">
-        <v>0.07793044144783545</v>
+        <v>0.1047597266818746</v>
       </c>
       <c r="D5">
-        <v>0.07660007303170682</v>
+        <v>0.1061409082555377</v>
       </c>
       <c r="E5">
-        <v>-27.43433</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -545,16 +635,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.06781354697431136</v>
+        <v>0.08762155607271173</v>
       </c>
       <c r="C6">
-        <v>0.06033275320299808</v>
+        <v>0.09961328122683084</v>
       </c>
       <c r="D6">
-        <v>0.06161549486511007</v>
+        <v>0.09870374338332011</v>
       </c>
       <c r="E6">
-        <v>-23.51514</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,16 +652,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05830345210737423</v>
+        <v>0.08480150651392439</v>
       </c>
       <c r="C7">
-        <v>0.04100529759003956</v>
+        <v>0.09394560705828647</v>
       </c>
       <c r="D7">
-        <v>0.05019786329147541</v>
+        <v>0.09213723277681812</v>
       </c>
       <c r="E7">
-        <v>-19.59595</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -579,16 +669,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05075089456044515</v>
+        <v>0.0817941328120961</v>
       </c>
       <c r="C8">
-        <v>0.01698417226446389</v>
+        <v>0.08793460861338434</v>
       </c>
       <c r="D8">
-        <v>0.04546218491543556</v>
+        <v>0.08593285497030015</v>
       </c>
       <c r="E8">
-        <v>-15.67676</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -596,16 +686,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.04697763717490645</v>
+        <v>0.07850535950102724</v>
       </c>
       <c r="C9">
-        <v>0.01846762777251612</v>
+        <v>0.08138798490254301</v>
       </c>
       <c r="D9">
-        <v>0.04518322001283182</v>
+        <v>0.07974924156033417</v>
       </c>
       <c r="E9">
-        <v>-11.75757</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -613,16 +703,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04776815328797624</v>
+        <v>0.07496311615394685</v>
       </c>
       <c r="C10">
-        <v>0.02834420456962991</v>
+        <v>0.07446102335633069</v>
       </c>
       <c r="D10">
-        <v>0.04425208367883845</v>
+        <v>0.07347495198713015</v>
       </c>
       <c r="E10">
-        <v>-7.838380000000001</v>
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,16 +720,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.05087885814055114</v>
+        <v>0.0714967441101914</v>
       </c>
       <c r="C11">
-        <v>0.03474009492370727</v>
+        <v>0.06745666194818652</v>
       </c>
       <c r="D11">
-        <v>0.04028162699499822</v>
+        <v>0.06736312394784938</v>
       </c>
       <c r="E11">
-        <v>-3.91919</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -647,16 +737,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.05109250256374865</v>
+        <v>0.06781354697431134</v>
       </c>
       <c r="C12">
-        <v>0.03852522959707071</v>
+        <v>0.06033275318280158</v>
       </c>
       <c r="D12">
-        <v>0.03274868233368551</v>
+        <v>0.06161549486511007</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -664,16 +754,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04582933606166303</v>
+        <v>0.06384182762148978</v>
       </c>
       <c r="C13">
-        <v>0.03577339444571054</v>
+        <v>0.05274931210225982</v>
       </c>
       <c r="D13">
-        <v>0.03749739502915501</v>
+        <v>0.05637905368766639</v>
       </c>
       <c r="E13">
-        <v>3.91919</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -681,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.2120509971738629</v>
+        <v>0.06010144327421432</v>
       </c>
       <c r="C14">
-        <v>0.3131332320201367</v>
+        <v>0.04501845840080735</v>
       </c>
       <c r="D14">
-        <v>0.450880998794807</v>
+        <v>0.0520111612211385</v>
       </c>
       <c r="E14">
-        <v>7.838379999999994</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -698,16 +788,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.3340436573372462</v>
+        <v>0.05663616074601362</v>
       </c>
       <c r="C15">
-        <v>0.3991256194718152</v>
+        <v>0.03679817880440524</v>
       </c>
       <c r="D15">
-        <v>0.3676637667542095</v>
+        <v>0.04868036811890434</v>
       </c>
       <c r="E15">
-        <v>11.75756999999999</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -715,16 +805,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.2026699242124342</v>
+        <v>0.05347737926425949</v>
       </c>
       <c r="C16">
-        <v>0.1561133070535213</v>
+        <v>0.02785756209097843</v>
       </c>
       <c r="D16">
-        <v>0.02009066353765652</v>
+        <v>0.046554957404137</v>
       </c>
       <c r="E16">
-        <v>15.67675999999999</v>
+        <v>-0.4399999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -732,16 +822,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.06239887968652127</v>
+        <v>0.05075089456044513</v>
       </c>
       <c r="C17">
-        <v>0.04593695559619689</v>
+        <v>0.01698417226446385</v>
       </c>
       <c r="D17">
-        <v>0.0643195334689278</v>
+        <v>0.04546218491543554</v>
       </c>
       <c r="E17">
-        <v>19.59594999999999</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -749,16 +839,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.0609787516693896</v>
+        <v>0.04869602362797686</v>
       </c>
       <c r="C18">
-        <v>0.03249835590590325</v>
+        <v>0.006726683994419991</v>
       </c>
       <c r="D18">
-        <v>0.0360927694002546</v>
+        <v>0.04512215921432423</v>
       </c>
       <c r="E18">
-        <v>23.51514</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -766,16 +856,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.06230838861311395</v>
+        <v>0.04735899032656563</v>
       </c>
       <c r="C19">
-        <v>0.04528455001727074</v>
+        <v>0.01548433447847012</v>
       </c>
       <c r="D19">
-        <v>0.02297456931904263</v>
+        <v>0.04513763315273989</v>
       </c>
       <c r="E19">
-        <v>27.43433</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -783,16 +873,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05612586017979099</v>
+        <v>0.04666715241632467</v>
       </c>
       <c r="C20">
-        <v>0.06307746950834157</v>
+        <v>0.02104639629065179</v>
       </c>
       <c r="D20">
-        <v>0.07235297711498261</v>
+        <v>0.04513488191319517</v>
       </c>
       <c r="E20">
-        <v>31.35352</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -800,16 +890,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04842743529573486</v>
+        <v>0.04681836921776884</v>
       </c>
       <c r="C21">
-        <v>0.07471024273056755</v>
+        <v>0.02517097775044956</v>
       </c>
       <c r="D21">
-        <v>0.08640342433514968</v>
+        <v>0.04487086762685193</v>
       </c>
       <c r="E21">
-        <v>35.27271</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -817,16 +907,526 @@
         <v>25</v>
       </c>
       <c r="B22">
+        <v>0.04776815328797625</v>
+      </c>
+      <c r="C22">
+        <v>0.02834420456962991</v>
+      </c>
+      <c r="D22">
+        <v>0.04425208367883684</v>
+      </c>
+      <c r="E22">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.0490939198230704</v>
+      </c>
+      <c r="C23">
+        <v>0.03117285919248969</v>
+      </c>
+      <c r="D23">
+        <v>0.04304275067980251</v>
+      </c>
+      <c r="E23">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0.05037140283023217</v>
+      </c>
+      <c r="C24">
+        <v>0.03356223316450814</v>
+      </c>
+      <c r="D24">
+        <v>0.04133770462718236</v>
+      </c>
+      <c r="E24">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0.05128532073902363</v>
+      </c>
+      <c r="C25">
+        <v>0.03585967538801119</v>
+      </c>
+      <c r="D25">
+        <v>0.03910141425246755</v>
+      </c>
+      <c r="E25">
+        <v>-0.07999999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0.0514901146871142</v>
+      </c>
+      <c r="C26">
+        <v>0.03756755316624301</v>
+      </c>
+      <c r="D26">
+        <v>0.03631297440861708</v>
+      </c>
+      <c r="E26">
+        <v>-0.04000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0.05109250256374864</v>
+      </c>
+      <c r="C27">
+        <v>0.03852522959707071</v>
+      </c>
+      <c r="D27">
+        <v>0.03274868135438866</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0.0492436920534419</v>
+      </c>
+      <c r="C28">
+        <v>0.03806266021136364</v>
+      </c>
+      <c r="D28">
+        <v>0.02815661683501704</v>
+      </c>
+      <c r="E28">
+        <v>0.04000000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>0.04520835326461587</v>
+      </c>
+      <c r="C29">
+        <v>0.0363808068570801</v>
+      </c>
+      <c r="D29">
+        <v>0.01980346429359237</v>
+      </c>
+      <c r="E29">
+        <v>0.08000000000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>0.05573793613449785</v>
+      </c>
+      <c r="C30">
+        <v>0.0482666554047395</v>
+      </c>
+      <c r="D30">
+        <v>0.1174861735889974</v>
+      </c>
+      <c r="E30">
+        <v>0.1200000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>0.1194312396064144</v>
+      </c>
+      <c r="C31">
+        <v>0.1650583669838062</v>
+      </c>
+      <c r="D31">
+        <v>0.3117955007028416</v>
+      </c>
+      <c r="E31">
+        <v>0.1599999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0.2120509971738632</v>
+      </c>
+      <c r="C32">
+        <v>0.313133232020137</v>
+      </c>
+      <c r="D32">
+        <v>0.4508810111691253</v>
+      </c>
+      <c r="E32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>0.2884799051459993</v>
+      </c>
+      <c r="C33">
+        <v>0.4043333179080811</v>
+      </c>
+      <c r="D33">
+        <v>0.4926417192000239</v>
+      </c>
+      <c r="E33">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>0.3258488497856405</v>
+      </c>
+      <c r="C34">
+        <v>0.4197053609622701</v>
+      </c>
+      <c r="D34">
+        <v>0.430601248783586</v>
+      </c>
+      <c r="E34">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>0.3195718419523215</v>
+      </c>
+      <c r="C35">
+        <v>0.362113142500802</v>
+      </c>
+      <c r="D35">
+        <v>0.291434864254501</v>
+      </c>
+      <c r="E35">
+        <v>0.3200000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>0.2756087391065897</v>
+      </c>
+      <c r="C36">
+        <v>0.2652064657001563</v>
+      </c>
+      <c r="D36">
+        <v>0.132156675385965</v>
+      </c>
+      <c r="E36">
+        <v>0.3600000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.2026699242124337</v>
+      </c>
+      <c r="C37">
+        <v>0.1561133070535207</v>
+      </c>
+      <c r="D37">
+        <v>0.02009066353763644</v>
+      </c>
+      <c r="E37">
+        <v>0.4000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>0.1245744078436416</v>
+      </c>
+      <c r="C38">
+        <v>0.05045128626763809</v>
+      </c>
+      <c r="D38">
+        <v>0.03513197934879099</v>
+      </c>
+      <c r="E38">
+        <v>0.4399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0.07696700461524439</v>
+      </c>
+      <c r="C39">
+        <v>0.03120950799611045</v>
+      </c>
+      <c r="D39">
+        <v>0.06098163031221033</v>
+      </c>
+      <c r="E39">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0.05546188485367179</v>
+      </c>
+      <c r="C40">
+        <v>0.04722987260655238</v>
+      </c>
+      <c r="D40">
+        <v>0.06050014349663722</v>
+      </c>
+      <c r="E40">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>0.057672834489754</v>
+      </c>
+      <c r="C41">
+        <v>0.03751760435390969</v>
+      </c>
+      <c r="D41">
+        <v>0.04805877060388623</v>
+      </c>
+      <c r="E41">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>0.06097875166938957</v>
+      </c>
+      <c r="C42">
+        <v>0.03249835592860255</v>
+      </c>
+      <c r="D42">
+        <v>0.03609276946123521</v>
+      </c>
+      <c r="E42">
+        <v>0.6000000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0.06282032098217695</v>
+      </c>
+      <c r="C43">
+        <v>0.03468860292035472</v>
+      </c>
+      <c r="D43">
+        <v>0.0238315661068398</v>
+      </c>
+      <c r="E43">
+        <v>0.6400000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>0.06275280776553693</v>
+      </c>
+      <c r="C44">
+        <v>0.04138257486073888</v>
+      </c>
+      <c r="D44">
+        <v>0.01449551064108899</v>
+      </c>
+      <c r="E44">
+        <v>0.6799999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>0.06138392594243473</v>
+      </c>
+      <c r="C45">
+        <v>0.04911609040577377</v>
+      </c>
+      <c r="D45">
+        <v>0.037777476303129</v>
+      </c>
+      <c r="E45">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>0.05893371217748553</v>
+      </c>
+      <c r="C46">
+        <v>0.05640061029424972</v>
+      </c>
+      <c r="D46">
+        <v>0.06088994913731909</v>
+      </c>
+      <c r="E46">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>0.05612586017979098</v>
+      </c>
+      <c r="C47">
+        <v>0.06307744595549693</v>
+      </c>
+      <c r="D47">
+        <v>0.07235293472813044</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>0.05291260071877093</v>
+      </c>
+      <c r="C48">
+        <v>0.06889090927472577</v>
+      </c>
+      <c r="D48">
+        <v>0.07939813729911492</v>
+      </c>
+      <c r="E48">
+        <v>0.8400000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>0.04973055885292533</v>
+      </c>
+      <c r="C49">
+        <v>0.07324385486479444</v>
+      </c>
+      <c r="D49">
+        <v>0.08451307040296134</v>
+      </c>
+      <c r="E49">
+        <v>0.8800000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>0.04720359615022704</v>
+      </c>
+      <c r="C50">
+        <v>0.07562712634366883</v>
+      </c>
+      <c r="D50">
+        <v>0.08761685587966833</v>
+      </c>
+      <c r="E50">
+        <v>0.9199999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>0.04555430646987799</v>
+      </c>
+      <c r="C51">
+        <v>0.0753644851634442</v>
+      </c>
+      <c r="D51">
+        <v>0.08775659906127317</v>
+      </c>
+      <c r="E51">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
         <v>0.0384777</v>
       </c>
-      <c r="C22">
+      <c r="C52">
         <v>0.0493915</v>
       </c>
-      <c r="D22">
+      <c r="D52">
         <v>0.0774174</v>
       </c>
-      <c r="E22">
-        <v>39.1919</v>
+      <c r="E52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>variable</t>
   </si>
@@ -34,151 +34,61 @@
     <t>phi_-1.0000</t>
   </si>
   <si>
-    <t>phi_-0.9600</t>
-  </si>
-  <si>
-    <t>phi_-0.9200</t>
-  </si>
-  <si>
-    <t>phi_-0.8800</t>
-  </si>
-  <si>
-    <t>phi_-0.8400</t>
+    <t>phi_-0.9000</t>
   </si>
   <si>
     <t>phi_-0.8000</t>
   </si>
   <si>
-    <t>phi_-0.7600</t>
-  </si>
-  <si>
-    <t>phi_-0.7200</t>
-  </si>
-  <si>
-    <t>phi_-0.6800</t>
-  </si>
-  <si>
-    <t>phi_-0.6400</t>
+    <t>phi_-0.7000</t>
   </si>
   <si>
     <t>phi_-0.6000</t>
   </si>
   <si>
-    <t>phi_-0.5600</t>
-  </si>
-  <si>
-    <t>phi_-0.5200</t>
-  </si>
-  <si>
-    <t>phi_-0.4800</t>
-  </si>
-  <si>
-    <t>phi_-0.4400</t>
+    <t>phi_-0.5000</t>
   </si>
   <si>
     <t>phi_-0.4000</t>
   </si>
   <si>
-    <t>phi_-0.3600</t>
-  </si>
-  <si>
-    <t>phi_-0.3200</t>
-  </si>
-  <si>
-    <t>phi_-0.2800</t>
-  </si>
-  <si>
-    <t>phi_-0.2400</t>
+    <t>phi_-0.3000</t>
   </si>
   <si>
     <t>phi_-0.2000</t>
   </si>
   <si>
-    <t>phi_-0.1600</t>
-  </si>
-  <si>
-    <t>phi_-0.1200</t>
-  </si>
-  <si>
-    <t>phi_-0.0800</t>
-  </si>
-  <si>
-    <t>phi_-0.0400</t>
+    <t>phi_-0.1000</t>
   </si>
   <si>
     <t>phi_0.0000</t>
   </si>
   <si>
-    <t>phi_0.0400</t>
-  </si>
-  <si>
-    <t>phi_0.0800</t>
-  </si>
-  <si>
-    <t>phi_0.1200</t>
-  </si>
-  <si>
-    <t>phi_0.1600</t>
+    <t>phi_0.1000</t>
   </si>
   <si>
     <t>phi_0.2000</t>
   </si>
   <si>
-    <t>phi_0.2400</t>
-  </si>
-  <si>
-    <t>phi_0.2800</t>
-  </si>
-  <si>
-    <t>phi_0.3200</t>
-  </si>
-  <si>
-    <t>phi_0.3600</t>
+    <t>phi_0.3000</t>
   </si>
   <si>
     <t>phi_0.4000</t>
   </si>
   <si>
-    <t>phi_0.4400</t>
-  </si>
-  <si>
-    <t>phi_0.4800</t>
-  </si>
-  <si>
-    <t>phi_0.5200</t>
-  </si>
-  <si>
-    <t>phi_0.5600</t>
+    <t>phi_0.5000</t>
   </si>
   <si>
     <t>phi_0.6000</t>
   </si>
   <si>
-    <t>phi_0.6400</t>
-  </si>
-  <si>
-    <t>phi_0.6800</t>
-  </si>
-  <si>
-    <t>phi_0.7200</t>
-  </si>
-  <si>
-    <t>phi_0.7600</t>
+    <t>phi_0.7000</t>
   </si>
   <si>
     <t>phi_0.8000</t>
   </si>
   <si>
-    <t>phi_0.8400</t>
-  </si>
-  <si>
-    <t>phi_0.8800</t>
-  </si>
-  <si>
-    <t>phi_0.9200</t>
-  </si>
-  <si>
-    <t>phi_0.9600</t>
+    <t>phi_0.9000</t>
   </si>
   <si>
     <t>phi_1.0000</t>
@@ -539,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,16 +494,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.09266996912586437</v>
+        <v>0.09082753195903717</v>
       </c>
       <c r="C3">
-        <v>0.1101372298349777</v>
+        <v>0.1069450247067137</v>
       </c>
       <c r="D3">
-        <v>0.1220743349446357</v>
+        <v>0.1103875320142812</v>
       </c>
       <c r="E3">
-        <v>-0.96</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -601,16 +511,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09156628517687292</v>
+        <v>0.08480150651392439</v>
       </c>
       <c r="C4">
-        <v>0.108475128617696</v>
+        <v>0.09394560705828647</v>
       </c>
       <c r="D4">
-        <v>0.1146077851353489</v>
+        <v>0.09213723277681812</v>
       </c>
       <c r="E4">
-        <v>-0.92</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -618,16 +528,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.08993252801674853</v>
+        <v>0.07677222379981566</v>
       </c>
       <c r="C5">
-        <v>0.1047597266818746</v>
+        <v>0.07793045418526394</v>
       </c>
       <c r="D5">
-        <v>0.1061409082555377</v>
+        <v>0.07660007303170682</v>
       </c>
       <c r="E5">
-        <v>-0.88</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -635,16 +545,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.08762155607271173</v>
+        <v>0.06781354697431134</v>
       </c>
       <c r="C6">
-        <v>0.09961328122683084</v>
+        <v>0.06033275318280158</v>
       </c>
       <c r="D6">
-        <v>0.09870374338332011</v>
+        <v>0.06161549486511007</v>
       </c>
       <c r="E6">
-        <v>-0.84</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -652,16 +562,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.08480150651392439</v>
+        <v>0.05830345210737423</v>
       </c>
       <c r="C7">
-        <v>0.09394560705828647</v>
+        <v>0.04100529759006474</v>
       </c>
       <c r="D7">
-        <v>0.09213723277681812</v>
+        <v>0.0501978632914754</v>
       </c>
       <c r="E7">
-        <v>-0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -669,16 +579,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.0817941328120961</v>
+        <v>0.05075089456044511</v>
       </c>
       <c r="C8">
-        <v>0.08793460861338434</v>
+        <v>0.01698417226446381</v>
       </c>
       <c r="D8">
-        <v>0.08593285497030015</v>
+        <v>0.04546218491543554</v>
       </c>
       <c r="E8">
-        <v>-0.76</v>
+        <v>-0.3999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -686,16 +596,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07850535950102724</v>
+        <v>0.04697763717490644</v>
       </c>
       <c r="C9">
-        <v>0.08138798490254301</v>
+        <v>0.01846762777251613</v>
       </c>
       <c r="D9">
-        <v>0.07974924156033417</v>
+        <v>0.04518322001283182</v>
       </c>
       <c r="E9">
-        <v>-0.72</v>
+        <v>-0.2999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -703,16 +613,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07496311615394685</v>
+        <v>0.04776815328797625</v>
       </c>
       <c r="C10">
-        <v>0.07446102335633069</v>
+        <v>0.02834420456962991</v>
       </c>
       <c r="D10">
-        <v>0.07347495198713015</v>
+        <v>0.04425208367883684</v>
       </c>
       <c r="E10">
-        <v>-0.6799999999999999</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -720,16 +630,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0714967441101914</v>
+        <v>0.05087885814055112</v>
       </c>
       <c r="C11">
-        <v>0.06745666194818652</v>
+        <v>0.03474009492370726</v>
       </c>
       <c r="D11">
-        <v>0.06736312394784938</v>
+        <v>0.0402816269964423</v>
       </c>
       <c r="E11">
-        <v>-0.64</v>
+        <v>-0.09999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -737,16 +647,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06781354697431134</v>
+        <v>0.05109250256374864</v>
       </c>
       <c r="C12">
-        <v>0.06033275318280158</v>
+        <v>0.03852522959707071</v>
       </c>
       <c r="D12">
-        <v>0.06161549486511007</v>
+        <v>0.03274868135438866</v>
       </c>
       <c r="E12">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -754,16 +664,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.06384182762148978</v>
+        <v>0.04582933606166305</v>
       </c>
       <c r="C13">
-        <v>0.05274931210225982</v>
+        <v>0.03577339444571054</v>
       </c>
       <c r="D13">
-        <v>0.05637905368766639</v>
+        <v>0.03749797716201021</v>
       </c>
       <c r="E13">
-        <v>-0.5600000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -771,16 +681,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.06010144327421432</v>
+        <v>0.2120509971738638</v>
       </c>
       <c r="C14">
-        <v>0.04501845840080735</v>
+        <v>0.3131332320201378</v>
       </c>
       <c r="D14">
-        <v>0.0520111612211385</v>
+        <v>0.4508810111691258</v>
       </c>
       <c r="E14">
-        <v>-0.52</v>
+        <v>0.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -788,16 +698,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.05663616074601362</v>
+        <v>0.3340436573372461</v>
       </c>
       <c r="C15">
-        <v>0.03679817880440524</v>
+        <v>0.3991256194718149</v>
       </c>
       <c r="D15">
-        <v>0.04868036811890434</v>
+        <v>0.3676637667484861</v>
       </c>
       <c r="E15">
-        <v>-0.48</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -805,16 +715,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.05347737926425949</v>
+        <v>0.2026699242124337</v>
       </c>
       <c r="C16">
-        <v>0.02785756209097843</v>
+        <v>0.1561133070535207</v>
       </c>
       <c r="D16">
-        <v>0.046554957404137</v>
+        <v>0.02009066353763644</v>
       </c>
       <c r="E16">
-        <v>-0.4399999999999999</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -822,16 +732,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.05075089456044513</v>
+        <v>0.06239887968652123</v>
       </c>
       <c r="C17">
-        <v>0.01698417226446385</v>
+        <v>0.04593695559616863</v>
       </c>
       <c r="D17">
-        <v>0.04546218491543554</v>
+        <v>0.06431953346885186</v>
       </c>
       <c r="E17">
-        <v>-0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -839,16 +749,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.04869602362797686</v>
+        <v>0.06097875166938957</v>
       </c>
       <c r="C18">
-        <v>0.006726683994419991</v>
+        <v>0.03249835592860255</v>
       </c>
       <c r="D18">
-        <v>0.04512215921432423</v>
+        <v>0.03609276946123521</v>
       </c>
       <c r="E18">
-        <v>-0.36</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -856,16 +766,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.04735899032656563</v>
+        <v>0.06230838861311393</v>
       </c>
       <c r="C19">
-        <v>0.01548433447847012</v>
+        <v>0.0452845357013687</v>
       </c>
       <c r="D19">
-        <v>0.04513763315273989</v>
+        <v>0.02297453086002567</v>
       </c>
       <c r="E19">
-        <v>-0.32</v>
+        <v>0.7000000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -873,16 +783,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04666715241632467</v>
+        <v>0.05612586017979098</v>
       </c>
       <c r="C20">
-        <v>0.02104639629065179</v>
+        <v>0.06307744595549693</v>
       </c>
       <c r="D20">
-        <v>0.04513488191319517</v>
+        <v>0.07235293472813044</v>
       </c>
       <c r="E20">
-        <v>-0.28</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -890,16 +800,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04681836921776884</v>
+        <v>0.04842743529573486</v>
       </c>
       <c r="C21">
-        <v>0.02517097775044956</v>
+        <v>0.07471023587355272</v>
       </c>
       <c r="D21">
-        <v>0.04487086762685193</v>
+        <v>0.08640342437569778</v>
       </c>
       <c r="E21">
-        <v>-0.24</v>
+        <v>0.9000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -907,525 +817,15 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04776815328797625</v>
+        <v>0.0384777</v>
       </c>
       <c r="C22">
-        <v>0.02834420456962991</v>
+        <v>0.0493915</v>
       </c>
       <c r="D22">
-        <v>0.04425208367883684</v>
+        <v>0.0774174</v>
       </c>
       <c r="E22">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>0.0490939198230704</v>
-      </c>
-      <c r="C23">
-        <v>0.03117285919248969</v>
-      </c>
-      <c r="D23">
-        <v>0.04304275067980251</v>
-      </c>
-      <c r="E23">
-        <v>-0.16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>0.05037140283023217</v>
-      </c>
-      <c r="C24">
-        <v>0.03356223316450814</v>
-      </c>
-      <c r="D24">
-        <v>0.04133770462718236</v>
-      </c>
-      <c r="E24">
-        <v>-0.12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>0.05128532073902363</v>
-      </c>
-      <c r="C25">
-        <v>0.03585967538801119</v>
-      </c>
-      <c r="D25">
-        <v>0.03910141425246755</v>
-      </c>
-      <c r="E25">
-        <v>-0.07999999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>0.0514901146871142</v>
-      </c>
-      <c r="C26">
-        <v>0.03756755316624301</v>
-      </c>
-      <c r="D26">
-        <v>0.03631297440861708</v>
-      </c>
-      <c r="E26">
-        <v>-0.04000000000000004</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>0.05109250256374864</v>
-      </c>
-      <c r="C27">
-        <v>0.03852522959707071</v>
-      </c>
-      <c r="D27">
-        <v>0.03274868135438866</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>0.0492436920534419</v>
-      </c>
-      <c r="C28">
-        <v>0.03806266021136364</v>
-      </c>
-      <c r="D28">
-        <v>0.02815661683501704</v>
-      </c>
-      <c r="E28">
-        <v>0.04000000000000004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>0.04520835326461587</v>
-      </c>
-      <c r="C29">
-        <v>0.0363808068570801</v>
-      </c>
-      <c r="D29">
-        <v>0.01980346429359237</v>
-      </c>
-      <c r="E29">
-        <v>0.08000000000000007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>0.05573793613449785</v>
-      </c>
-      <c r="C30">
-        <v>0.0482666554047395</v>
-      </c>
-      <c r="D30">
-        <v>0.1174861735889974</v>
-      </c>
-      <c r="E30">
-        <v>0.1200000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31">
-        <v>0.1194312396064144</v>
-      </c>
-      <c r="C31">
-        <v>0.1650583669838062</v>
-      </c>
-      <c r="D31">
-        <v>0.3117955007028416</v>
-      </c>
-      <c r="E31">
-        <v>0.1599999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32">
-        <v>0.2120509971738632</v>
-      </c>
-      <c r="C32">
-        <v>0.313133232020137</v>
-      </c>
-      <c r="D32">
-        <v>0.4508810111691253</v>
-      </c>
-      <c r="E32">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33">
-        <v>0.2884799051459993</v>
-      </c>
-      <c r="C33">
-        <v>0.4043333179080811</v>
-      </c>
-      <c r="D33">
-        <v>0.4926417192000239</v>
-      </c>
-      <c r="E33">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>0.3258488497856405</v>
-      </c>
-      <c r="C34">
-        <v>0.4197053609622701</v>
-      </c>
-      <c r="D34">
-        <v>0.430601248783586</v>
-      </c>
-      <c r="E34">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>0.3195718419523215</v>
-      </c>
-      <c r="C35">
-        <v>0.362113142500802</v>
-      </c>
-      <c r="D35">
-        <v>0.291434864254501</v>
-      </c>
-      <c r="E35">
-        <v>0.3200000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36">
-        <v>0.2756087391065897</v>
-      </c>
-      <c r="C36">
-        <v>0.2652064657001563</v>
-      </c>
-      <c r="D36">
-        <v>0.132156675385965</v>
-      </c>
-      <c r="E36">
-        <v>0.3600000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37">
-        <v>0.2026699242124337</v>
-      </c>
-      <c r="C37">
-        <v>0.1561133070535207</v>
-      </c>
-      <c r="D37">
-        <v>0.02009066353763644</v>
-      </c>
-      <c r="E37">
-        <v>0.4000000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38">
-        <v>0.1245744078436416</v>
-      </c>
-      <c r="C38">
-        <v>0.05045128626763809</v>
-      </c>
-      <c r="D38">
-        <v>0.03513197934879099</v>
-      </c>
-      <c r="E38">
-        <v>0.4399999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39">
-        <v>0.07696700461524439</v>
-      </c>
-      <c r="C39">
-        <v>0.03120950799611045</v>
-      </c>
-      <c r="D39">
-        <v>0.06098163031221033</v>
-      </c>
-      <c r="E39">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40">
-        <v>0.05546188485367179</v>
-      </c>
-      <c r="C40">
-        <v>0.04722987260655238</v>
-      </c>
-      <c r="D40">
-        <v>0.06050014349663722</v>
-      </c>
-      <c r="E40">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41">
-        <v>0.057672834489754</v>
-      </c>
-      <c r="C41">
-        <v>0.03751760435390969</v>
-      </c>
-      <c r="D41">
-        <v>0.04805877060388623</v>
-      </c>
-      <c r="E41">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42">
-        <v>0.06097875166938957</v>
-      </c>
-      <c r="C42">
-        <v>0.03249835592860255</v>
-      </c>
-      <c r="D42">
-        <v>0.03609276946123521</v>
-      </c>
-      <c r="E42">
-        <v>0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43">
-        <v>0.06282032098217695</v>
-      </c>
-      <c r="C43">
-        <v>0.03468860292035472</v>
-      </c>
-      <c r="D43">
-        <v>0.0238315661068398</v>
-      </c>
-      <c r="E43">
-        <v>0.6400000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44">
-        <v>0.06275280776553693</v>
-      </c>
-      <c r="C44">
-        <v>0.04138257486073888</v>
-      </c>
-      <c r="D44">
-        <v>0.01449551064108899</v>
-      </c>
-      <c r="E44">
-        <v>0.6799999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45">
-        <v>0.06138392594243473</v>
-      </c>
-      <c r="C45">
-        <v>0.04911609040577377</v>
-      </c>
-      <c r="D45">
-        <v>0.037777476303129</v>
-      </c>
-      <c r="E45">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46">
-        <v>0.05893371217748553</v>
-      </c>
-      <c r="C46">
-        <v>0.05640061029424972</v>
-      </c>
-      <c r="D46">
-        <v>0.06088994913731909</v>
-      </c>
-      <c r="E46">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>0.05612586017979098</v>
-      </c>
-      <c r="C47">
-        <v>0.06307744595549693</v>
-      </c>
-      <c r="D47">
-        <v>0.07235293472813044</v>
-      </c>
-      <c r="E47">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>0.05291260071877093</v>
-      </c>
-      <c r="C48">
-        <v>0.06889090927472577</v>
-      </c>
-      <c r="D48">
-        <v>0.07939813729911492</v>
-      </c>
-      <c r="E48">
-        <v>0.8400000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>0.04973055885292533</v>
-      </c>
-      <c r="C49">
-        <v>0.07324385486479444</v>
-      </c>
-      <c r="D49">
-        <v>0.08451307040296134</v>
-      </c>
-      <c r="E49">
-        <v>0.8800000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <v>0.04720359615022704</v>
-      </c>
-      <c r="C50">
-        <v>0.07562712634366883</v>
-      </c>
-      <c r="D50">
-        <v>0.08761685587966833</v>
-      </c>
-      <c r="E50">
-        <v>0.9199999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <v>0.04555430646987799</v>
-      </c>
-      <c r="C51">
-        <v>0.0753644851634442</v>
-      </c>
-      <c r="D51">
-        <v>0.08775659906127317</v>
-      </c>
-      <c r="E51">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>0.0384777</v>
-      </c>
-      <c r="C52">
-        <v>0.0493915</v>
-      </c>
-      <c r="D52">
-        <v>0.0774174</v>
-      </c>
-      <c r="E52">
         <v>1</v>
       </c>
     </row>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>variable</t>
   </si>
@@ -31,64 +31,16 @@
     <t>x</t>
   </si>
   <si>
-    <t>phi_-1.0000</t>
-  </si>
-  <si>
-    <t>phi_-0.9000</t>
-  </si>
-  <si>
-    <t>phi_-0.8000</t>
-  </si>
-  <si>
-    <t>phi_-0.7000</t>
-  </si>
-  <si>
-    <t>phi_-0.6000</t>
-  </si>
-  <si>
-    <t>phi_-0.5000</t>
-  </si>
-  <si>
-    <t>phi_-0.4000</t>
-  </si>
-  <si>
-    <t>phi_-0.3000</t>
-  </si>
-  <si>
-    <t>phi_-0.2000</t>
-  </si>
-  <si>
-    <t>phi_-0.1000</t>
-  </si>
-  <si>
-    <t>phi_0.0000</t>
-  </si>
-  <si>
-    <t>phi_0.1000</t>
-  </si>
-  <si>
-    <t>phi_0.2000</t>
-  </si>
-  <si>
-    <t>phi_0.3000</t>
-  </si>
-  <si>
-    <t>phi_0.4000</t>
+    <t>phi_-0.0000</t>
+  </si>
+  <si>
+    <t>phi_0.2500</t>
   </si>
   <si>
     <t>phi_0.5000</t>
   </si>
   <si>
-    <t>phi_0.6000</t>
-  </si>
-  <si>
-    <t>phi_0.7000</t>
-  </si>
-  <si>
-    <t>phi_0.8000</t>
-  </si>
-  <si>
-    <t>phi_0.9000</t>
+    <t>phi_0.7500</t>
   </si>
   <si>
     <t>phi_1.0000</t>
@@ -449,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +429,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0762028</v>
+        <v>0.446113646</v>
       </c>
       <c r="C2">
-        <v>0.098555</v>
+        <v>0.442592859</v>
       </c>
       <c r="D2">
-        <v>0.118094</v>
+        <v>0.4470689</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>-7.13393092E-07</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -494,16 +446,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.09082753195903717</v>
+        <v>0.1351285381754221</v>
       </c>
       <c r="C3">
-        <v>0.1069450247067137</v>
+        <v>0.1423025141596007</v>
       </c>
       <c r="D3">
-        <v>0.1103875320142812</v>
+        <v>0.14372573426556</v>
       </c>
       <c r="E3">
-        <v>-0.9</v>
+        <v>0.249999464955181</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -511,16 +463,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08480150651392439</v>
+        <v>0.1361954070995965</v>
       </c>
       <c r="C4">
-        <v>0.09394560705828647</v>
+        <v>0.1359988540096508</v>
       </c>
       <c r="D4">
-        <v>0.09213723277681812</v>
+        <v>0.1326337387927119</v>
       </c>
       <c r="E4">
-        <v>-0.8</v>
+        <v>0.499999643303454</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,16 +480,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.07677222379981566</v>
+        <v>0.6075918816272678</v>
       </c>
       <c r="C5">
-        <v>0.07793045418526394</v>
+        <v>0.5950562549488467</v>
       </c>
       <c r="D5">
-        <v>0.07660007303170682</v>
+        <v>0.6147961707990083</v>
       </c>
       <c r="E5">
-        <v>-0.7</v>
+        <v>0.7499998216517269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -545,287 +497,15 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.06781354697431134</v>
+        <v>0.527168632</v>
       </c>
       <c r="C6">
-        <v>0.06033275318280158</v>
+        <v>0.546208382</v>
       </c>
       <c r="D6">
-        <v>0.06161549486511007</v>
+        <v>0.515793443</v>
       </c>
       <c r="E6">
-        <v>-0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>0.05830345210737423</v>
-      </c>
-      <c r="C7">
-        <v>0.04100529759006474</v>
-      </c>
-      <c r="D7">
-        <v>0.0501978632914754</v>
-      </c>
-      <c r="E7">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>0.05075089456044511</v>
-      </c>
-      <c r="C8">
-        <v>0.01698417226446381</v>
-      </c>
-      <c r="D8">
-        <v>0.04546218491543554</v>
-      </c>
-      <c r="E8">
-        <v>-0.3999999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>0.04697763717490644</v>
-      </c>
-      <c r="C9">
-        <v>0.01846762777251613</v>
-      </c>
-      <c r="D9">
-        <v>0.04518322001283182</v>
-      </c>
-      <c r="E9">
-        <v>-0.2999999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>0.04776815328797625</v>
-      </c>
-      <c r="C10">
-        <v>0.02834420456962991</v>
-      </c>
-      <c r="D10">
-        <v>0.04425208367883684</v>
-      </c>
-      <c r="E10">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>0.05087885814055112</v>
-      </c>
-      <c r="C11">
-        <v>0.03474009492370726</v>
-      </c>
-      <c r="D11">
-        <v>0.0402816269964423</v>
-      </c>
-      <c r="E11">
-        <v>-0.09999999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>0.05109250256374864</v>
-      </c>
-      <c r="C12">
-        <v>0.03852522959707071</v>
-      </c>
-      <c r="D12">
-        <v>0.03274868135438866</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>0.04582933606166305</v>
-      </c>
-      <c r="C13">
-        <v>0.03577339444571054</v>
-      </c>
-      <c r="D13">
-        <v>0.03749797716201021</v>
-      </c>
-      <c r="E13">
-        <v>0.1000000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>0.2120509971738638</v>
-      </c>
-      <c r="C14">
-        <v>0.3131332320201378</v>
-      </c>
-      <c r="D14">
-        <v>0.4508810111691258</v>
-      </c>
-      <c r="E14">
-        <v>0.2000000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>0.3340436573372461</v>
-      </c>
-      <c r="C15">
-        <v>0.3991256194718149</v>
-      </c>
-      <c r="D15">
-        <v>0.3676637667484861</v>
-      </c>
-      <c r="E15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>0.2026699242124337</v>
-      </c>
-      <c r="C16">
-        <v>0.1561133070535207</v>
-      </c>
-      <c r="D16">
-        <v>0.02009066353763644</v>
-      </c>
-      <c r="E16">
-        <v>0.4000000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>0.06239887968652123</v>
-      </c>
-      <c r="C17">
-        <v>0.04593695559616863</v>
-      </c>
-      <c r="D17">
-        <v>0.06431953346885186</v>
-      </c>
-      <c r="E17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>0.06097875166938957</v>
-      </c>
-      <c r="C18">
-        <v>0.03249835592860255</v>
-      </c>
-      <c r="D18">
-        <v>0.03609276946123521</v>
-      </c>
-      <c r="E18">
-        <v>0.6000000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>0.06230838861311393</v>
-      </c>
-      <c r="C19">
-        <v>0.0452845357013687</v>
-      </c>
-      <c r="D19">
-        <v>0.02297453086002567</v>
-      </c>
-      <c r="E19">
-        <v>0.7000000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0.05612586017979098</v>
-      </c>
-      <c r="C20">
-        <v>0.06307744595549693</v>
-      </c>
-      <c r="D20">
-        <v>0.07235293472813044</v>
-      </c>
-      <c r="E20">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0.04842743529573486</v>
-      </c>
-      <c r="C21">
-        <v>0.07471023587355272</v>
-      </c>
-      <c r="D21">
-        <v>0.08640342437569778</v>
-      </c>
-      <c r="E21">
-        <v>0.9000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>0.0384777</v>
-      </c>
-      <c r="C22">
-        <v>0.0493915</v>
-      </c>
-      <c r="D22">
-        <v>0.0774174</v>
-      </c>
-      <c r="E22">
         <v>1</v>
       </c>
     </row>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>variable</t>
   </si>
@@ -34,13 +34,61 @@
     <t>phi_-0.0000</t>
   </si>
   <si>
+    <t>phi_0.0500</t>
+  </si>
+  <si>
+    <t>phi_0.1000</t>
+  </si>
+  <si>
+    <t>phi_0.1500</t>
+  </si>
+  <si>
+    <t>phi_0.2000</t>
+  </si>
+  <si>
     <t>phi_0.2500</t>
   </si>
   <si>
+    <t>phi_0.3000</t>
+  </si>
+  <si>
+    <t>phi_0.3500</t>
+  </si>
+  <si>
+    <t>phi_0.4000</t>
+  </si>
+  <si>
+    <t>phi_0.4500</t>
+  </si>
+  <si>
     <t>phi_0.5000</t>
   </si>
   <si>
+    <t>phi_0.5500</t>
+  </si>
+  <si>
+    <t>phi_0.6000</t>
+  </si>
+  <si>
+    <t>phi_0.6500</t>
+  </si>
+  <si>
+    <t>phi_0.7000</t>
+  </si>
+  <si>
     <t>phi_0.7500</t>
+  </si>
+  <si>
+    <t>phi_0.8000</t>
+  </si>
+  <si>
+    <t>phi_0.8500</t>
+  </si>
+  <si>
+    <t>phi_0.9000</t>
+  </si>
+  <si>
+    <t>phi_0.9500</t>
   </si>
   <si>
     <t>phi_1.0000</t>
@@ -401,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,16 +494,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.1351285381754221</v>
+        <v>0.4246112354279316</v>
       </c>
       <c r="C3">
-        <v>0.1423025141596007</v>
+        <v>0.4262847582645582</v>
       </c>
       <c r="D3">
-        <v>0.14372573426556</v>
+        <v>0.435861379980351</v>
       </c>
       <c r="E3">
-        <v>0.249999464955181</v>
+        <v>0.04999932227656259</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,16 +511,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1361954070995965</v>
+        <v>0.362232850563531</v>
       </c>
       <c r="C4">
-        <v>0.1359988540096508</v>
+        <v>0.3635276939148809</v>
       </c>
       <c r="D4">
-        <v>0.1326337387927119</v>
+        <v>0.3698628781433433</v>
       </c>
       <c r="E4">
-        <v>0.499999643303454</v>
+        <v>0.09999935794621718</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,16 +528,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.6075918816272678</v>
+        <v>0.2869568017485726</v>
       </c>
       <c r="C5">
-        <v>0.5950562549488467</v>
+        <v>0.2929609431107805</v>
       </c>
       <c r="D5">
-        <v>0.6147961707990083</v>
+        <v>0.2979116755464833</v>
       </c>
       <c r="E5">
-        <v>0.7499998216517269</v>
+        <v>0.1499993936158718</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -497,15 +545,287 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <v>0.2085413773140853</v>
+      </c>
+      <c r="C6">
+        <v>0.2167929287941868</v>
+      </c>
+      <c r="D6">
+        <v>0.2201327974124013</v>
+      </c>
+      <c r="E6">
+        <v>0.1999994292855264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.1351285381754221</v>
+      </c>
+      <c r="C7">
+        <v>0.1423025141596007</v>
+      </c>
+      <c r="D7">
+        <v>0.14372573426556</v>
+      </c>
+      <c r="E7">
+        <v>0.249999464955181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.07138259991756449</v>
+      </c>
+      <c r="C8">
+        <v>0.07674601964131285</v>
+      </c>
+      <c r="D8">
+        <v>0.0771815567248072</v>
+      </c>
+      <c r="E8">
+        <v>0.2999995006248355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.02297510738591806</v>
+      </c>
+      <c r="C9">
+        <v>0.02629345425254802</v>
+      </c>
+      <c r="D9">
+        <v>0.02552679883793104</v>
+      </c>
+      <c r="E9">
+        <v>0.3499995362944902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.04411748410674251</v>
+      </c>
+      <c r="C10">
+        <v>0.04416111023660232</v>
+      </c>
+      <c r="D10">
+        <v>0.03993078715810641</v>
+      </c>
+      <c r="E10">
+        <v>0.3999995719641448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.08988136754102584</v>
+      </c>
+      <c r="C11">
+        <v>0.08991195453941069</v>
+      </c>
+      <c r="D11">
+        <v>0.08629661294338958</v>
+      </c>
+      <c r="E11">
+        <v>0.4499996076337994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.1361954070995965</v>
+      </c>
+      <c r="C12">
+        <v>0.1359988540096508</v>
+      </c>
+      <c r="D12">
+        <v>0.1326337387927119</v>
+      </c>
+      <c r="E12">
+        <v>0.499999643303454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.1840127752610901</v>
+      </c>
+      <c r="C13">
+        <v>0.1821744756461599</v>
+      </c>
+      <c r="D13">
+        <v>0.178864023292082</v>
+      </c>
+      <c r="E13">
+        <v>0.5499996789731085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.2383783516901995</v>
+      </c>
+      <c r="C14">
+        <v>0.2323943639211221</v>
+      </c>
+      <c r="D14">
+        <v>0.2293526279103272</v>
+      </c>
+      <c r="E14">
+        <v>0.599999714642763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.3127474316144384</v>
+      </c>
+      <c r="C15">
+        <v>0.2995419889334269</v>
+      </c>
+      <c r="D15">
+        <v>0.2986893882845401</v>
+      </c>
+      <c r="E15">
+        <v>0.6499997503124176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.4283596859988836</v>
+      </c>
+      <c r="C16">
+        <v>0.4116351294545521</v>
+      </c>
+      <c r="D16">
+        <v>0.4192823897277798</v>
+      </c>
+      <c r="E16">
+        <v>0.6999997859820722</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.6075918816272678</v>
+      </c>
+      <c r="C17">
+        <v>0.5950562549488467</v>
+      </c>
+      <c r="D17">
+        <v>0.6147961707990083</v>
+      </c>
+      <c r="E17">
+        <v>0.7499998216517269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.8359285424689332</v>
+      </c>
+      <c r="C18">
+        <v>0.8321582760263507</v>
+      </c>
+      <c r="D18">
+        <v>0.8591015965897354</v>
+      </c>
+      <c r="E18">
+        <v>0.7999998573213815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0.9494482100330378</v>
+      </c>
+      <c r="C19">
+        <v>0.9767981609654574</v>
+      </c>
+      <c r="D19">
+        <v>0.9882839937274183</v>
+      </c>
+      <c r="E19">
+        <v>0.8499998929910361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.9028568367635105</v>
+      </c>
+      <c r="C20">
+        <v>0.9367215821998738</v>
+      </c>
+      <c r="D20">
+        <v>0.944724354652655</v>
+      </c>
+      <c r="E20">
+        <v>0.8999999286606907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.7217200486092825</v>
+      </c>
+      <c r="C21">
+        <v>0.7447144090249544</v>
+      </c>
+      <c r="D21">
+        <v>0.7355765974985735</v>
+      </c>
+      <c r="E21">
+        <v>0.9499999643303453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>0.527168632</v>
       </c>
-      <c r="C6">
+      <c r="C22">
         <v>0.546208382</v>
       </c>
-      <c r="D6">
+      <c r="D22">
         <v>0.515793443</v>
       </c>
-      <c r="E6">
+      <c r="E22">
         <v>1</v>
       </c>
     </row>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -31,64 +31,64 @@
     <t>x</t>
   </si>
   <si>
-    <t>phi_-0.0000</t>
-  </si>
-  <si>
-    <t>phi_0.0500</t>
+    <t>phi_-1.0000</t>
+  </si>
+  <si>
+    <t>phi_-0.9000</t>
+  </si>
+  <si>
+    <t>phi_-0.8000</t>
+  </si>
+  <si>
+    <t>phi_-0.7000</t>
+  </si>
+  <si>
+    <t>phi_-0.6000</t>
+  </si>
+  <si>
+    <t>phi_-0.5000</t>
+  </si>
+  <si>
+    <t>phi_-0.4000</t>
+  </si>
+  <si>
+    <t>phi_-0.3000</t>
+  </si>
+  <si>
+    <t>phi_-0.2000</t>
+  </si>
+  <si>
+    <t>phi_-0.1000</t>
+  </si>
+  <si>
+    <t>phi_0.0000</t>
   </si>
   <si>
     <t>phi_0.1000</t>
   </si>
   <si>
-    <t>phi_0.1500</t>
-  </si>
-  <si>
     <t>phi_0.2000</t>
   </si>
   <si>
-    <t>phi_0.2500</t>
-  </si>
-  <si>
     <t>phi_0.3000</t>
   </si>
   <si>
-    <t>phi_0.3500</t>
-  </si>
-  <si>
     <t>phi_0.4000</t>
   </si>
   <si>
-    <t>phi_0.4500</t>
-  </si>
-  <si>
     <t>phi_0.5000</t>
   </si>
   <si>
-    <t>phi_0.5500</t>
-  </si>
-  <si>
     <t>phi_0.6000</t>
   </si>
   <si>
-    <t>phi_0.6500</t>
-  </si>
-  <si>
     <t>phi_0.7000</t>
   </si>
   <si>
-    <t>phi_0.7500</t>
-  </si>
-  <si>
     <t>phi_0.8000</t>
   </si>
   <si>
-    <t>phi_0.8500</t>
-  </si>
-  <si>
     <t>phi_0.9000</t>
-  </si>
-  <si>
-    <t>phi_0.9500</t>
   </si>
   <si>
     <t>phi_1.0000</t>
@@ -477,16 +477,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.446113646</v>
+        <v>0.0762028</v>
       </c>
       <c r="C2">
-        <v>0.442592859</v>
+        <v>0.098555</v>
       </c>
       <c r="D2">
-        <v>0.4470689</v>
+        <v>0.118094</v>
       </c>
       <c r="E2">
-        <v>-7.13393092E-07</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -494,16 +494,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.4246112354279316</v>
+        <v>0.09082753195903717</v>
       </c>
       <c r="C3">
-        <v>0.4262847582645582</v>
+        <v>0.1069450247067137</v>
       </c>
       <c r="D3">
-        <v>0.435861379980351</v>
+        <v>0.1103875320142812</v>
       </c>
       <c r="E3">
-        <v>0.04999932227656259</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -511,16 +511,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.362232850563531</v>
+        <v>0.08480150651392439</v>
       </c>
       <c r="C4">
-        <v>0.3635276939148809</v>
+        <v>0.09394560705828647</v>
       </c>
       <c r="D4">
-        <v>0.3698628781433433</v>
+        <v>0.09213723277681812</v>
       </c>
       <c r="E4">
-        <v>0.09999935794621718</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,16 +528,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.2869568017485726</v>
+        <v>0.07677222379981566</v>
       </c>
       <c r="C5">
-        <v>0.2929609431107805</v>
+        <v>0.07793045418526394</v>
       </c>
       <c r="D5">
-        <v>0.2979116755464833</v>
+        <v>0.07660007303170682</v>
       </c>
       <c r="E5">
-        <v>0.1499993936158718</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -545,16 +545,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.2085413773140853</v>
+        <v>0.06781354697431134</v>
       </c>
       <c r="C6">
-        <v>0.2167929287941868</v>
+        <v>0.06033275318280158</v>
       </c>
       <c r="D6">
-        <v>0.2201327974124013</v>
+        <v>0.06161549486511007</v>
       </c>
       <c r="E6">
-        <v>0.1999994292855264</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,16 +562,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.1351285381754221</v>
+        <v>0.05830345210737423</v>
       </c>
       <c r="C7">
-        <v>0.1423025141596007</v>
+        <v>0.04100529759006474</v>
       </c>
       <c r="D7">
-        <v>0.14372573426556</v>
+        <v>0.0501978632914754</v>
       </c>
       <c r="E7">
-        <v>0.249999464955181</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -579,16 +579,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.07138259991756449</v>
+        <v>0.05075089456044511</v>
       </c>
       <c r="C8">
-        <v>0.07674601964131285</v>
+        <v>0.01698417226446381</v>
       </c>
       <c r="D8">
-        <v>0.0771815567248072</v>
+        <v>0.04546218491543554</v>
       </c>
       <c r="E8">
-        <v>0.2999995006248355</v>
+        <v>-0.3999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -596,16 +596,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02297510738591806</v>
+        <v>0.04697763717490644</v>
       </c>
       <c r="C9">
-        <v>0.02629345425254802</v>
+        <v>0.01846762777251613</v>
       </c>
       <c r="D9">
-        <v>0.02552679883793104</v>
+        <v>0.04518322001283182</v>
       </c>
       <c r="E9">
-        <v>0.3499995362944902</v>
+        <v>-0.2999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -613,16 +613,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04411748410674251</v>
+        <v>0.04776815328797625</v>
       </c>
       <c r="C10">
-        <v>0.04416111023660232</v>
+        <v>0.02834420456962991</v>
       </c>
       <c r="D10">
-        <v>0.03993078715810641</v>
+        <v>0.04425208367883684</v>
       </c>
       <c r="E10">
-        <v>0.3999995719641448</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,16 +630,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08988136754102584</v>
+        <v>0.05087885814055112</v>
       </c>
       <c r="C11">
-        <v>0.08991195453941069</v>
+        <v>0.03474009492370726</v>
       </c>
       <c r="D11">
-        <v>0.08629661294338958</v>
+        <v>0.0402816269964423</v>
       </c>
       <c r="E11">
-        <v>0.4499996076337994</v>
+        <v>-0.09999999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -647,16 +647,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1361954070995965</v>
+        <v>0.05109250256374864</v>
       </c>
       <c r="C12">
-        <v>0.1359988540096508</v>
+        <v>0.03852522959707071</v>
       </c>
       <c r="D12">
-        <v>0.1326337387927119</v>
+        <v>0.03274868135438866</v>
       </c>
       <c r="E12">
-        <v>0.499999643303454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -664,16 +664,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.1840127752610901</v>
+        <v>0.04582933606166305</v>
       </c>
       <c r="C13">
-        <v>0.1821744756461599</v>
+        <v>0.03577339444571054</v>
       </c>
       <c r="D13">
-        <v>0.178864023292082</v>
+        <v>0.03749797716201021</v>
       </c>
       <c r="E13">
-        <v>0.5499996789731085</v>
+        <v>0.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -681,16 +681,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.2383783516901995</v>
+        <v>0.2120509971738638</v>
       </c>
       <c r="C14">
-        <v>0.2323943639211221</v>
+        <v>0.3131332320201378</v>
       </c>
       <c r="D14">
-        <v>0.2293526279103272</v>
+        <v>0.4508810111691258</v>
       </c>
       <c r="E14">
-        <v>0.599999714642763</v>
+        <v>0.2000000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -698,16 +698,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.3127474316144384</v>
+        <v>0.3340436573372461</v>
       </c>
       <c r="C15">
-        <v>0.2995419889334269</v>
+        <v>0.3991256194718149</v>
       </c>
       <c r="D15">
-        <v>0.2986893882845401</v>
+        <v>0.3676637667484861</v>
       </c>
       <c r="E15">
-        <v>0.6499997503124176</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -715,16 +715,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.4283596859988836</v>
+        <v>0.2026699242124337</v>
       </c>
       <c r="C16">
-        <v>0.4116351294545521</v>
+        <v>0.1561133070535207</v>
       </c>
       <c r="D16">
-        <v>0.4192823897277798</v>
+        <v>0.02009066353763644</v>
       </c>
       <c r="E16">
-        <v>0.6999997859820722</v>
+        <v>0.4000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -732,16 +732,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.6075918816272678</v>
+        <v>0.06239887968652123</v>
       </c>
       <c r="C17">
-        <v>0.5950562549488467</v>
+        <v>0.04593695559616863</v>
       </c>
       <c r="D17">
-        <v>0.6147961707990083</v>
+        <v>0.06431953346885186</v>
       </c>
       <c r="E17">
-        <v>0.7499998216517269</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -749,16 +749,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.8359285424689332</v>
+        <v>0.06097875166938957</v>
       </c>
       <c r="C18">
-        <v>0.8321582760263507</v>
+        <v>0.03249835592860255</v>
       </c>
       <c r="D18">
-        <v>0.8591015965897354</v>
+        <v>0.03609276946123521</v>
       </c>
       <c r="E18">
-        <v>0.7999998573213815</v>
+        <v>0.6000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -766,16 +766,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.9494482100330378</v>
+        <v>0.06230838861311393</v>
       </c>
       <c r="C19">
-        <v>0.9767981609654574</v>
+        <v>0.0452845357013687</v>
       </c>
       <c r="D19">
-        <v>0.9882839937274183</v>
+        <v>0.02297453086002567</v>
       </c>
       <c r="E19">
-        <v>0.8499998929910361</v>
+        <v>0.7000000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -783,16 +783,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.9028568367635105</v>
+        <v>0.05612586017979098</v>
       </c>
       <c r="C20">
-        <v>0.9367215821998738</v>
+        <v>0.06307744595549693</v>
       </c>
       <c r="D20">
-        <v>0.944724354652655</v>
+        <v>0.07235293472813044</v>
       </c>
       <c r="E20">
-        <v>0.8999999286606907</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -800,16 +800,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.7217200486092825</v>
+        <v>0.04842743529573486</v>
       </c>
       <c r="C21">
-        <v>0.7447144090249544</v>
+        <v>0.07471023587355272</v>
       </c>
       <c r="D21">
-        <v>0.7355765974985735</v>
+        <v>0.08640342437569778</v>
       </c>
       <c r="E21">
-        <v>0.9499999643303453</v>
+        <v>0.9000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -817,13 +817,13 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.527168632</v>
+        <v>0.0384777</v>
       </c>
       <c r="C22">
-        <v>0.546208382</v>
+        <v>0.0493915</v>
       </c>
       <c r="D22">
-        <v>0.515793443</v>
+        <v>0.0774174</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -31,64 +31,64 @@
     <t>x</t>
   </si>
   <si>
-    <t>phi_-1.0000</t>
-  </si>
-  <si>
-    <t>phi_-0.9000</t>
-  </si>
-  <si>
-    <t>phi_-0.8000</t>
-  </si>
-  <si>
-    <t>phi_-0.7000</t>
-  </si>
-  <si>
-    <t>phi_-0.6000</t>
-  </si>
-  <si>
-    <t>phi_-0.5000</t>
-  </si>
-  <si>
-    <t>phi_-0.4000</t>
-  </si>
-  <si>
-    <t>phi_-0.3000</t>
-  </si>
-  <si>
-    <t>phi_-0.2000</t>
-  </si>
-  <si>
-    <t>phi_-0.1000</t>
-  </si>
-  <si>
-    <t>phi_0.0000</t>
+    <t>phi_-0.0000</t>
+  </si>
+  <si>
+    <t>phi_0.0500</t>
   </si>
   <si>
     <t>phi_0.1000</t>
   </si>
   <si>
+    <t>phi_0.1500</t>
+  </si>
+  <si>
     <t>phi_0.2000</t>
   </si>
   <si>
+    <t>phi_0.2500</t>
+  </si>
+  <si>
     <t>phi_0.3000</t>
   </si>
   <si>
+    <t>phi_0.3500</t>
+  </si>
+  <si>
     <t>phi_0.4000</t>
   </si>
   <si>
+    <t>phi_0.4500</t>
+  </si>
+  <si>
     <t>phi_0.5000</t>
   </si>
   <si>
+    <t>phi_0.5500</t>
+  </si>
+  <si>
     <t>phi_0.6000</t>
   </si>
   <si>
+    <t>phi_0.6500</t>
+  </si>
+  <si>
     <t>phi_0.7000</t>
   </si>
   <si>
+    <t>phi_0.7500</t>
+  </si>
+  <si>
     <t>phi_0.8000</t>
   </si>
   <si>
+    <t>phi_0.8500</t>
+  </si>
+  <si>
     <t>phi_0.9000</t>
+  </si>
+  <si>
+    <t>phi_0.9500</t>
   </si>
   <si>
     <t>phi_1.0000</t>
@@ -477,16 +477,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0762028</v>
+        <v>0.446113646</v>
       </c>
       <c r="C2">
-        <v>0.098555</v>
+        <v>0.442592859</v>
       </c>
       <c r="D2">
-        <v>0.118094</v>
+        <v>0.4470689</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>-7.13393092E-07</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -494,16 +494,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.09082753195903717</v>
+        <v>0.4246112354279316</v>
       </c>
       <c r="C3">
-        <v>0.1069450247067137</v>
+        <v>0.4262847582645582</v>
       </c>
       <c r="D3">
-        <v>0.1103875320142812</v>
+        <v>0.435861379980351</v>
       </c>
       <c r="E3">
-        <v>-0.9</v>
+        <v>0.04999932227656259</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -511,16 +511,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08480150651392439</v>
+        <v>0.362232850563531</v>
       </c>
       <c r="C4">
-        <v>0.09394560705828647</v>
+        <v>0.3635276939148809</v>
       </c>
       <c r="D4">
-        <v>0.09213723277681812</v>
+        <v>0.3698628781433433</v>
       </c>
       <c r="E4">
-        <v>-0.8</v>
+        <v>0.09999935794621718</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,16 +528,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.07677222379981566</v>
+        <v>0.2869568017485726</v>
       </c>
       <c r="C5">
-        <v>0.07793045418526394</v>
+        <v>0.2929609431107805</v>
       </c>
       <c r="D5">
-        <v>0.07660007303170682</v>
+        <v>0.2979116755464833</v>
       </c>
       <c r="E5">
-        <v>-0.7</v>
+        <v>0.1499993936158718</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -545,16 +545,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.06781354697431134</v>
+        <v>0.2085413773140853</v>
       </c>
       <c r="C6">
-        <v>0.06033275318280158</v>
+        <v>0.2167929287941868</v>
       </c>
       <c r="D6">
-        <v>0.06161549486511007</v>
+        <v>0.2201327974124013</v>
       </c>
       <c r="E6">
-        <v>-0.6</v>
+        <v>0.1999994292855264</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,16 +562,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05830345210737423</v>
+        <v>0.1351285381754221</v>
       </c>
       <c r="C7">
-        <v>0.04100529759006474</v>
+        <v>0.1423025141596007</v>
       </c>
       <c r="D7">
-        <v>0.0501978632914754</v>
+        <v>0.14372573426556</v>
       </c>
       <c r="E7">
-        <v>-0.5</v>
+        <v>0.249999464955181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -579,16 +579,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05075089456044511</v>
+        <v>0.07138259991756449</v>
       </c>
       <c r="C8">
-        <v>0.01698417226446381</v>
+        <v>0.07674601964131285</v>
       </c>
       <c r="D8">
-        <v>0.04546218491543554</v>
+        <v>0.0771815567248072</v>
       </c>
       <c r="E8">
-        <v>-0.3999999999999999</v>
+        <v>0.2999995006248355</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -596,16 +596,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.04697763717490644</v>
+        <v>0.02297510738591806</v>
       </c>
       <c r="C9">
-        <v>0.01846762777251613</v>
+        <v>0.02629345425254802</v>
       </c>
       <c r="D9">
-        <v>0.04518322001283182</v>
+        <v>0.02552679883793104</v>
       </c>
       <c r="E9">
-        <v>-0.2999999999999999</v>
+        <v>0.3499995362944902</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -613,16 +613,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04776815328797625</v>
+        <v>0.04411748410674251</v>
       </c>
       <c r="C10">
-        <v>0.02834420456962991</v>
+        <v>0.04416111023660232</v>
       </c>
       <c r="D10">
-        <v>0.04425208367883684</v>
+        <v>0.03993078715810641</v>
       </c>
       <c r="E10">
-        <v>-0.2</v>
+        <v>0.3999995719641448</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,16 +630,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.05087885814055112</v>
+        <v>0.08988136754102584</v>
       </c>
       <c r="C11">
-        <v>0.03474009492370726</v>
+        <v>0.08991195453941069</v>
       </c>
       <c r="D11">
-        <v>0.0402816269964423</v>
+        <v>0.08629661294338958</v>
       </c>
       <c r="E11">
-        <v>-0.09999999999999998</v>
+        <v>0.4499996076337994</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -647,16 +647,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.05109250256374864</v>
+        <v>0.1361954070995965</v>
       </c>
       <c r="C12">
-        <v>0.03852522959707071</v>
+        <v>0.1359988540096508</v>
       </c>
       <c r="D12">
-        <v>0.03274868135438866</v>
+        <v>0.1326337387927119</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.499999643303454</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -664,16 +664,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04582933606166305</v>
+        <v>0.1840127752610901</v>
       </c>
       <c r="C13">
-        <v>0.03577339444571054</v>
+        <v>0.1821744756461599</v>
       </c>
       <c r="D13">
-        <v>0.03749797716201021</v>
+        <v>0.178864023292082</v>
       </c>
       <c r="E13">
-        <v>0.1000000000000001</v>
+        <v>0.5499996789731085</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -681,16 +681,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.2120509971738638</v>
+        <v>0.2383783516901995</v>
       </c>
       <c r="C14">
-        <v>0.3131332320201378</v>
+        <v>0.2323943639211221</v>
       </c>
       <c r="D14">
-        <v>0.4508810111691258</v>
+        <v>0.2293526279103272</v>
       </c>
       <c r="E14">
-        <v>0.2000000000000002</v>
+        <v>0.599999714642763</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -698,16 +698,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.3340436573372461</v>
+        <v>0.3127474316144384</v>
       </c>
       <c r="C15">
-        <v>0.3991256194718149</v>
+        <v>0.2995419889334269</v>
       </c>
       <c r="D15">
-        <v>0.3676637667484861</v>
+        <v>0.2986893882845401</v>
       </c>
       <c r="E15">
-        <v>0.3</v>
+        <v>0.6499997503124176</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -715,16 +715,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.2026699242124337</v>
+        <v>0.4283596859988836</v>
       </c>
       <c r="C16">
-        <v>0.1561133070535207</v>
+        <v>0.4116351294545521</v>
       </c>
       <c r="D16">
-        <v>0.02009066353763644</v>
+        <v>0.4192823897277798</v>
       </c>
       <c r="E16">
-        <v>0.4000000000000001</v>
+        <v>0.6999997859820722</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -732,16 +732,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.06239887968652123</v>
+        <v>0.6075918816272678</v>
       </c>
       <c r="C17">
-        <v>0.04593695559616863</v>
+        <v>0.5950562549488467</v>
       </c>
       <c r="D17">
-        <v>0.06431953346885186</v>
+        <v>0.6147961707990083</v>
       </c>
       <c r="E17">
-        <v>0.5</v>
+        <v>0.7499998216517269</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -749,16 +749,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.06097875166938957</v>
+        <v>0.8359285424689332</v>
       </c>
       <c r="C18">
-        <v>0.03249835592860255</v>
+        <v>0.8321582760263507</v>
       </c>
       <c r="D18">
-        <v>0.03609276946123521</v>
+        <v>0.8591015965897354</v>
       </c>
       <c r="E18">
-        <v>0.6000000000000001</v>
+        <v>0.7999998573213815</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -766,16 +766,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.06230838861311393</v>
+        <v>0.9494482100330378</v>
       </c>
       <c r="C19">
-        <v>0.0452845357013687</v>
+        <v>0.9767981609654574</v>
       </c>
       <c r="D19">
-        <v>0.02297453086002567</v>
+        <v>0.9882839937274183</v>
       </c>
       <c r="E19">
-        <v>0.7000000000000002</v>
+        <v>0.8499998929910361</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -783,16 +783,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05612586017979098</v>
+        <v>0.9028568367635105</v>
       </c>
       <c r="C20">
-        <v>0.06307744595549693</v>
+        <v>0.9367215821998738</v>
       </c>
       <c r="D20">
-        <v>0.07235293472813044</v>
+        <v>0.944724354652655</v>
       </c>
       <c r="E20">
-        <v>0.8</v>
+        <v>0.8999999286606907</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -800,16 +800,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04842743529573486</v>
+        <v>0.7217200486092825</v>
       </c>
       <c r="C21">
-        <v>0.07471023587355272</v>
+        <v>0.7447144090249544</v>
       </c>
       <c r="D21">
-        <v>0.08640342437569778</v>
+        <v>0.7355765974985735</v>
       </c>
       <c r="E21">
-        <v>0.9000000000000001</v>
+        <v>0.9499999643303453</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -817,13 +817,13 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.0384777</v>
+        <v>0.527168632</v>
       </c>
       <c r="C22">
-        <v>0.0493915</v>
+        <v>0.546208382</v>
       </c>
       <c r="D22">
-        <v>0.0774174</v>
+        <v>0.515793443</v>
       </c>
       <c r="E22">
         <v>1</v>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>variable</t>
   </si>
@@ -34,61 +34,298 @@
     <t>phi_-0.0000</t>
   </si>
   <si>
-    <t>phi_0.0500</t>
-  </si>
-  <si>
-    <t>phi_0.1000</t>
-  </si>
-  <si>
-    <t>phi_0.1500</t>
-  </si>
-  <si>
-    <t>phi_0.2000</t>
-  </si>
-  <si>
-    <t>phi_0.2500</t>
-  </si>
-  <si>
-    <t>phi_0.3000</t>
-  </si>
-  <si>
-    <t>phi_0.3500</t>
-  </si>
-  <si>
-    <t>phi_0.4000</t>
-  </si>
-  <si>
-    <t>phi_0.4500</t>
-  </si>
-  <si>
-    <t>phi_0.5000</t>
-  </si>
-  <si>
-    <t>phi_0.5500</t>
-  </si>
-  <si>
-    <t>phi_0.6000</t>
-  </si>
-  <si>
-    <t>phi_0.6500</t>
-  </si>
-  <si>
-    <t>phi_0.7000</t>
-  </si>
-  <si>
-    <t>phi_0.7500</t>
-  </si>
-  <si>
-    <t>phi_0.8000</t>
-  </si>
-  <si>
-    <t>phi_0.8500</t>
-  </si>
-  <si>
-    <t>phi_0.9000</t>
-  </si>
-  <si>
-    <t>phi_0.9500</t>
+    <t>phi_0.0101</t>
+  </si>
+  <si>
+    <t>phi_0.0202</t>
+  </si>
+  <si>
+    <t>phi_0.0303</t>
+  </si>
+  <si>
+    <t>phi_0.0404</t>
+  </si>
+  <si>
+    <t>phi_0.0505</t>
+  </si>
+  <si>
+    <t>phi_0.0606</t>
+  </si>
+  <si>
+    <t>phi_0.0707</t>
+  </si>
+  <si>
+    <t>phi_0.0808</t>
+  </si>
+  <si>
+    <t>phi_0.0909</t>
+  </si>
+  <si>
+    <t>phi_0.1010</t>
+  </si>
+  <si>
+    <t>phi_0.1111</t>
+  </si>
+  <si>
+    <t>phi_0.1212</t>
+  </si>
+  <si>
+    <t>phi_0.1313</t>
+  </si>
+  <si>
+    <t>phi_0.1414</t>
+  </si>
+  <si>
+    <t>phi_0.1515</t>
+  </si>
+  <si>
+    <t>phi_0.1616</t>
+  </si>
+  <si>
+    <t>phi_0.1717</t>
+  </si>
+  <si>
+    <t>phi_0.1818</t>
+  </si>
+  <si>
+    <t>phi_0.1919</t>
+  </si>
+  <si>
+    <t>phi_0.2020</t>
+  </si>
+  <si>
+    <t>phi_0.2121</t>
+  </si>
+  <si>
+    <t>phi_0.2222</t>
+  </si>
+  <si>
+    <t>phi_0.2323</t>
+  </si>
+  <si>
+    <t>phi_0.2424</t>
+  </si>
+  <si>
+    <t>phi_0.2525</t>
+  </si>
+  <si>
+    <t>phi_0.2626</t>
+  </si>
+  <si>
+    <t>phi_0.2727</t>
+  </si>
+  <si>
+    <t>phi_0.2828</t>
+  </si>
+  <si>
+    <t>phi_0.2929</t>
+  </si>
+  <si>
+    <t>phi_0.3030</t>
+  </si>
+  <si>
+    <t>phi_0.3131</t>
+  </si>
+  <si>
+    <t>phi_0.3232</t>
+  </si>
+  <si>
+    <t>phi_0.3333</t>
+  </si>
+  <si>
+    <t>phi_0.3434</t>
+  </si>
+  <si>
+    <t>phi_0.3535</t>
+  </si>
+  <si>
+    <t>phi_0.3636</t>
+  </si>
+  <si>
+    <t>phi_0.3737</t>
+  </si>
+  <si>
+    <t>phi_0.3838</t>
+  </si>
+  <si>
+    <t>phi_0.3939</t>
+  </si>
+  <si>
+    <t>phi_0.4040</t>
+  </si>
+  <si>
+    <t>phi_0.4141</t>
+  </si>
+  <si>
+    <t>phi_0.4242</t>
+  </si>
+  <si>
+    <t>phi_0.4343</t>
+  </si>
+  <si>
+    <t>phi_0.4444</t>
+  </si>
+  <si>
+    <t>phi_0.4545</t>
+  </si>
+  <si>
+    <t>phi_0.4646</t>
+  </si>
+  <si>
+    <t>phi_0.4747</t>
+  </si>
+  <si>
+    <t>phi_0.4848</t>
+  </si>
+  <si>
+    <t>phi_0.4949</t>
+  </si>
+  <si>
+    <t>phi_0.5051</t>
+  </si>
+  <si>
+    <t>phi_0.5152</t>
+  </si>
+  <si>
+    <t>phi_0.5253</t>
+  </si>
+  <si>
+    <t>phi_0.5354</t>
+  </si>
+  <si>
+    <t>phi_0.5455</t>
+  </si>
+  <si>
+    <t>phi_0.5556</t>
+  </si>
+  <si>
+    <t>phi_0.5657</t>
+  </si>
+  <si>
+    <t>phi_0.5758</t>
+  </si>
+  <si>
+    <t>phi_0.5859</t>
+  </si>
+  <si>
+    <t>phi_0.5960</t>
+  </si>
+  <si>
+    <t>phi_0.6061</t>
+  </si>
+  <si>
+    <t>phi_0.6162</t>
+  </si>
+  <si>
+    <t>phi_0.6263</t>
+  </si>
+  <si>
+    <t>phi_0.6364</t>
+  </si>
+  <si>
+    <t>phi_0.6465</t>
+  </si>
+  <si>
+    <t>phi_0.6566</t>
+  </si>
+  <si>
+    <t>phi_0.6667</t>
+  </si>
+  <si>
+    <t>phi_0.6768</t>
+  </si>
+  <si>
+    <t>phi_0.6869</t>
+  </si>
+  <si>
+    <t>phi_0.6970</t>
+  </si>
+  <si>
+    <t>phi_0.7071</t>
+  </si>
+  <si>
+    <t>phi_0.7172</t>
+  </si>
+  <si>
+    <t>phi_0.7273</t>
+  </si>
+  <si>
+    <t>phi_0.7374</t>
+  </si>
+  <si>
+    <t>phi_0.7475</t>
+  </si>
+  <si>
+    <t>phi_0.7576</t>
+  </si>
+  <si>
+    <t>phi_0.7677</t>
+  </si>
+  <si>
+    <t>phi_0.7778</t>
+  </si>
+  <si>
+    <t>phi_0.7879</t>
+  </si>
+  <si>
+    <t>phi_0.7980</t>
+  </si>
+  <si>
+    <t>phi_0.8081</t>
+  </si>
+  <si>
+    <t>phi_0.8182</t>
+  </si>
+  <si>
+    <t>phi_0.8283</t>
+  </si>
+  <si>
+    <t>phi_0.8384</t>
+  </si>
+  <si>
+    <t>phi_0.8485</t>
+  </si>
+  <si>
+    <t>phi_0.8586</t>
+  </si>
+  <si>
+    <t>phi_0.8687</t>
+  </si>
+  <si>
+    <t>phi_0.8788</t>
+  </si>
+  <si>
+    <t>phi_0.8889</t>
+  </si>
+  <si>
+    <t>phi_0.8990</t>
+  </si>
+  <si>
+    <t>phi_0.9091</t>
+  </si>
+  <si>
+    <t>phi_0.9192</t>
+  </si>
+  <si>
+    <t>phi_0.9293</t>
+  </si>
+  <si>
+    <t>phi_0.9394</t>
+  </si>
+  <si>
+    <t>phi_0.9495</t>
+  </si>
+  <si>
+    <t>phi_0.9596</t>
+  </si>
+  <si>
+    <t>phi_0.9697</t>
+  </si>
+  <si>
+    <t>phi_0.9798</t>
+  </si>
+  <si>
+    <t>phi_0.9899</t>
   </si>
   <si>
     <t>phi_1.0000</t>
@@ -449,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,16 +731,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.4246112354279316</v>
+        <v>0.4434894602242762</v>
       </c>
       <c r="C3">
-        <v>0.4262847582645582</v>
+        <v>0.447079842332995</v>
       </c>
       <c r="D3">
-        <v>0.435861379980351</v>
+        <v>0.4658045210969317</v>
       </c>
       <c r="E3">
-        <v>0.04999932227656259</v>
+        <v>0.01010030391390893</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -511,16 +748,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.362232850563531</v>
+        <v>0.4408691188738096</v>
       </c>
       <c r="C4">
-        <v>0.3635276939148809</v>
+        <v>0.4513381690799196</v>
       </c>
       <c r="D4">
-        <v>0.3698628781433433</v>
+        <v>0.4642605994837535</v>
       </c>
       <c r="E4">
-        <v>0.09999935794621718</v>
+        <v>0.02020132122090986</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,16 +765,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.2869568017485726</v>
+        <v>0.4382529522921895</v>
       </c>
       <c r="C5">
-        <v>0.2929609431107805</v>
+        <v>0.444094699619622</v>
       </c>
       <c r="D5">
-        <v>0.2979116755464833</v>
+        <v>0.4567872380885863</v>
       </c>
       <c r="E5">
-        <v>0.1499993936158718</v>
+        <v>0.03030233852791079</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -545,16 +782,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.2085413773140853</v>
+        <v>0.4352935931335969</v>
       </c>
       <c r="C6">
-        <v>0.2167929287941868</v>
+        <v>0.4367096749965538</v>
       </c>
       <c r="D6">
-        <v>0.2201327974124013</v>
+        <v>0.4467287627761583</v>
       </c>
       <c r="E6">
-        <v>0.1999994292855264</v>
+        <v>0.04040335583491171</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,16 +799,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.1351285381754221</v>
+        <v>0.4239872813601936</v>
       </c>
       <c r="C7">
-        <v>0.1423025141596007</v>
+        <v>0.425711200122844</v>
       </c>
       <c r="D7">
-        <v>0.14372573426556</v>
+        <v>0.4352642729903109</v>
       </c>
       <c r="E7">
-        <v>0.249999464955181</v>
+        <v>0.05050437314191264</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -579,16 +816,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.07138259991756449</v>
+        <v>0.412689544438086</v>
       </c>
       <c r="C8">
-        <v>0.07674601964131285</v>
+        <v>0.4146209412718964</v>
       </c>
       <c r="D8">
-        <v>0.0771815567248072</v>
+        <v>0.4228930177145572</v>
       </c>
       <c r="E8">
-        <v>0.2999995006248355</v>
+        <v>0.06060539044891357</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -596,16 +833,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.02297510738591806</v>
+        <v>0.4014010124427904</v>
       </c>
       <c r="C9">
-        <v>0.02629345425254802</v>
+        <v>0.4019679919947338</v>
       </c>
       <c r="D9">
-        <v>0.02552679883793104</v>
+        <v>0.409881817540475</v>
       </c>
       <c r="E9">
-        <v>0.3499995362944902</v>
+        <v>0.0707064077559145</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -613,16 +850,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.04411748410674251</v>
+        <v>0.3898612380228659</v>
       </c>
       <c r="C10">
-        <v>0.04416111023660232</v>
+        <v>0.3892521979022244</v>
       </c>
       <c r="D10">
-        <v>0.03993078715810641</v>
+        <v>0.3963970033314512</v>
       </c>
       <c r="E10">
-        <v>0.3999995719641448</v>
+        <v>0.08080742506291543</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,16 +867,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08988136754102584</v>
+        <v>0.3753220984501908</v>
       </c>
       <c r="C11">
-        <v>0.08991195453941069</v>
+        <v>0.3757241097919976</v>
       </c>
       <c r="D11">
-        <v>0.08629661294338958</v>
+        <v>0.382554710398131</v>
       </c>
       <c r="E11">
-        <v>0.4499996076337994</v>
+        <v>0.09090844236991635</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -647,16 +884,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1361954070995965</v>
+        <v>0.3607908398338551</v>
       </c>
       <c r="C12">
-        <v>0.1359988540096508</v>
+        <v>0.3621551944018199</v>
       </c>
       <c r="D12">
-        <v>0.1326337387927119</v>
+        <v>0.3684414252865989</v>
       </c>
       <c r="E12">
-        <v>0.499999643303454</v>
+        <v>0.1010094596769173</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -664,16 +901,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.1840127752610901</v>
+        <v>0.3462685193914585</v>
       </c>
       <c r="C13">
-        <v>0.1821744756461599</v>
+        <v>0.3481474394702931</v>
       </c>
       <c r="D13">
-        <v>0.178864023292082</v>
+        <v>0.3541257829701615</v>
       </c>
       <c r="E13">
-        <v>0.5499996789731085</v>
+        <v>0.1111104769839182</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -681,16 +918,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.2383783516901995</v>
+        <v>0.3316154208732267</v>
       </c>
       <c r="C14">
-        <v>0.2323943639211221</v>
+        <v>0.3341147417437539</v>
       </c>
       <c r="D14">
-        <v>0.2293526279103272</v>
+        <v>0.3396617848720238</v>
       </c>
       <c r="E14">
-        <v>0.599999714642763</v>
+        <v>0.1212114942909191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -698,16 +935,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.3127474316144384</v>
+        <v>0.3159378682965313</v>
       </c>
       <c r="C15">
-        <v>0.2995419889334269</v>
+        <v>0.3198382896080235</v>
       </c>
       <c r="D15">
-        <v>0.2986893882845401</v>
+        <v>0.3250909759442961</v>
       </c>
       <c r="E15">
-        <v>0.6499997503124176</v>
+        <v>0.1313125115979201</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -715,16 +952,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.4283596859988836</v>
+        <v>0.3002681766796058</v>
       </c>
       <c r="C16">
-        <v>0.4116351294545521</v>
+        <v>0.3055012956886907</v>
       </c>
       <c r="D16">
-        <v>0.4192823897277798</v>
+        <v>0.3104407614944095</v>
       </c>
       <c r="E16">
-        <v>0.6999997859820722</v>
+        <v>0.141413528904921</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -732,16 +969,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.6075918816272678</v>
+        <v>0.2846076939305254</v>
       </c>
       <c r="C17">
-        <v>0.5950562549488467</v>
+        <v>0.2907393819215792</v>
       </c>
       <c r="D17">
-        <v>0.6147961707990083</v>
+        <v>0.2956842420896033</v>
       </c>
       <c r="E17">
-        <v>0.7499998216517269</v>
+        <v>0.151514546211922</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -749,16 +986,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.8359285424689332</v>
+        <v>0.2689127570396474</v>
       </c>
       <c r="C18">
-        <v>0.8321582760263507</v>
+        <v>0.2758808158974274</v>
       </c>
       <c r="D18">
-        <v>0.8591015965897354</v>
+        <v>0.2806184900659927</v>
       </c>
       <c r="E18">
-        <v>0.7999998573213815</v>
+        <v>0.1616155635189229</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -766,16 +1003,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.9494482100330378</v>
+        <v>0.2529904295923094</v>
       </c>
       <c r="C19">
-        <v>0.9767981609654574</v>
+        <v>0.2604676296090707</v>
       </c>
       <c r="D19">
-        <v>0.9882839937274183</v>
+        <v>0.2650839760891307</v>
       </c>
       <c r="E19">
-        <v>0.8499998929910361</v>
+        <v>0.1717165808259238</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -783,16 +1020,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.9028568367635105</v>
+        <v>0.2370778928791039</v>
       </c>
       <c r="C20">
-        <v>0.9367215821998738</v>
+        <v>0.2450126175955323</v>
       </c>
       <c r="D20">
-        <v>0.944724354652655</v>
+        <v>0.2491660257294393</v>
       </c>
       <c r="E20">
-        <v>0.8999999286606907</v>
+        <v>0.1818175981329247</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -800,16 +1037,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.7217200486092825</v>
+        <v>0.2211772930300894</v>
       </c>
       <c r="C21">
-        <v>0.7447144090249544</v>
+        <v>0.2293216897403971</v>
       </c>
       <c r="D21">
-        <v>0.7355765974985735</v>
+        <v>0.2330459901833206</v>
       </c>
       <c r="E21">
-        <v>0.9499999643303453</v>
+        <v>0.1919186154399257</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -817,15 +1054,1358 @@
         <v>25</v>
       </c>
       <c r="B22">
+        <v>0.2054414326936442</v>
+      </c>
+      <c r="C22">
+        <v>0.2136771672002225</v>
+      </c>
+      <c r="D22">
+        <v>0.2169132886782678</v>
+      </c>
+      <c r="E22">
+        <v>0.2020196327469266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>0.1903203174217203</v>
+      </c>
+      <c r="C23">
+        <v>0.1981739967052885</v>
+      </c>
+      <c r="D23">
+        <v>0.2009231196756598</v>
+      </c>
+      <c r="E23">
+        <v>0.2121206500539275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>0.1752141869631446</v>
+      </c>
+      <c r="C24">
+        <v>0.182796836115165</v>
+      </c>
+      <c r="D24">
+        <v>0.1851864234150579</v>
+      </c>
+      <c r="E24">
+        <v>0.2222216673609284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>0.1601273111369545</v>
+      </c>
+      <c r="C25">
+        <v>0.1678208429513384</v>
+      </c>
+      <c r="D25">
+        <v>0.1697767334558681</v>
+      </c>
+      <c r="E25">
+        <v>0.2323226846679294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>0.1454009422681054</v>
+      </c>
+      <c r="C26">
+        <v>0.1530279891258793</v>
+      </c>
+      <c r="D26">
+        <v>0.1547402155930318</v>
+      </c>
+      <c r="E26">
+        <v>0.2424237019749303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>0.131764008543418</v>
+      </c>
+      <c r="C27">
+        <v>0.1387638436496985</v>
+      </c>
+      <c r="D27">
+        <v>0.1401059996759349</v>
+      </c>
+      <c r="E27">
+        <v>0.2525247192819312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0.1181595988294775</v>
+      </c>
+      <c r="C28">
+        <v>0.124722328155697</v>
+      </c>
+      <c r="D28">
+        <v>0.1258921238947787</v>
+      </c>
+      <c r="E28">
+        <v>0.2626257365889321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>0.1046004667784932</v>
+      </c>
+      <c r="C29">
+        <v>0.1112524152511506</v>
+      </c>
+      <c r="D29">
+        <v>0.1121114394816219</v>
+      </c>
+      <c r="E29">
+        <v>0.2727267538959331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>0.09152993884549505</v>
+      </c>
+      <c r="C30">
+        <v>0.09804131859199545</v>
+      </c>
+      <c r="D30">
+        <v>0.09877602393490077</v>
+      </c>
+      <c r="E30">
+        <v>0.282827771202934</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>0.07962995707883755</v>
+      </c>
+      <c r="C31">
+        <v>0.08541469872431827</v>
+      </c>
+      <c r="D31">
+        <v>0.08590285720368528</v>
+      </c>
+      <c r="E31">
+        <v>0.2929287885099349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>0.06784557817629804</v>
+      </c>
+      <c r="C32">
+        <v>0.07310830569589551</v>
+      </c>
+      <c r="D32">
+        <v>0.07352125922188357</v>
+      </c>
+      <c r="E32">
+        <v>0.3030298058169359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>0.05624952064237613</v>
+      </c>
+      <c r="C33">
+        <v>0.06143787257461295</v>
+      </c>
+      <c r="D33">
+        <v>0.0616835199165981</v>
+      </c>
+      <c r="E33">
+        <v>0.3131308231239368</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>0.04535966638258656</v>
+      </c>
+      <c r="C34">
+        <v>0.05026315432411824</v>
+      </c>
+      <c r="D34">
+        <v>0.05048071735623168</v>
+      </c>
+      <c r="E34">
+        <v>0.3232318404309377</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>0.03581291064405603</v>
+      </c>
+      <c r="C35">
+        <v>0.0400099762922623</v>
+      </c>
+      <c r="D35">
+        <v>0.04006627282599597</v>
+      </c>
+      <c r="E35">
+        <v>0.3333328577379386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>0.02734572071194713</v>
+      </c>
+      <c r="C36">
+        <v>0.03097345541805266</v>
+      </c>
+      <c r="D36">
+        <v>0.03072452449964267</v>
+      </c>
+      <c r="E36">
+        <v>0.3434338750449396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>0.02128785081488227</v>
+      </c>
+      <c r="C37">
+        <v>0.02436341024386641</v>
+      </c>
+      <c r="D37">
+        <v>0.02318425418072486</v>
+      </c>
+      <c r="E37">
+        <v>0.3535348923519405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>0.01994813948141927</v>
+      </c>
+      <c r="C38">
+        <v>0.0219110766795671</v>
+      </c>
+      <c r="D38">
+        <v>0.01923767439610116</v>
+      </c>
+      <c r="E38">
+        <v>0.3636359096589414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>0.02365169495842981</v>
+      </c>
+      <c r="C39">
+        <v>0.02460406640307092</v>
+      </c>
+      <c r="D39">
+        <v>0.02076444917754742</v>
+      </c>
+      <c r="E39">
+        <v>0.3737369269659424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>0.03047331344887078</v>
+      </c>
+      <c r="C40">
+        <v>0.03091965968734514</v>
+      </c>
+      <c r="D40">
+        <v>0.02667030803678193</v>
+      </c>
+      <c r="E40">
+        <v>0.3838379442729433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>0.03880191280271777</v>
+      </c>
+      <c r="C41">
+        <v>0.03893413425601047</v>
+      </c>
+      <c r="D41">
+        <v>0.03467153868359383</v>
+      </c>
+      <c r="E41">
+        <v>0.3939389615799442</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>0.04771153922678272</v>
+      </c>
+      <c r="C42">
+        <v>0.04773777628420785</v>
+      </c>
+      <c r="D42">
+        <v>0.04354393973838925</v>
+      </c>
+      <c r="E42">
+        <v>0.4040399788869452</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>0.05676454891860182</v>
+      </c>
+      <c r="C43">
+        <v>0.05683046143469156</v>
+      </c>
+      <c r="D43">
+        <v>0.05278633725672637</v>
+      </c>
+      <c r="E43">
+        <v>0.4141409961939461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>0.06602154241454641</v>
+      </c>
+      <c r="C44">
+        <v>0.06610122568220252</v>
+      </c>
+      <c r="D44">
+        <v>0.06218471847659031</v>
+      </c>
+      <c r="E44">
+        <v>0.424242013500947</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>0.07540741718118747</v>
+      </c>
+      <c r="C45">
+        <v>0.07541308603866449</v>
+      </c>
+      <c r="D45">
+        <v>0.07163922008982983</v>
+      </c>
+      <c r="E45">
+        <v>0.4343430308079479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>0.0847720172882023</v>
+      </c>
+      <c r="C46">
+        <v>0.08476896329088453</v>
+      </c>
+      <c r="D46">
+        <v>0.08110009778158529</v>
+      </c>
+      <c r="E46">
+        <v>0.4444440481149489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>0.0940578146619882</v>
+      </c>
+      <c r="C47">
+        <v>0.0941178448386031</v>
+      </c>
+      <c r="D47">
+        <v>0.0905424093397911</v>
+      </c>
+      <c r="E47">
+        <v>0.4545450654219498</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>0.1033850827638027</v>
+      </c>
+      <c r="C48">
+        <v>0.1034632615130007</v>
+      </c>
+      <c r="D48">
+        <v>0.09995441929384431</v>
+      </c>
+      <c r="E48">
+        <v>0.4646460827289507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>0.112743515625199</v>
+      </c>
+      <c r="C49">
+        <v>0.1127817067444704</v>
+      </c>
+      <c r="D49">
+        <v>0.1093316415081418</v>
+      </c>
+      <c r="E49">
+        <v>0.4747471000359517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>0.1221155392360977</v>
+      </c>
+      <c r="C50">
+        <v>0.1220846029376494</v>
+      </c>
+      <c r="D50">
+        <v>0.1186742045061248</v>
+      </c>
+      <c r="E50">
+        <v>0.4848481173429526</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>0.1314958400266185</v>
+      </c>
+      <c r="C51">
+        <v>0.1313618472251668</v>
+      </c>
+      <c r="D51">
+        <v>0.1279864816179459</v>
+      </c>
+      <c r="E51">
+        <v>0.4949491346499535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>0.1408920324199714</v>
+      </c>
+      <c r="C52">
+        <v>0.1406333166856801</v>
+      </c>
+      <c r="D52">
+        <v>0.1372770389861071</v>
+      </c>
+      <c r="E52">
+        <v>0.5050501519569544</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>0.1503011755623748</v>
+      </c>
+      <c r="C53">
+        <v>0.1498958313919059</v>
+      </c>
+      <c r="D53">
+        <v>0.1465595205207955</v>
+      </c>
+      <c r="E53">
+        <v>0.5151511692639553</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>0.1599334367401333</v>
+      </c>
+      <c r="C54">
+        <v>0.1591872992189874</v>
+      </c>
+      <c r="D54">
+        <v>0.1558537303850651</v>
+      </c>
+      <c r="E54">
+        <v>0.5252521865709562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>0.1697724328774921</v>
+      </c>
+      <c r="C55">
+        <v>0.1685048137515526</v>
+      </c>
+      <c r="D55">
+        <v>0.1651869217409564</v>
+      </c>
+      <c r="E55">
+        <v>0.5353532038779572</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>0.1796207847510481</v>
+      </c>
+      <c r="C56">
+        <v>0.1779197093068328</v>
+      </c>
+      <c r="D56">
+        <v>0.174594574530873</v>
+      </c>
+      <c r="E56">
+        <v>0.5454542211849581</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>0.1894770260387485</v>
+      </c>
+      <c r="C57">
+        <v>0.1874181409423205</v>
+      </c>
+      <c r="D57">
+        <v>0.1841224509543305</v>
+      </c>
+      <c r="E57">
+        <v>0.555555238491959</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>0.2000439234216977</v>
+      </c>
+      <c r="C58">
+        <v>0.197133279628934</v>
+      </c>
+      <c r="D58">
+        <v>0.1938293051843928</v>
+      </c>
+      <c r="E58">
+        <v>0.56565625579896</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>0.2111722453440824</v>
+      </c>
+      <c r="C59">
+        <v>0.2070200970229265</v>
+      </c>
+      <c r="D59">
+        <v>0.203789927309202</v>
+      </c>
+      <c r="E59">
+        <v>0.5757572731059609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>0.2223082186869965</v>
+      </c>
+      <c r="C60">
+        <v>0.2173222542523758</v>
+      </c>
+      <c r="D60">
+        <v>0.2140991495872528</v>
+      </c>
+      <c r="E60">
+        <v>0.5858582904129618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>0.2334507777709945</v>
+      </c>
+      <c r="C61">
+        <v>0.227927428184346</v>
+      </c>
+      <c r="D61">
+        <v>0.2248772661854471</v>
+      </c>
+      <c r="E61">
+        <v>0.5959593077199627</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62">
+        <v>0.2463178294248691</v>
+      </c>
+      <c r="C62">
+        <v>0.2392704496705751</v>
+      </c>
+      <c r="D62">
+        <v>0.2362765555237774</v>
+      </c>
+      <c r="E62">
+        <v>0.6060603250269637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63">
+        <v>0.2603391244423253</v>
+      </c>
+      <c r="C63">
+        <v>0.2511084613237328</v>
+      </c>
+      <c r="D63">
+        <v>0.248486737890765</v>
+      </c>
+      <c r="E63">
+        <v>0.6161613423339646</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>0.2743680193071437</v>
+      </c>
+      <c r="C64">
+        <v>0.2641888547777461</v>
+      </c>
+      <c r="D64">
+        <v>0.2617420002777893</v>
+      </c>
+      <c r="E64">
+        <v>0.6262623596409655</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>0.2884034999194866</v>
+      </c>
+      <c r="C65">
+        <v>0.2780347579721404</v>
+      </c>
+      <c r="D65">
+        <v>0.2763249445850038</v>
+      </c>
+      <c r="E65">
+        <v>0.6363633769479664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>0.305999568087381</v>
+      </c>
+      <c r="C66">
+        <v>0.2938354828591382</v>
+      </c>
+      <c r="D66">
+        <v>0.2925567345904456</v>
+      </c>
+      <c r="E66">
+        <v>0.6464643942549674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>0.3256033005285711</v>
+      </c>
+      <c r="C67">
+        <v>0.3107406869723364</v>
+      </c>
+      <c r="D67">
+        <v>0.3107736282020962</v>
+      </c>
+      <c r="E67">
+        <v>0.6565654115619683</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68">
+        <v>0.3452140462382771</v>
+      </c>
+      <c r="C68">
+        <v>0.3304436128884421</v>
+      </c>
+      <c r="D68">
+        <v>0.3313184747754264</v>
+      </c>
+      <c r="E68">
+        <v>0.6666664288689692</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>0.3648306793921363</v>
+      </c>
+      <c r="C69">
+        <v>0.351592880952407</v>
+      </c>
+      <c r="D69">
+        <v>0.3545229119314197</v>
+      </c>
+      <c r="E69">
+        <v>0.6767674461759702</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>0.3907212233240239</v>
+      </c>
+      <c r="C70">
+        <v>0.3763470332166319</v>
+      </c>
+      <c r="D70">
+        <v>0.3806501499777115</v>
+      </c>
+      <c r="E70">
+        <v>0.686868463482971</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>0.4195672524123725</v>
+      </c>
+      <c r="C71">
+        <v>0.4028020687546741</v>
+      </c>
+      <c r="D71">
+        <v>0.4098880081210955</v>
+      </c>
+      <c r="E71">
+        <v>0.696969480789972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>0.4484175178892629</v>
+      </c>
+      <c r="C72">
+        <v>0.4334439407652479</v>
+      </c>
+      <c r="D72">
+        <v>0.4423320880594328</v>
+      </c>
+      <c r="E72">
+        <v>0.707070498096973</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>0.4772712356387407</v>
+      </c>
+      <c r="C73">
+        <v>0.465883157629718</v>
+      </c>
+      <c r="D73">
+        <v>0.4779994623586016</v>
+      </c>
+      <c r="E73">
+        <v>0.7171715154039738</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>0.515031845745659</v>
+      </c>
+      <c r="C74">
+        <v>0.5027396152738379</v>
+      </c>
+      <c r="D74">
+        <v>0.5168180754122988</v>
+      </c>
+      <c r="E74">
+        <v>0.7272725327109748</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>0.5562563208890199</v>
+      </c>
+      <c r="C75">
+        <v>0.5413152782656984</v>
+      </c>
+      <c r="D75">
+        <v>0.5586400433903053</v>
+      </c>
+      <c r="E75">
+        <v>0.7373735500179758</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>0.5974813746469979</v>
+      </c>
+      <c r="C76">
+        <v>0.5841354409662738</v>
+      </c>
+      <c r="D76">
+        <v>0.6032445272861029</v>
+      </c>
+      <c r="E76">
+        <v>0.7474745673249766</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>0.6387068176557695</v>
+      </c>
+      <c r="C77">
+        <v>0.6284473257901623</v>
+      </c>
+      <c r="D77">
+        <v>0.6503126502942053</v>
+      </c>
+      <c r="E77">
+        <v>0.7575755846319776</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>0.6849204630123205</v>
+      </c>
+      <c r="C78">
+        <v>0.676030196916687</v>
+      </c>
+      <c r="D78">
+        <v>0.6993745441695023</v>
+      </c>
+      <c r="E78">
+        <v>0.7676766019389786</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>0.7327100752161827</v>
+      </c>
+      <c r="C79">
+        <v>0.7246460532027197</v>
+      </c>
+      <c r="D79">
+        <v>0.7497307404339792</v>
+      </c>
+      <c r="E79">
+        <v>0.7777776192459794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>0.7805006058862487</v>
+      </c>
+      <c r="C80">
+        <v>0.7737834029619655</v>
+      </c>
+      <c r="D80">
+        <v>0.8003254121371319</v>
+      </c>
+      <c r="E80">
+        <v>0.7878786365529804</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81">
+        <v>0.8282918391729206</v>
+      </c>
+      <c r="C81">
+        <v>0.8230680633040841</v>
+      </c>
+      <c r="D81">
+        <v>0.8495925566720504</v>
+      </c>
+      <c r="E81">
+        <v>0.7979796538599813</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82">
+        <v>0.8606342506839447</v>
+      </c>
+      <c r="C82">
+        <v>0.8671149749007587</v>
+      </c>
+      <c r="D82">
+        <v>0.8952812602238535</v>
+      </c>
+      <c r="E82">
+        <v>0.8080806711669822</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>0.8891139332053699</v>
+      </c>
+      <c r="C83">
+        <v>0.909852877937472</v>
+      </c>
+      <c r="D83">
+        <v>0.9344714967901943</v>
+      </c>
+      <c r="E83">
+        <v>0.8181816884739832</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>0.9175938802109318</v>
+      </c>
+      <c r="C84">
+        <v>0.939467637140104</v>
+      </c>
+      <c r="D84">
+        <v>0.9640116126662883</v>
+      </c>
+      <c r="E84">
+        <v>0.8282827057809841</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>0.9460737902259231</v>
+      </c>
+      <c r="C85">
+        <v>0.9662012729890312</v>
+      </c>
+      <c r="D85">
+        <v>0.9818169427476325</v>
+      </c>
+      <c r="E85">
+        <v>0.838383723087985</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86">
+        <v>0.9496942074242903</v>
+      </c>
+      <c r="C86">
+        <v>0.9756974289974518</v>
+      </c>
+      <c r="D86">
+        <v>0.9880286555407227</v>
+      </c>
+      <c r="E86">
+        <v>0.8484847403949859</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>90</v>
+      </c>
+      <c r="B87">
+        <v>0.9485791266901519</v>
+      </c>
+      <c r="C87">
+        <v>0.9819098763445815</v>
+      </c>
+      <c r="D87">
+        <v>0.9878282467239953</v>
+      </c>
+      <c r="E87">
+        <v>0.8585857577019869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88">
+        <v>0.9474640535879684</v>
+      </c>
+      <c r="C88">
+        <v>0.9782413673069669</v>
+      </c>
+      <c r="D88">
+        <v>0.9846458268503825</v>
+      </c>
+      <c r="E88">
+        <v>0.8686867750089878</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>92</v>
+      </c>
+      <c r="B89">
+        <v>0.9463488702264242</v>
+      </c>
+      <c r="C89">
+        <v>0.97296406912957</v>
+      </c>
+      <c r="D89">
+        <v>0.9784204054297596</v>
+      </c>
+      <c r="E89">
+        <v>0.8787877923159887</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>93</v>
+      </c>
+      <c r="B90">
+        <v>0.9269729689044998</v>
+      </c>
+      <c r="C90">
+        <v>0.9568245454714693</v>
+      </c>
+      <c r="D90">
+        <v>0.9667149269368707</v>
+      </c>
+      <c r="E90">
+        <v>0.8888888096229897</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91">
+        <v>0.9051070148261651</v>
+      </c>
+      <c r="C91">
+        <v>0.9392036686506973</v>
+      </c>
+      <c r="D91">
+        <v>0.9471607691399725</v>
+      </c>
+      <c r="E91">
+        <v>0.8989898269299906</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92">
+        <v>0.8832415427614233</v>
+      </c>
+      <c r="C92">
+        <v>0.9093140127293255</v>
+      </c>
+      <c r="D92">
+        <v>0.918836266993361</v>
+      </c>
+      <c r="E92">
+        <v>0.9090908442369915</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93">
+        <v>0.8613764441790839</v>
+      </c>
+      <c r="C93">
+        <v>0.8780610871372494</v>
+      </c>
+      <c r="D93">
+        <v>0.882111510148877</v>
+      </c>
+      <c r="E93">
+        <v>0.9191918615439925</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94">
+        <v>0.8169260807936181</v>
+      </c>
+      <c r="C94">
+        <v>0.8365025234144604</v>
+      </c>
+      <c r="D94">
+        <v>0.8379864906011336</v>
+      </c>
+      <c r="E94">
+        <v>0.9292928788509934</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95">
+        <v>0.7705148831007249</v>
+      </c>
+      <c r="C95">
+        <v>0.7940480515038595</v>
+      </c>
+      <c r="D95">
+        <v>0.7887932341509482</v>
+      </c>
+      <c r="E95">
+        <v>0.9393938961579943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96">
+        <v>0.7241076100090309</v>
+      </c>
+      <c r="C96">
+        <v>0.747130141031292</v>
+      </c>
+      <c r="D96">
+        <v>0.7380918089147667</v>
+      </c>
+      <c r="E96">
+        <v>0.9494949134649953</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>100</v>
+      </c>
+      <c r="B97">
+        <v>0.6777051198507827</v>
+      </c>
+      <c r="C97">
+        <v>0.699930257696616</v>
+      </c>
+      <c r="D97">
+        <v>0.6889331384693356</v>
+      </c>
+      <c r="E97">
+        <v>0.9595959307719961</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>101</v>
+      </c>
+      <c r="B98">
+        <v>0.639782277093465</v>
+      </c>
+      <c r="C98">
+        <v>0.6564974983904981</v>
+      </c>
+      <c r="D98">
+        <v>0.6431663236006122</v>
+      </c>
+      <c r="E98">
+        <v>0.9696969480789971</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99">
+        <v>0.6022264120895905</v>
+      </c>
+      <c r="C99">
+        <v>0.6132418263988015</v>
+      </c>
+      <c r="D99">
+        <v>0.6011240824329355</v>
+      </c>
+      <c r="E99">
+        <v>0.9797979653859981</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>103</v>
+      </c>
+      <c r="B100">
+        <v>0.5646873020306484</v>
+      </c>
+      <c r="C100">
+        <v>0.5796145717540642</v>
+      </c>
+      <c r="D100">
+        <v>0.5608328469615189</v>
+      </c>
+      <c r="E100">
+        <v>0.9898989826929989</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101">
         <v>0.527168632</v>
       </c>
-      <c r="C22">
+      <c r="C101">
         <v>0.546208382</v>
       </c>
-      <c r="D22">
+      <c r="D101">
         <v>0.515793443</v>
       </c>
-      <c r="E22">
+      <c r="E101">
         <v>1</v>
       </c>
     </row>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>variable</t>
   </si>
@@ -34,298 +34,301 @@
     <t>phi_-0.0000</t>
   </si>
   <si>
-    <t>phi_0.0101</t>
-  </si>
-  <si>
-    <t>phi_0.0202</t>
-  </si>
-  <si>
-    <t>phi_0.0303</t>
-  </si>
-  <si>
-    <t>phi_0.0404</t>
-  </si>
-  <si>
-    <t>phi_0.0505</t>
-  </si>
-  <si>
-    <t>phi_0.0606</t>
-  </si>
-  <si>
-    <t>phi_0.0707</t>
-  </si>
-  <si>
-    <t>phi_0.0808</t>
-  </si>
-  <si>
-    <t>phi_0.0909</t>
-  </si>
-  <si>
-    <t>phi_0.1010</t>
-  </si>
-  <si>
-    <t>phi_0.1111</t>
-  </si>
-  <si>
-    <t>phi_0.1212</t>
-  </si>
-  <si>
-    <t>phi_0.1313</t>
-  </si>
-  <si>
-    <t>phi_0.1414</t>
-  </si>
-  <si>
-    <t>phi_0.1515</t>
-  </si>
-  <si>
-    <t>phi_0.1616</t>
-  </si>
-  <si>
-    <t>phi_0.1717</t>
-  </si>
-  <si>
-    <t>phi_0.1818</t>
-  </si>
-  <si>
-    <t>phi_0.1919</t>
-  </si>
-  <si>
-    <t>phi_0.2020</t>
-  </si>
-  <si>
-    <t>phi_0.2121</t>
-  </si>
-  <si>
-    <t>phi_0.2222</t>
-  </si>
-  <si>
-    <t>phi_0.2323</t>
-  </si>
-  <si>
-    <t>phi_0.2424</t>
-  </si>
-  <si>
-    <t>phi_0.2525</t>
-  </si>
-  <si>
-    <t>phi_0.2626</t>
-  </si>
-  <si>
-    <t>phi_0.2727</t>
-  </si>
-  <si>
-    <t>phi_0.2828</t>
-  </si>
-  <si>
-    <t>phi_0.2929</t>
-  </si>
-  <si>
-    <t>phi_0.3030</t>
-  </si>
-  <si>
-    <t>phi_0.3131</t>
-  </si>
-  <si>
-    <t>phi_0.3232</t>
-  </si>
-  <si>
-    <t>phi_0.3333</t>
-  </si>
-  <si>
-    <t>phi_0.3434</t>
-  </si>
-  <si>
-    <t>phi_0.3535</t>
-  </si>
-  <si>
-    <t>phi_0.3636</t>
-  </si>
-  <si>
-    <t>phi_0.3737</t>
-  </si>
-  <si>
-    <t>phi_0.3838</t>
-  </si>
-  <si>
-    <t>phi_0.3939</t>
-  </si>
-  <si>
-    <t>phi_0.4040</t>
-  </si>
-  <si>
-    <t>phi_0.4141</t>
-  </si>
-  <si>
-    <t>phi_0.4242</t>
-  </si>
-  <si>
-    <t>phi_0.4343</t>
-  </si>
-  <si>
-    <t>phi_0.4444</t>
-  </si>
-  <si>
-    <t>phi_0.4545</t>
-  </si>
-  <si>
-    <t>phi_0.4646</t>
-  </si>
-  <si>
-    <t>phi_0.4747</t>
-  </si>
-  <si>
-    <t>phi_0.4848</t>
-  </si>
-  <si>
-    <t>phi_0.4949</t>
-  </si>
-  <si>
-    <t>phi_0.5051</t>
-  </si>
-  <si>
-    <t>phi_0.5152</t>
-  </si>
-  <si>
-    <t>phi_0.5253</t>
-  </si>
-  <si>
-    <t>phi_0.5354</t>
-  </si>
-  <si>
-    <t>phi_0.5455</t>
-  </si>
-  <si>
-    <t>phi_0.5556</t>
-  </si>
-  <si>
-    <t>phi_0.5657</t>
-  </si>
-  <si>
-    <t>phi_0.5758</t>
-  </si>
-  <si>
-    <t>phi_0.5859</t>
-  </si>
-  <si>
-    <t>phi_0.5960</t>
-  </si>
-  <si>
-    <t>phi_0.6061</t>
-  </si>
-  <si>
-    <t>phi_0.6162</t>
-  </si>
-  <si>
-    <t>phi_0.6263</t>
-  </si>
-  <si>
-    <t>phi_0.6364</t>
-  </si>
-  <si>
-    <t>phi_0.6465</t>
-  </si>
-  <si>
-    <t>phi_0.6566</t>
-  </si>
-  <si>
-    <t>phi_0.6667</t>
-  </si>
-  <si>
-    <t>phi_0.6768</t>
-  </si>
-  <si>
-    <t>phi_0.6869</t>
-  </si>
-  <si>
-    <t>phi_0.6970</t>
-  </si>
-  <si>
-    <t>phi_0.7071</t>
-  </si>
-  <si>
-    <t>phi_0.7172</t>
-  </si>
-  <si>
-    <t>phi_0.7273</t>
-  </si>
-  <si>
-    <t>phi_0.7374</t>
-  </si>
-  <si>
-    <t>phi_0.7475</t>
-  </si>
-  <si>
-    <t>phi_0.7576</t>
-  </si>
-  <si>
-    <t>phi_0.7677</t>
-  </si>
-  <si>
-    <t>phi_0.7778</t>
-  </si>
-  <si>
-    <t>phi_0.7879</t>
-  </si>
-  <si>
-    <t>phi_0.7980</t>
-  </si>
-  <si>
-    <t>phi_0.8081</t>
-  </si>
-  <si>
-    <t>phi_0.8182</t>
-  </si>
-  <si>
-    <t>phi_0.8283</t>
-  </si>
-  <si>
-    <t>phi_0.8384</t>
-  </si>
-  <si>
-    <t>phi_0.8485</t>
-  </si>
-  <si>
-    <t>phi_0.8586</t>
-  </si>
-  <si>
-    <t>phi_0.8687</t>
-  </si>
-  <si>
-    <t>phi_0.8788</t>
-  </si>
-  <si>
-    <t>phi_0.8889</t>
-  </si>
-  <si>
-    <t>phi_0.8990</t>
-  </si>
-  <si>
-    <t>phi_0.9091</t>
-  </si>
-  <si>
-    <t>phi_0.9192</t>
-  </si>
-  <si>
-    <t>phi_0.9293</t>
-  </si>
-  <si>
-    <t>phi_0.9394</t>
-  </si>
-  <si>
-    <t>phi_0.9495</t>
-  </si>
-  <si>
-    <t>phi_0.9596</t>
-  </si>
-  <si>
-    <t>phi_0.9697</t>
-  </si>
-  <si>
-    <t>phi_0.9798</t>
-  </si>
-  <si>
-    <t>phi_0.9899</t>
+    <t>phi_0.0100</t>
+  </si>
+  <si>
+    <t>phi_0.0200</t>
+  </si>
+  <si>
+    <t>phi_0.0300</t>
+  </si>
+  <si>
+    <t>phi_0.0400</t>
+  </si>
+  <si>
+    <t>phi_0.0500</t>
+  </si>
+  <si>
+    <t>phi_0.0600</t>
+  </si>
+  <si>
+    <t>phi_0.0700</t>
+  </si>
+  <si>
+    <t>phi_0.0800</t>
+  </si>
+  <si>
+    <t>phi_0.0900</t>
+  </si>
+  <si>
+    <t>phi_0.1000</t>
+  </si>
+  <si>
+    <t>phi_0.1100</t>
+  </si>
+  <si>
+    <t>phi_0.1200</t>
+  </si>
+  <si>
+    <t>phi_0.1300</t>
+  </si>
+  <si>
+    <t>phi_0.1400</t>
+  </si>
+  <si>
+    <t>phi_0.1500</t>
+  </si>
+  <si>
+    <t>phi_0.1600</t>
+  </si>
+  <si>
+    <t>phi_0.1700</t>
+  </si>
+  <si>
+    <t>phi_0.1800</t>
+  </si>
+  <si>
+    <t>phi_0.1900</t>
+  </si>
+  <si>
+    <t>phi_0.2000</t>
+  </si>
+  <si>
+    <t>phi_0.2100</t>
+  </si>
+  <si>
+    <t>phi_0.2200</t>
+  </si>
+  <si>
+    <t>phi_0.2300</t>
+  </si>
+  <si>
+    <t>phi_0.2400</t>
+  </si>
+  <si>
+    <t>phi_0.2500</t>
+  </si>
+  <si>
+    <t>phi_0.2600</t>
+  </si>
+  <si>
+    <t>phi_0.2700</t>
+  </si>
+  <si>
+    <t>phi_0.2800</t>
+  </si>
+  <si>
+    <t>phi_0.2900</t>
+  </si>
+  <si>
+    <t>phi_0.3000</t>
+  </si>
+  <si>
+    <t>phi_0.3100</t>
+  </si>
+  <si>
+    <t>phi_0.3200</t>
+  </si>
+  <si>
+    <t>phi_0.3300</t>
+  </si>
+  <si>
+    <t>phi_0.3400</t>
+  </si>
+  <si>
+    <t>phi_0.3500</t>
+  </si>
+  <si>
+    <t>phi_0.3600</t>
+  </si>
+  <si>
+    <t>phi_0.3700</t>
+  </si>
+  <si>
+    <t>phi_0.3800</t>
+  </si>
+  <si>
+    <t>phi_0.3900</t>
+  </si>
+  <si>
+    <t>phi_0.4000</t>
+  </si>
+  <si>
+    <t>phi_0.4100</t>
+  </si>
+  <si>
+    <t>phi_0.4200</t>
+  </si>
+  <si>
+    <t>phi_0.4300</t>
+  </si>
+  <si>
+    <t>phi_0.4400</t>
+  </si>
+  <si>
+    <t>phi_0.4500</t>
+  </si>
+  <si>
+    <t>phi_0.4600</t>
+  </si>
+  <si>
+    <t>phi_0.4700</t>
+  </si>
+  <si>
+    <t>phi_0.4800</t>
+  </si>
+  <si>
+    <t>phi_0.4900</t>
+  </si>
+  <si>
+    <t>phi_0.5000</t>
+  </si>
+  <si>
+    <t>phi_0.5100</t>
+  </si>
+  <si>
+    <t>phi_0.5200</t>
+  </si>
+  <si>
+    <t>phi_0.5300</t>
+  </si>
+  <si>
+    <t>phi_0.5400</t>
+  </si>
+  <si>
+    <t>phi_0.5500</t>
+  </si>
+  <si>
+    <t>phi_0.5600</t>
+  </si>
+  <si>
+    <t>phi_0.5700</t>
+  </si>
+  <si>
+    <t>phi_0.5800</t>
+  </si>
+  <si>
+    <t>phi_0.5900</t>
+  </si>
+  <si>
+    <t>phi_0.6000</t>
+  </si>
+  <si>
+    <t>phi_0.6100</t>
+  </si>
+  <si>
+    <t>phi_0.6200</t>
+  </si>
+  <si>
+    <t>phi_0.6300</t>
+  </si>
+  <si>
+    <t>phi_0.6400</t>
+  </si>
+  <si>
+    <t>phi_0.6500</t>
+  </si>
+  <si>
+    <t>phi_0.6600</t>
+  </si>
+  <si>
+    <t>phi_0.6700</t>
+  </si>
+  <si>
+    <t>phi_0.6800</t>
+  </si>
+  <si>
+    <t>phi_0.6900</t>
+  </si>
+  <si>
+    <t>phi_0.7000</t>
+  </si>
+  <si>
+    <t>phi_0.7100</t>
+  </si>
+  <si>
+    <t>phi_0.7200</t>
+  </si>
+  <si>
+    <t>phi_0.7300</t>
+  </si>
+  <si>
+    <t>phi_0.7400</t>
+  </si>
+  <si>
+    <t>phi_0.7500</t>
+  </si>
+  <si>
+    <t>phi_0.7600</t>
+  </si>
+  <si>
+    <t>phi_0.7700</t>
+  </si>
+  <si>
+    <t>phi_0.7800</t>
+  </si>
+  <si>
+    <t>phi_0.7900</t>
+  </si>
+  <si>
+    <t>phi_0.8000</t>
+  </si>
+  <si>
+    <t>phi_0.8100</t>
+  </si>
+  <si>
+    <t>phi_0.8200</t>
+  </si>
+  <si>
+    <t>phi_0.8300</t>
+  </si>
+  <si>
+    <t>phi_0.8400</t>
+  </si>
+  <si>
+    <t>phi_0.8500</t>
+  </si>
+  <si>
+    <t>phi_0.8600</t>
+  </si>
+  <si>
+    <t>phi_0.8700</t>
+  </si>
+  <si>
+    <t>phi_0.8800</t>
+  </si>
+  <si>
+    <t>phi_0.8900</t>
+  </si>
+  <si>
+    <t>phi_0.9000</t>
+  </si>
+  <si>
+    <t>phi_0.9100</t>
+  </si>
+  <si>
+    <t>phi_0.9200</t>
+  </si>
+  <si>
+    <t>phi_0.9300</t>
+  </si>
+  <si>
+    <t>phi_0.9400</t>
+  </si>
+  <si>
+    <t>phi_0.9500</t>
+  </si>
+  <si>
+    <t>phi_0.9600</t>
+  </si>
+  <si>
+    <t>phi_0.9700</t>
+  </si>
+  <si>
+    <t>phi_0.9800</t>
+  </si>
+  <si>
+    <t>phi_0.9900</t>
   </si>
   <si>
     <t>phi_1.0000</t>
@@ -686,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,16 +734,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.4434894602242762</v>
+        <v>0.4435143244872966</v>
       </c>
       <c r="C3">
-        <v>0.447079842332995</v>
+        <v>0.4470051606443307</v>
       </c>
       <c r="D3">
-        <v>0.4658045210969317</v>
+        <v>0.4657461385146648</v>
       </c>
       <c r="E3">
-        <v>0.01010030391390893</v>
+        <v>0.009999293740838921</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -748,16 +751,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.4408691188738096</v>
+        <v>0.4409267608711355</v>
       </c>
       <c r="C4">
-        <v>0.4513381690799196</v>
+        <v>0.4513753417214122</v>
       </c>
       <c r="D4">
-        <v>0.4642605994837535</v>
+        <v>0.4643792546843117</v>
       </c>
       <c r="E4">
-        <v>0.02020132122090986</v>
+        <v>0.01999930087476984</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -765,16 +768,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.4382529522921895</v>
+        <v>0.4383042788537994</v>
       </c>
       <c r="C5">
-        <v>0.444094699619622</v>
+        <v>0.4443447087736525</v>
       </c>
       <c r="D5">
-        <v>0.4567872380885863</v>
+        <v>0.4570538112004073</v>
       </c>
       <c r="E5">
-        <v>0.03030233852791079</v>
+        <v>0.02999930800870076</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -782,16 +785,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.4352935931335969</v>
+        <v>0.4355697853743754</v>
       </c>
       <c r="C6">
-        <v>0.4367096749965538</v>
+        <v>0.4370586754808228</v>
       </c>
       <c r="D6">
-        <v>0.4467287627761583</v>
+        <v>0.4471645610104367</v>
       </c>
       <c r="E6">
-        <v>0.04040335583491171</v>
+        <v>0.03999931514263168</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -799,16 +802,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.4239872813601936</v>
+        <v>0.4246112354279317</v>
       </c>
       <c r="C7">
-        <v>0.425711200122844</v>
+        <v>0.4262847582645583</v>
       </c>
       <c r="D7">
-        <v>0.4352642729903109</v>
+        <v>0.435861379980351</v>
       </c>
       <c r="E7">
-        <v>0.05050437314191264</v>
+        <v>0.0499993222765626</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -816,16 +819,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.412689544438086</v>
+        <v>0.4133516383150673</v>
       </c>
       <c r="C8">
-        <v>0.4146209412718964</v>
+        <v>0.4153202333749428</v>
       </c>
       <c r="D8">
-        <v>0.4228930177145572</v>
+        <v>0.4236555862540419</v>
       </c>
       <c r="E8">
-        <v>0.06060539044891357</v>
+        <v>0.05999932941049352</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -833,16 +836,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.4014010124427904</v>
+        <v>0.402180197291367</v>
       </c>
       <c r="C9">
-        <v>0.4019679919947338</v>
+        <v>0.4028679562678408</v>
       </c>
       <c r="D9">
-        <v>0.409881817540475</v>
+        <v>0.4108095557618149</v>
       </c>
       <c r="E9">
-        <v>0.0707064077559145</v>
+        <v>0.06999933654442443</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -850,16 +853,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.3898612380228659</v>
+        <v>0.3908896142894371</v>
       </c>
       <c r="C10">
-        <v>0.3892521979022244</v>
+        <v>0.390293146256795</v>
       </c>
       <c r="D10">
-        <v>0.3963970033314512</v>
+        <v>0.3974902858139035</v>
       </c>
       <c r="E10">
-        <v>0.08080742506291543</v>
+        <v>0.07999934367835536</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -867,16 +870,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.3753220984501908</v>
+        <v>0.3766706711955733</v>
       </c>
       <c r="C11">
-        <v>0.3757241097919976</v>
+        <v>0.3769512684820359</v>
       </c>
       <c r="D11">
-        <v>0.382554710398131</v>
+        <v>0.3838127546557699</v>
       </c>
       <c r="E11">
-        <v>0.09090844236991635</v>
+        <v>0.08999935081228629</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -884,16 +887,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.3607908398338551</v>
+        <v>0.3622328505635309</v>
       </c>
       <c r="C12">
-        <v>0.3621551944018199</v>
+        <v>0.3635276939148809</v>
       </c>
       <c r="D12">
-        <v>0.3684414252865989</v>
+        <v>0.3698628781433432</v>
       </c>
       <c r="E12">
-        <v>0.1010094596769173</v>
+        <v>0.0999993579462172</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -901,16 +904,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.3462685193914585</v>
+        <v>0.3478630075238462</v>
       </c>
       <c r="C13">
-        <v>0.3481474394702931</v>
+        <v>0.3496947262654419</v>
       </c>
       <c r="D13">
-        <v>0.3541257829701615</v>
+        <v>0.3557086414700844</v>
       </c>
       <c r="E13">
-        <v>0.1111104769839182</v>
+        <v>0.1099993650801481</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -918,16 +921,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.3316154208732267</v>
+        <v>0.3334246437837482</v>
       </c>
       <c r="C14">
-        <v>0.3341147417437539</v>
+        <v>0.3358091222898029</v>
       </c>
       <c r="D14">
-        <v>0.3396617848720238</v>
+        <v>0.3414037981124183</v>
       </c>
       <c r="E14">
-        <v>0.1212114942909191</v>
+        <v>0.119999372214079</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -935,16 +938,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.3159378682965313</v>
+        <v>0.3179961960402838</v>
       </c>
       <c r="C15">
-        <v>0.3198382896080235</v>
+        <v>0.321696900372719</v>
       </c>
       <c r="D15">
-        <v>0.3250909759442961</v>
+        <v>0.3269901450196037</v>
       </c>
       <c r="E15">
-        <v>0.1313125115979201</v>
+        <v>0.12999937934801</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -952,16 +955,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.3002681766796058</v>
+        <v>0.3024556504969172</v>
       </c>
       <c r="C16">
-        <v>0.3055012956886907</v>
+        <v>0.307531930485463</v>
       </c>
       <c r="D16">
-        <v>0.3104407614944095</v>
+        <v>0.312495837927191</v>
       </c>
       <c r="E16">
-        <v>0.141413528904921</v>
+        <v>0.1399993864819409</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -969,16 +972,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>0.2846076939305254</v>
+        <v>0.2869568017485726</v>
       </c>
       <c r="C17">
-        <v>0.2907393819215792</v>
+        <v>0.2929609431107805</v>
       </c>
       <c r="D17">
-        <v>0.2956842420896033</v>
+        <v>0.2979116755464832</v>
       </c>
       <c r="E17">
-        <v>0.151514546211922</v>
+        <v>0.1499993936158718</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -986,16 +989,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0.2689127570396474</v>
+        <v>0.2714379850303261</v>
       </c>
       <c r="C18">
-        <v>0.2758808158974274</v>
+        <v>0.2782909755138063</v>
       </c>
       <c r="D18">
-        <v>0.2806184900659927</v>
+        <v>0.2830589179326266</v>
       </c>
       <c r="E18">
-        <v>0.1616155635189229</v>
+        <v>0.1599994007498027</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1003,16 +1006,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0.2529904295923094</v>
+        <v>0.2557029816062758</v>
       </c>
       <c r="C19">
-        <v>0.2604676296090707</v>
+        <v>0.2631019926861254</v>
       </c>
       <c r="D19">
-        <v>0.2650839760891307</v>
+        <v>0.2677562130504698</v>
       </c>
       <c r="E19">
-        <v>0.1717165808259238</v>
+        <v>0.1699994078837337</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1020,16 +1023,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.2370778928791039</v>
+        <v>0.2399393532624866</v>
       </c>
       <c r="C20">
-        <v>0.2450126175955323</v>
+        <v>0.2478066219091593</v>
       </c>
       <c r="D20">
-        <v>0.2491660257294393</v>
+        <v>0.2520517717070949</v>
       </c>
       <c r="E20">
-        <v>0.1818175981329247</v>
+        <v>0.1799994150176646</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1037,16 +1040,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.2211772930300894</v>
+        <v>0.2241985445937314</v>
       </c>
       <c r="C21">
-        <v>0.2293216897403971</v>
+        <v>0.2323105928016981</v>
       </c>
       <c r="D21">
-        <v>0.2330459901833206</v>
+        <v>0.2361152725942497</v>
       </c>
       <c r="E21">
-        <v>0.1919186154399257</v>
+        <v>0.1899994221515955</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1054,16 +1057,16 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.2054414326936442</v>
+        <v>0.2085413773140852</v>
       </c>
       <c r="C22">
-        <v>0.2136771672002225</v>
+        <v>0.2167929287941867</v>
       </c>
       <c r="D22">
-        <v>0.2169132886782678</v>
+        <v>0.2201327974124012</v>
       </c>
       <c r="E22">
-        <v>0.2020196327469266</v>
+        <v>0.1999994292855264</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1071,16 +1074,16 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.1903203174217203</v>
+        <v>0.1934747631624416</v>
       </c>
       <c r="C23">
-        <v>0.1981739967052885</v>
+        <v>0.2014242818503507</v>
       </c>
       <c r="D23">
-        <v>0.2009231196756598</v>
+        <v>0.2042631720247971</v>
       </c>
       <c r="E23">
-        <v>0.2121206500539275</v>
+        <v>0.2099994364194573</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1088,16 +1091,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.1752141869631446</v>
+        <v>0.178542589573652</v>
       </c>
       <c r="C24">
-        <v>0.182796836115165</v>
+        <v>0.1861482869427713</v>
       </c>
       <c r="D24">
-        <v>0.1851864234150579</v>
+        <v>0.1886225515709712</v>
       </c>
       <c r="E24">
-        <v>0.2222216673609284</v>
+        <v>0.2199994435533882</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1105,16 +1108,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.1601273111369545</v>
+        <v>0.1635898955987656</v>
       </c>
       <c r="C25">
-        <v>0.1678208429513384</v>
+        <v>0.1712473579636493</v>
       </c>
       <c r="D25">
-        <v>0.1697767334558681</v>
+        <v>0.1732892890299746</v>
       </c>
       <c r="E25">
-        <v>0.2323226846679294</v>
+        <v>0.2299994506873192</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1122,16 +1125,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.1454009422681054</v>
+        <v>0.1488400643306939</v>
       </c>
       <c r="C26">
-        <v>0.1530279891258793</v>
+        <v>0.1565367495626683</v>
       </c>
       <c r="D26">
-        <v>0.1547402155930318</v>
+        <v>0.1583131861376306</v>
       </c>
       <c r="E26">
-        <v>0.2424237019749303</v>
+        <v>0.2399994578212501</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1139,16 +1142,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0.131764008543418</v>
+        <v>0.1351285381754221</v>
       </c>
       <c r="C27">
-        <v>0.1387638436496985</v>
+        <v>0.1423025141596007</v>
       </c>
       <c r="D27">
-        <v>0.1401059996759349</v>
+        <v>0.14372573426556</v>
       </c>
       <c r="E27">
-        <v>0.2525247192819312</v>
+        <v>0.249999464955181</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1156,16 +1159,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1181595988294775</v>
+        <v>0.1217073509644037</v>
       </c>
       <c r="C28">
-        <v>0.124722328155697</v>
+        <v>0.1283271577040349</v>
       </c>
       <c r="D28">
-        <v>0.1258921238947787</v>
+        <v>0.1295465358728919</v>
       </c>
       <c r="E28">
-        <v>0.2626257365889321</v>
+        <v>0.2599994720891119</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1173,16 +1176,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.1046004667784932</v>
+        <v>0.1082421070129749</v>
       </c>
       <c r="C29">
-        <v>0.1112524152511506</v>
+        <v>0.114855077566078</v>
       </c>
       <c r="D29">
-        <v>0.1121114394816219</v>
+        <v>0.1157888830756968</v>
       </c>
       <c r="E29">
-        <v>0.2727267538959331</v>
+        <v>0.2699994792230428</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1190,16 +1193,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09152993884549505</v>
+        <v>0.09507597633662766</v>
       </c>
       <c r="C30">
-        <v>0.09804131859199545</v>
+        <v>0.1016919378088405</v>
       </c>
       <c r="D30">
-        <v>0.09877602393490077</v>
+        <v>0.1024642235624809</v>
       </c>
       <c r="E30">
-        <v>0.282827771202934</v>
+        <v>0.2799994863569737</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1207,16 +1210,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.07962995707883755</v>
+        <v>0.08302158287889132</v>
       </c>
       <c r="C31">
-        <v>0.08541469872431827</v>
+        <v>0.08903508011467381</v>
       </c>
       <c r="D31">
-        <v>0.08590285720368528</v>
+        <v>0.08958706885634415</v>
       </c>
       <c r="E31">
-        <v>0.2929287885099349</v>
+        <v>0.2899994934909047</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1224,16 +1227,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06784557817629804</v>
+        <v>0.07138259991756442</v>
       </c>
       <c r="C32">
-        <v>0.07310830569589551</v>
+        <v>0.07674601964131279</v>
       </c>
       <c r="D32">
-        <v>0.07352125922188357</v>
+        <v>0.07718155672480714</v>
       </c>
       <c r="E32">
-        <v>0.3030298058169359</v>
+        <v>0.2999995006248356</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1241,16 +1244,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.05624952064237613</v>
+        <v>0.05979926250734034</v>
       </c>
       <c r="C33">
-        <v>0.06143787257461295</v>
+        <v>0.06499926737822612</v>
       </c>
       <c r="D33">
-        <v>0.0616835199165981</v>
+        <v>0.06529044999875123</v>
       </c>
       <c r="E33">
-        <v>0.3131308231239368</v>
+        <v>0.3099995077587666</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1258,16 +1261,16 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04535966638258656</v>
+        <v>0.04871273970972789</v>
       </c>
       <c r="C34">
-        <v>0.05026315432411824</v>
+        <v>0.05376130897048007</v>
       </c>
       <c r="D34">
-        <v>0.05048071735623168</v>
+        <v>0.05398868714820908</v>
       </c>
       <c r="E34">
-        <v>0.3232318404309377</v>
+        <v>0.3199995148926975</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1275,16 +1278,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.03581291064405603</v>
+        <v>0.03883956104331786</v>
       </c>
       <c r="C35">
-        <v>0.0400099762922623</v>
+        <v>0.04328109701386713</v>
       </c>
       <c r="D35">
-        <v>0.04006627282599597</v>
+        <v>0.04340249658305288</v>
       </c>
       <c r="E35">
-        <v>0.3333328577379386</v>
+        <v>0.3299995220266284</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1292,16 +1295,16 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02734572071194713</v>
+        <v>0.03005759881210382</v>
       </c>
       <c r="C36">
-        <v>0.03097345541805266</v>
+        <v>0.03385171608100362</v>
       </c>
       <c r="D36">
-        <v>0.03072452449964267</v>
+        <v>0.03375110440569375</v>
       </c>
       <c r="E36">
-        <v>0.3434338750449396</v>
+        <v>0.3399995291605593</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1309,16 +1312,16 @@
         <v>40</v>
       </c>
       <c r="B37">
-        <v>0.02128785081488227</v>
+        <v>0.02297510738591803</v>
       </c>
       <c r="C37">
-        <v>0.02436341024386641</v>
+        <v>0.02629345425254799</v>
       </c>
       <c r="D37">
-        <v>0.02318425418072486</v>
+        <v>0.025526798837931</v>
       </c>
       <c r="E37">
-        <v>0.3535348923519405</v>
+        <v>0.3499995362944902</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1326,16 +1329,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01994813948141927</v>
+        <v>0.01981245061374991</v>
       </c>
       <c r="C38">
-        <v>0.0219110766795671</v>
+        <v>0.02221144279611138</v>
       </c>
       <c r="D38">
-        <v>0.01923767439610116</v>
+        <v>0.02008771442015482</v>
       </c>
       <c r="E38">
-        <v>0.3636359096589414</v>
+        <v>0.3599995434284212</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1343,16 +1346,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.02365169495842981</v>
+        <v>0.02180007924173579</v>
       </c>
       <c r="C39">
-        <v>0.02460406640307092</v>
+        <v>0.02307117960184631</v>
       </c>
       <c r="D39">
-        <v>0.02076444917754742</v>
+        <v>0.01958006032504078</v>
       </c>
       <c r="E39">
-        <v>0.3737369269659424</v>
+        <v>0.3699995505623521</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1360,16 +1363,16 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03047331344887078</v>
+        <v>0.02763287354964396</v>
       </c>
       <c r="C40">
-        <v>0.03091965968734514</v>
+        <v>0.02823088138417993</v>
       </c>
       <c r="D40">
-        <v>0.02667030803678193</v>
+        <v>0.02406369304705147</v>
       </c>
       <c r="E40">
-        <v>0.3838379442729433</v>
+        <v>0.379999557696283</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1377,16 +1380,16 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03880191280271777</v>
+        <v>0.03544379145582082</v>
       </c>
       <c r="C41">
-        <v>0.03893413425601047</v>
+        <v>0.03567923313965367</v>
       </c>
       <c r="D41">
-        <v>0.03467153868359383</v>
+        <v>0.03140203307583951</v>
       </c>
       <c r="E41">
-        <v>0.3939389615799442</v>
+        <v>0.3899995648302139</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1394,16 +1397,16 @@
         <v>45</v>
       </c>
       <c r="B42">
-        <v>0.04771153922678272</v>
+        <v>0.04411748410674255</v>
       </c>
       <c r="C42">
-        <v>0.04773777628420785</v>
+        <v>0.04416111023660237</v>
       </c>
       <c r="D42">
-        <v>0.04354393973838925</v>
+        <v>0.03993078715810645</v>
       </c>
       <c r="E42">
-        <v>0.4040399788869452</v>
+        <v>0.3999995719641448</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1411,16 +1414,16 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.05676454891860182</v>
+        <v>0.05303459518845933</v>
       </c>
       <c r="C43">
-        <v>0.05683046143469156</v>
+        <v>0.05307763178619078</v>
       </c>
       <c r="D43">
-        <v>0.05278633725672637</v>
+        <v>0.04896939524581036</v>
       </c>
       <c r="E43">
-        <v>0.4141409961939461</v>
+        <v>0.4099995790980757</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1428,16 +1431,16 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06602154241454641</v>
+        <v>0.06210954499124041</v>
       </c>
       <c r="C44">
-        <v>0.06610122568220252</v>
+        <v>0.06219544425709175</v>
       </c>
       <c r="D44">
-        <v>0.06218471847659031</v>
+        <v>0.05822620689170807</v>
       </c>
       <c r="E44">
-        <v>0.424242013500947</v>
+        <v>0.4199995862320067</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1445,16 +1448,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0.07540741718118747</v>
+        <v>0.07136571021127198</v>
       </c>
       <c r="C45">
-        <v>0.07541308603866449</v>
+        <v>0.07140480951620456</v>
       </c>
       <c r="D45">
-        <v>0.07163922008982983</v>
+        <v>0.06757078502216819</v>
       </c>
       <c r="E45">
-        <v>0.4343430308079479</v>
+        <v>0.4299995933659376</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1462,16 +1465,16 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0847720172882023</v>
+        <v>0.08066200796645055</v>
       </c>
       <c r="C46">
-        <v>0.08476896329088453</v>
+        <v>0.08064991492142043</v>
       </c>
       <c r="D46">
-        <v>0.08110009778158529</v>
+        <v>0.07693848022112769</v>
       </c>
       <c r="E46">
-        <v>0.4444440481149489</v>
+        <v>0.4399996004998685</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1479,16 +1482,16 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0940578146619882</v>
+        <v>0.08988136754102589</v>
       </c>
       <c r="C47">
-        <v>0.0941178448386031</v>
+        <v>0.08991195453941074</v>
       </c>
       <c r="D47">
-        <v>0.0905424093397911</v>
+        <v>0.08629661294338964</v>
       </c>
       <c r="E47">
-        <v>0.4545450654219498</v>
+        <v>0.4499996076337994</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1496,16 +1499,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.1033850827638027</v>
+        <v>0.09908778995997193</v>
       </c>
       <c r="C48">
-        <v>0.1034632615130007</v>
+        <v>0.09916628639132452</v>
       </c>
       <c r="D48">
-        <v>0.09995441929384431</v>
+        <v>0.09562905601766247</v>
       </c>
       <c r="E48">
-        <v>0.4646460827289507</v>
+        <v>0.4599996147677303</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1513,16 +1516,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.112743515625199</v>
+        <v>0.1083428188109378</v>
       </c>
       <c r="C49">
-        <v>0.1127817067444704</v>
+        <v>0.1084048403376005</v>
       </c>
       <c r="D49">
-        <v>0.1093316415081418</v>
+        <v>0.10492876002051</v>
       </c>
       <c r="E49">
-        <v>0.4747471000359517</v>
+        <v>0.4699996219016613</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1530,16 +1533,16 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.1221155392360977</v>
+        <v>0.1176160984237143</v>
       </c>
       <c r="C50">
-        <v>0.1220846029376494</v>
+        <v>0.1176218952616034</v>
       </c>
       <c r="D50">
-        <v>0.1186742045061248</v>
+        <v>0.1141939091341735</v>
       </c>
       <c r="E50">
-        <v>0.4848481173429526</v>
+        <v>0.4799996290355922</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1547,16 +1550,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.1314958400266185</v>
+        <v>0.1268970639628941</v>
       </c>
       <c r="C51">
-        <v>0.1313618472251668</v>
+        <v>0.1268179408287667</v>
       </c>
       <c r="D51">
-        <v>0.1279864816179459</v>
+        <v>0.1234268056174697</v>
       </c>
       <c r="E51">
-        <v>0.4949491346499535</v>
+        <v>0.4899996361695231</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1564,16 +1567,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1408920324199714</v>
+        <v>0.1361954070995965</v>
       </c>
       <c r="C52">
-        <v>0.1406333166856801</v>
+        <v>0.1359988540096508</v>
       </c>
       <c r="D52">
-        <v>0.1372770389861071</v>
+        <v>0.1326337387927119</v>
       </c>
       <c r="E52">
-        <v>0.5050501519569544</v>
+        <v>0.499999643303454</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1581,16 +1584,16 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1503011755623748</v>
+        <v>0.1454883799633382</v>
       </c>
       <c r="C53">
-        <v>0.1498958313919059</v>
+        <v>0.1451704550282801</v>
       </c>
       <c r="D53">
-        <v>0.1465595205207955</v>
+        <v>0.1418253778782419</v>
       </c>
       <c r="E53">
-        <v>0.5151511692639553</v>
+        <v>0.5099996504373849</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1598,16 +1601,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.1599334367401333</v>
+        <v>0.1548918132538254</v>
       </c>
       <c r="C54">
-        <v>0.1591872992189874</v>
+        <v>0.1543530300679951</v>
       </c>
       <c r="D54">
-        <v>0.1558537303850651</v>
+        <v>0.1510177614507453</v>
       </c>
       <c r="E54">
-        <v>0.5252521865709562</v>
+        <v>0.5199996575713158</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1615,16 +1618,16 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1697724328774921</v>
+        <v>0.1645420452708786</v>
       </c>
       <c r="C55">
-        <v>0.1685048137515526</v>
+        <v>0.1635582882442208</v>
       </c>
       <c r="D55">
-        <v>0.1651869217409564</v>
+        <v>0.1602334969889508</v>
       </c>
       <c r="E55">
-        <v>0.5353532038779572</v>
+        <v>0.5299996647052467</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1632,16 +1635,16 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1796207847510481</v>
+        <v>0.1743160008826202</v>
       </c>
       <c r="C56">
-        <v>0.1779197093068328</v>
+        <v>0.1728257491225317</v>
       </c>
       <c r="D56">
-        <v>0.174594574530873</v>
+        <v>0.1695026670740563</v>
       </c>
       <c r="E56">
-        <v>0.5454542211849581</v>
+        <v>0.5399996718391776</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1649,16 +1652,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0.1894770260387485</v>
+        <v>0.1840127752610901</v>
       </c>
       <c r="C57">
-        <v>0.1874181409423205</v>
+        <v>0.1821744756461599</v>
       </c>
       <c r="D57">
-        <v>0.1841224509543305</v>
+        <v>0.178864023292082</v>
       </c>
       <c r="E57">
-        <v>0.555555238491959</v>
+        <v>0.5499996789731085</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1666,16 +1669,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.2000439234216977</v>
+        <v>0.194028771327161</v>
       </c>
       <c r="C58">
-        <v>0.197133279628934</v>
+        <v>0.1916710100940158</v>
       </c>
       <c r="D58">
-        <v>0.1938293051843928</v>
+        <v>0.1883673586136544</v>
       </c>
       <c r="E58">
-        <v>0.56565625579896</v>
+        <v>0.5599996861070394</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1683,16 +1686,16 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2111722453440824</v>
+        <v>0.2047900910962953</v>
       </c>
       <c r="C59">
-        <v>0.2070200970229265</v>
+        <v>0.2013473194427054</v>
       </c>
       <c r="D59">
-        <v>0.203789927309202</v>
+        <v>0.19807619015656</v>
       </c>
       <c r="E59">
-        <v>0.5757572731059609</v>
+        <v>0.5699996932409704</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1700,16 +1703,16 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2223082186869965</v>
+        <v>0.2158835396513954</v>
       </c>
       <c r="C60">
-        <v>0.2173222542523758</v>
+        <v>0.2113063389605304</v>
       </c>
       <c r="D60">
-        <v>0.2140991495872528</v>
+        <v>0.208070986646145</v>
       </c>
       <c r="E60">
-        <v>0.5858582904129618</v>
+        <v>0.5799997003749013</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1717,16 +1720,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.2334507777709945</v>
+        <v>0.2267756703670022</v>
       </c>
       <c r="C61">
-        <v>0.227927428184346</v>
+        <v>0.2216060720008073</v>
       </c>
       <c r="D61">
-        <v>0.2248772661854471</v>
+        <v>0.2184535042780197</v>
       </c>
       <c r="E61">
-        <v>0.5959593077199627</v>
+        <v>0.5899997075088322</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1734,16 +1737,16 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.2463178294248691</v>
+        <v>0.2383783516901997</v>
       </c>
       <c r="C62">
-        <v>0.2392704496705751</v>
+        <v>0.2323943639211223</v>
       </c>
       <c r="D62">
-        <v>0.2362765555237774</v>
+        <v>0.2293526279103273</v>
       </c>
       <c r="E62">
-        <v>0.6060603250269637</v>
+        <v>0.5999997146427631</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1751,16 +1754,16 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.2603391244423253</v>
+        <v>0.2517123081211421</v>
       </c>
       <c r="C63">
-        <v>0.2511084613237328</v>
+        <v>0.2437837557923808</v>
       </c>
       <c r="D63">
-        <v>0.248486737890765</v>
+        <v>0.2409301071317962</v>
       </c>
       <c r="E63">
-        <v>0.6161613423339646</v>
+        <v>0.609999721776694</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1768,16 +1771,16 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.2743680193071437</v>
+        <v>0.2657374608334799</v>
       </c>
       <c r="C64">
-        <v>0.2641888547777461</v>
+        <v>0.2559631103645779</v>
       </c>
       <c r="D64">
-        <v>0.2617420002777893</v>
+        <v>0.2533862362450519</v>
       </c>
       <c r="E64">
-        <v>0.6262623596409655</v>
+        <v>0.619999728910625</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1785,16 +1788,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.2884034999194866</v>
+        <v>0.2793648910375173</v>
       </c>
       <c r="C65">
-        <v>0.2780347579721404</v>
+        <v>0.2691570160549357</v>
       </c>
       <c r="D65">
-        <v>0.2763249445850038</v>
+        <v>0.2669663958136788</v>
       </c>
       <c r="E65">
-        <v>0.6363633769479664</v>
+        <v>0.6299997360445559</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1802,16 +1805,16 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.305999568087381</v>
+        <v>0.2943209148538891</v>
       </c>
       <c r="C66">
-        <v>0.2938354828591382</v>
+        <v>0.283543483534635</v>
       </c>
       <c r="D66">
-        <v>0.2925567345904456</v>
+        <v>0.2819610463941867</v>
       </c>
       <c r="E66">
-        <v>0.6464643942549674</v>
+        <v>0.6399997431784868</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1819,16 +1822,16 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.3256033005285711</v>
+        <v>0.3127474316144386</v>
       </c>
       <c r="C67">
-        <v>0.3107406869723364</v>
+        <v>0.299541988933427</v>
       </c>
       <c r="D67">
-        <v>0.3107736282020962</v>
+        <v>0.2986893882845402</v>
       </c>
       <c r="E67">
-        <v>0.6565654115619683</v>
+        <v>0.6499997503124177</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1836,16 +1839,16 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.3452140462382771</v>
+        <v>0.332379731559526</v>
       </c>
       <c r="C68">
-        <v>0.3304436128884421</v>
+        <v>0.3171872957034575</v>
       </c>
       <c r="D68">
-        <v>0.3313184747754264</v>
+        <v>0.3174803655482196</v>
       </c>
       <c r="E68">
-        <v>0.6666664288689692</v>
+        <v>0.6599997574463486</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1853,16 +1856,16 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.3648306793921363</v>
+        <v>0.3513696991859444</v>
       </c>
       <c r="C69">
-        <v>0.351592880952407</v>
+        <v>0.3371671569356354</v>
       </c>
       <c r="D69">
-        <v>0.3545229119314197</v>
+        <v>0.3386675960145887</v>
       </c>
       <c r="E69">
-        <v>0.6767674461759702</v>
+        <v>0.6699997645802797</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1870,16 +1873,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.3907212233240239</v>
+        <v>0.3724417190212311</v>
       </c>
       <c r="C70">
-        <v>0.3763470332166319</v>
+        <v>0.3591961950370671</v>
       </c>
       <c r="D70">
-        <v>0.3806501499777115</v>
+        <v>0.3625551357160565</v>
       </c>
       <c r="E70">
-        <v>0.686868463482971</v>
+        <v>0.6799997717142106</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1887,16 +1890,16 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.4195672524123725</v>
+        <v>0.3995270645347796</v>
       </c>
       <c r="C71">
-        <v>0.4028020687546741</v>
+        <v>0.3842706712283437</v>
       </c>
       <c r="D71">
-        <v>0.4098880081210955</v>
+        <v>0.3893751628266877</v>
       </c>
       <c r="E71">
-        <v>0.696969480789972</v>
+        <v>0.6899997788481415</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1904,16 +1907,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.4484175178892629</v>
+        <v>0.4283596859988839</v>
       </c>
       <c r="C72">
-        <v>0.4334439407652479</v>
+        <v>0.4116351294545522</v>
       </c>
       <c r="D72">
-        <v>0.4423320880594328</v>
+        <v>0.4192823897277799</v>
       </c>
       <c r="E72">
-        <v>0.707070498096973</v>
+        <v>0.6999997859820724</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1921,16 +1924,16 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4772712356387407</v>
+        <v>0.4563818215758918</v>
       </c>
       <c r="C73">
-        <v>0.465883157629718</v>
+        <v>0.4425819103418238</v>
       </c>
       <c r="D73">
-        <v>0.4779994623586016</v>
+        <v>0.4523454789671777</v>
       </c>
       <c r="E73">
-        <v>0.7171715154039738</v>
+        <v>0.7099997931160033</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1938,16 +1941,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.515031845745659</v>
+        <v>0.4869714520771831</v>
       </c>
       <c r="C74">
-        <v>0.5027396152738379</v>
+        <v>0.4758346055530076</v>
       </c>
       <c r="D74">
-        <v>0.5168180754122988</v>
+        <v>0.4885562073772571</v>
       </c>
       <c r="E74">
-        <v>0.7272725327109748</v>
+        <v>0.7199998002499343</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1955,16 +1958,16 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.5562563208890199</v>
+        <v>0.5260619167033674</v>
       </c>
       <c r="C75">
-        <v>0.5413152782656984</v>
+        <v>0.5129222334651249</v>
       </c>
       <c r="D75">
-        <v>0.5586400433903053</v>
+        <v>0.5278219477210564</v>
       </c>
       <c r="E75">
-        <v>0.7373735500179758</v>
+        <v>0.7299998073838652</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1972,16 +1975,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.5974813746469979</v>
+        <v>0.567050452397158</v>
       </c>
       <c r="C76">
-        <v>0.5841354409662738</v>
+        <v>0.552099854529526</v>
       </c>
       <c r="D76">
-        <v>0.6032445272861029</v>
+        <v>0.5699805501633415</v>
       </c>
       <c r="E76">
-        <v>0.7474745673249766</v>
+        <v>0.7399998145177961</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1989,16 +1992,16 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.6387068176557695</v>
+        <v>0.6075918816272683</v>
       </c>
       <c r="C77">
-        <v>0.6284473257901623</v>
+        <v>0.5950562549488472</v>
       </c>
       <c r="D77">
-        <v>0.6503126502942053</v>
+        <v>0.6147961707990087</v>
       </c>
       <c r="E77">
-        <v>0.7575755846319776</v>
+        <v>0.749999821651727</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2006,16 +2009,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.6849204630123205</v>
+        <v>0.6493496004465646</v>
       </c>
       <c r="C78">
-        <v>0.676030196916687</v>
+        <v>0.6395881730488371</v>
       </c>
       <c r="D78">
-        <v>0.6993745441695023</v>
+        <v>0.6619278540023045</v>
       </c>
       <c r="E78">
-        <v>0.7676766019389786</v>
+        <v>0.7599998287856579</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2023,16 +2026,16 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.7327100752161827</v>
+        <v>0.6959343269612449</v>
       </c>
       <c r="C79">
-        <v>0.7246460532027197</v>
+        <v>0.6871958565786711</v>
       </c>
       <c r="D79">
-        <v>0.7497307404339792</v>
+        <v>0.7108741030991552</v>
       </c>
       <c r="E79">
-        <v>0.7777776192459794</v>
+        <v>0.7699998359195888</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2040,16 +2043,16 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.7805006058862487</v>
+        <v>0.743085256697623</v>
       </c>
       <c r="C80">
-        <v>0.7737834029619655</v>
+        <v>0.7353590619094518</v>
       </c>
       <c r="D80">
-        <v>0.8003254121371319</v>
+        <v>0.7608873006088743</v>
       </c>
       <c r="E80">
-        <v>0.7878786365529804</v>
+        <v>0.7799998430535198</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2057,16 +2060,16 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.8282918391729206</v>
+        <v>0.7910439481702722</v>
       </c>
       <c r="C81">
-        <v>0.8230680633040841</v>
+        <v>0.7843367615129168</v>
       </c>
       <c r="D81">
-        <v>0.8495925566720504</v>
+        <v>0.8108470867216843</v>
       </c>
       <c r="E81">
-        <v>0.7979796538599813</v>
+        <v>0.7899998501874507</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2074,16 +2077,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.8606342506839447</v>
+        <v>0.8359285424689336</v>
       </c>
       <c r="C82">
-        <v>0.8671149749007587</v>
+        <v>0.8321582760263513</v>
       </c>
       <c r="D82">
-        <v>0.8952812602238535</v>
+        <v>0.8591015965897361</v>
       </c>
       <c r="E82">
-        <v>0.8080806711669822</v>
+        <v>0.7999998573213816</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2091,16 +2094,16 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.8891139332053699</v>
+        <v>0.8660802239601271</v>
       </c>
       <c r="C83">
-        <v>0.909852877937472</v>
+        <v>0.8756541317947463</v>
       </c>
       <c r="D83">
-        <v>0.9344714967901943</v>
+        <v>0.9033270763473251</v>
       </c>
       <c r="E83">
-        <v>0.8181816884739832</v>
+        <v>0.8099998644553125</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2108,16 +2111,16 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.9175938802109318</v>
+        <v>0.8940578859796097</v>
       </c>
       <c r="C84">
-        <v>0.939467637140104</v>
+        <v>0.9159759102706363</v>
       </c>
       <c r="D84">
-        <v>0.9640116126662883</v>
+        <v>0.9405770282009679</v>
       </c>
       <c r="E84">
-        <v>0.8282827057809841</v>
+        <v>0.8199998715892434</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2125,16 +2128,16 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.9460737902259231</v>
+        <v>0.9230898511832317</v>
       </c>
       <c r="C85">
-        <v>0.9662012729890312</v>
+        <v>0.9444459490888282</v>
       </c>
       <c r="D85">
-        <v>0.9818169427476325</v>
+        <v>0.9679068966801644</v>
       </c>
       <c r="E85">
-        <v>0.838383723087985</v>
+        <v>0.8299998787231744</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2142,16 +2145,16 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.9496942074242903</v>
+        <v>0.9482419762306863</v>
       </c>
       <c r="C86">
-        <v>0.9756974289974518</v>
+        <v>0.9687673246261375</v>
       </c>
       <c r="D86">
-        <v>0.9880286555407227</v>
+        <v>0.9834957531052536</v>
       </c>
       <c r="E86">
-        <v>0.8484847403949859</v>
+        <v>0.8399998858571053</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2159,16 +2162,16 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.9485791266901519</v>
+        <v>0.9494482100330379</v>
       </c>
       <c r="C87">
-        <v>0.9819098763445815</v>
+        <v>0.9767981609654574</v>
       </c>
       <c r="D87">
-        <v>0.9878282467239953</v>
+        <v>0.9882839937274184</v>
       </c>
       <c r="E87">
-        <v>0.8585857577019869</v>
+        <v>0.8499998929910362</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2176,16 +2179,16 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.9474640535879684</v>
+        <v>0.9483451067224534</v>
       </c>
       <c r="C88">
-        <v>0.9782413673069669</v>
+        <v>0.9819180615232165</v>
       </c>
       <c r="D88">
-        <v>0.9846458268503825</v>
+        <v>0.9875307339665287</v>
       </c>
       <c r="E88">
-        <v>0.8686867750089878</v>
+        <v>0.8599999001249671</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2193,16 +2196,16 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.9463488702264242</v>
+        <v>0.9476756101996261</v>
       </c>
       <c r="C89">
-        <v>0.97296406912957</v>
+        <v>0.9777306386611339</v>
       </c>
       <c r="D89">
-        <v>0.9784204054297596</v>
+        <v>0.9840456149865718</v>
       </c>
       <c r="E89">
-        <v>0.8787877923159887</v>
+        <v>0.869999907258898</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2210,16 +2213,16 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.9269729689044998</v>
+        <v>0.9449438313159328</v>
       </c>
       <c r="C90">
-        <v>0.9568245454714693</v>
+        <v>0.9715293165735646</v>
       </c>
       <c r="D90">
-        <v>0.9667149269368707</v>
+        <v>0.977359419761339</v>
       </c>
       <c r="E90">
-        <v>0.8888888096229897</v>
+        <v>0.8799999143928289</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2227,16 +2230,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.9051070148261651</v>
+        <v>0.9244860779808144</v>
       </c>
       <c r="C91">
-        <v>0.9392036686506973</v>
+        <v>0.9550339854057535</v>
       </c>
       <c r="D91">
-        <v>0.9471607691399725</v>
+        <v>0.9649780745864951</v>
       </c>
       <c r="E91">
-        <v>0.8989898269299906</v>
+        <v>0.8899999215267599</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2244,16 +2247,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.8832415427614233</v>
+        <v>0.9028568367635101</v>
       </c>
       <c r="C92">
-        <v>0.9093140127293255</v>
+        <v>0.9367215821998733</v>
       </c>
       <c r="D92">
-        <v>0.918836266993361</v>
+        <v>0.9447243546526548</v>
       </c>
       <c r="E92">
-        <v>0.9090908442369915</v>
+        <v>0.8999999286606908</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2261,16 +2264,16 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.8613764441790839</v>
+        <v>0.8815680274089217</v>
       </c>
       <c r="C93">
-        <v>0.8780610871372494</v>
+        <v>0.9065651018848618</v>
       </c>
       <c r="D93">
-        <v>0.882111510148877</v>
+        <v>0.9158648001761547</v>
       </c>
       <c r="E93">
-        <v>0.9191918615439925</v>
+        <v>0.9099999357946217</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2278,16 +2281,16 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.8169260807936181</v>
+        <v>0.8586299915202803</v>
       </c>
       <c r="C94">
-        <v>0.8365025234144604</v>
+        <v>0.8751099510668306</v>
       </c>
       <c r="D94">
-        <v>0.8379864906011336</v>
+        <v>0.8788326563769266</v>
       </c>
       <c r="E94">
-        <v>0.9292928788509934</v>
+        <v>0.9199999429285526</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2295,16 +2298,16 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.7705148831007249</v>
+        <v>0.8135443014299155</v>
       </c>
       <c r="C95">
-        <v>0.7940480515038595</v>
+        <v>0.8335109332654883</v>
       </c>
       <c r="D95">
-        <v>0.7887932341509482</v>
+        <v>0.8346707528830144</v>
       </c>
       <c r="E95">
-        <v>0.9393938961579943</v>
+        <v>0.9299999500624835</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2312,16 +2315,16 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.7241076100090309</v>
+        <v>0.7677796890719967</v>
       </c>
       <c r="C96">
-        <v>0.747130141031292</v>
+        <v>0.7913805971465895</v>
       </c>
       <c r="D96">
-        <v>0.7380918089147667</v>
+        <v>0.785758620953826</v>
       </c>
       <c r="E96">
-        <v>0.9494949134649953</v>
+        <v>0.9399999571964145</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2329,16 +2332,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.6777051198507827</v>
+        <v>0.7217200486092819</v>
       </c>
       <c r="C97">
-        <v>0.699930257696616</v>
+        <v>0.7447144090249539</v>
       </c>
       <c r="D97">
-        <v>0.6889331384693356</v>
+        <v>0.7355765974985727</v>
       </c>
       <c r="E97">
-        <v>0.9595959307719961</v>
+        <v>0.9499999643303454</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2346,16 +2349,16 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.639782277093465</v>
+        <v>0.6760295237094919</v>
       </c>
       <c r="C98">
-        <v>0.6564974983904981</v>
+        <v>0.6981406033294015</v>
       </c>
       <c r="D98">
-        <v>0.6431663236006122</v>
+        <v>0.6870301370734496</v>
       </c>
       <c r="E98">
-        <v>0.9696969480789971</v>
+        <v>0.9599999714642763</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2363,16 +2366,16 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.6022264120895905</v>
+        <v>0.6386825077710759</v>
       </c>
       <c r="C99">
-        <v>0.6132418263988015</v>
+        <v>0.6551730978642637</v>
       </c>
       <c r="D99">
-        <v>0.6011240824329355</v>
+        <v>0.6418530662012225</v>
       </c>
       <c r="E99">
-        <v>0.9797979653859981</v>
+        <v>0.9699999785982072</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2380,16 +2383,16 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.5646873020306484</v>
+        <v>0.6014701744331306</v>
       </c>
       <c r="C100">
-        <v>0.5796145717540642</v>
+        <v>0.6124666988230613</v>
       </c>
       <c r="D100">
-        <v>0.5608328469615189</v>
+        <v>0.6003158255038681</v>
       </c>
       <c r="E100">
-        <v>0.9898989826929989</v>
+        <v>0.9799999857321381</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2397,15 +2400,32 @@
         <v>104</v>
       </c>
       <c r="B101">
+        <v>0.5643133681558834</v>
+      </c>
+      <c r="C101">
+        <v>0.5793052880871985</v>
+      </c>
+      <c r="D101">
+        <v>0.5604185721502022</v>
+      </c>
+      <c r="E101">
+        <v>0.9899999928660691</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
         <v>0.527168632</v>
       </c>
-      <c r="C101">
+      <c r="C102">
         <v>0.546208382</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>0.515793443</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>1</v>
       </c>
     </row>

--- a/data/curve_for_gci.xlsx
+++ b/data/curve_for_gci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>variable</t>
   </si>
@@ -34,61 +34,151 @@
     <t>phi_0.0000</t>
   </si>
   <si>
-    <t>phi_12.0000</t>
+    <t>phi_4.8000</t>
+  </si>
+  <si>
+    <t>phi_9.6000</t>
+  </si>
+  <si>
+    <t>phi_14.4000</t>
+  </si>
+  <si>
+    <t>phi_19.2000</t>
   </si>
   <si>
     <t>phi_24.0000</t>
   </si>
   <si>
-    <t>phi_36.0000</t>
+    <t>phi_28.8000</t>
+  </si>
+  <si>
+    <t>phi_33.6000</t>
+  </si>
+  <si>
+    <t>phi_38.4000</t>
+  </si>
+  <si>
+    <t>phi_43.2000</t>
   </si>
   <si>
     <t>phi_48.0000</t>
   </si>
   <si>
-    <t>phi_60.0000</t>
+    <t>phi_52.8000</t>
+  </si>
+  <si>
+    <t>phi_57.6000</t>
+  </si>
+  <si>
+    <t>phi_62.4000</t>
+  </si>
+  <si>
+    <t>phi_67.2000</t>
   </si>
   <si>
     <t>phi_72.0000</t>
   </si>
   <si>
-    <t>phi_84.0000</t>
+    <t>phi_76.8000</t>
+  </si>
+  <si>
+    <t>phi_81.6000</t>
+  </si>
+  <si>
+    <t>phi_86.4000</t>
+  </si>
+  <si>
+    <t>phi_91.2000</t>
   </si>
   <si>
     <t>phi_96.0000</t>
   </si>
   <si>
-    <t>phi_108.0000</t>
+    <t>phi_100.8000</t>
+  </si>
+  <si>
+    <t>phi_105.6000</t>
+  </si>
+  <si>
+    <t>phi_110.4000</t>
+  </si>
+  <si>
+    <t>phi_115.2000</t>
   </si>
   <si>
     <t>phi_120.0000</t>
   </si>
   <si>
-    <t>phi_132.0000</t>
+    <t>phi_124.8000</t>
+  </si>
+  <si>
+    <t>phi_129.6000</t>
+  </si>
+  <si>
+    <t>phi_134.4000</t>
+  </si>
+  <si>
+    <t>phi_139.2000</t>
   </si>
   <si>
     <t>phi_144.0000</t>
   </si>
   <si>
-    <t>phi_156.0000</t>
+    <t>phi_148.8000</t>
+  </si>
+  <si>
+    <t>phi_153.6000</t>
+  </si>
+  <si>
+    <t>phi_158.4000</t>
+  </si>
+  <si>
+    <t>phi_163.2000</t>
   </si>
   <si>
     <t>phi_168.0000</t>
   </si>
   <si>
-    <t>phi_180.0000</t>
+    <t>phi_172.8000</t>
+  </si>
+  <si>
+    <t>phi_177.6000</t>
+  </si>
+  <si>
+    <t>phi_182.4000</t>
+  </si>
+  <si>
+    <t>phi_187.2000</t>
   </si>
   <si>
     <t>phi_192.0000</t>
   </si>
   <si>
-    <t>phi_204.0000</t>
+    <t>phi_196.8000</t>
+  </si>
+  <si>
+    <t>phi_201.6000</t>
+  </si>
+  <si>
+    <t>phi_206.4000</t>
+  </si>
+  <si>
+    <t>phi_211.2000</t>
   </si>
   <si>
     <t>phi_216.0000</t>
   </si>
   <si>
-    <t>phi_228.0000</t>
+    <t>phi_220.8000</t>
+  </si>
+  <si>
+    <t>phi_225.6000</t>
+  </si>
+  <si>
+    <t>phi_230.4000</t>
+  </si>
+  <si>
+    <t>phi_235.2000</t>
   </si>
   <si>
     <t>phi_240.0000</t>
@@ -449,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,7 +593,7 @@
         <v>2.5</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -511,16 +601,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>2.499999999999999</v>
+        <v>2.500000000000001</v>
       </c>
       <c r="C4">
-        <v>2.499999999999992</v>
+        <v>2.5</v>
       </c>
       <c r="D4">
         <v>2.5</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -528,16 +618,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.500000011373591</v>
+        <v>2.5</v>
       </c>
       <c r="C5">
-        <v>2.499999998254081</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
-        <v>2.500000000027512</v>
+        <v>2.5</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -545,16 +635,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2.500089309581067</v>
+        <v>2.5</v>
       </c>
       <c r="C6">
-        <v>2.489592129769505</v>
+        <v>2.500000000000001</v>
       </c>
       <c r="D6">
-        <v>2.499241292073199</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
-        <v>48</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -562,16 +652,16 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2.489999982692347</v>
+        <v>2.499999999999999</v>
       </c>
       <c r="C7">
-        <v>2.490000030471755</v>
+        <v>2.499999999999992</v>
       </c>
       <c r="D7">
-        <v>2.49000000002565</v>
+        <v>2.5</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -579,16 +669,16 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>2.490000124105086</v>
+        <v>2.5</v>
       </c>
       <c r="C8">
-        <v>2.490000001250805</v>
+        <v>2.499999999997784</v>
       </c>
       <c r="D8">
-        <v>2.490000000004322</v>
+        <v>2.5</v>
       </c>
       <c r="E8">
-        <v>72</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -596,16 +686,16 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2.481564062242776</v>
+        <v>2.499999999957664</v>
       </c>
       <c r="C9">
-        <v>2.480000019885803</v>
+        <v>2.499999999943373</v>
       </c>
       <c r="D9">
-        <v>2.487625126096197</v>
+        <v>2.499999999999766</v>
       </c>
       <c r="E9">
-        <v>84</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -613,16 +703,16 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2.480000023074927</v>
+        <v>2.50000001864291</v>
       </c>
       <c r="C10">
-        <v>2.480000017856514</v>
+        <v>2.500000621310545</v>
       </c>
       <c r="D10">
-        <v>2.479999999968659</v>
+        <v>2.499999999967873</v>
       </c>
       <c r="E10">
-        <v>96</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -630,16 +720,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2.47502610345906</v>
+        <v>2.499999528267525</v>
       </c>
       <c r="C11">
-        <v>2.47</v>
+        <v>2.499990524110827</v>
       </c>
       <c r="D11">
-        <v>2.48</v>
+        <v>2.499999807560376</v>
       </c>
       <c r="E11">
-        <v>108</v>
+        <v>43.2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -647,16 +737,16 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>2.469997636749464</v>
+        <v>2.500089309581067</v>
       </c>
       <c r="C12">
-        <v>2.470000000000001</v>
+        <v>2.489592129769505</v>
       </c>
       <c r="D12">
-        <v>2.47</v>
+        <v>2.499241292073199</v>
       </c>
       <c r="E12">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -664,16 +754,16 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>2.47</v>
+        <v>2.489984388705178</v>
       </c>
       <c r="C13">
-        <v>2.46</v>
+        <v>2.49</v>
       </c>
       <c r="D13">
-        <v>2.47</v>
+        <v>2.490005710692944</v>
       </c>
       <c r="E13">
-        <v>132</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -681,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>2.459998659875041</v>
+        <v>2.489999935043771</v>
       </c>
       <c r="C14">
-        <v>2.450000000000001</v>
+        <v>2.489999606291078</v>
       </c>
       <c r="D14">
-        <v>2.46</v>
+        <v>2.489999999636112</v>
       </c>
       <c r="E14">
-        <v>144</v>
+        <v>57.59999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -698,16 +788,16 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2.449858316605563</v>
+        <v>2.490000002089177</v>
       </c>
       <c r="C15">
-        <v>2.449919081809071</v>
+        <v>2.49</v>
       </c>
       <c r="D15">
-        <v>2.45</v>
+        <v>2.48999999999997</v>
       </c>
       <c r="E15">
-        <v>156</v>
+        <v>62.4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -715,16 +805,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2.44</v>
+        <v>2.489999997593245</v>
       </c>
       <c r="C16">
-        <v>2.44057325361891</v>
+        <v>2.49000000000109</v>
       </c>
       <c r="D16">
-        <v>2.45</v>
+        <v>2.490000000000001</v>
       </c>
       <c r="E16">
-        <v>168</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -732,16 +822,16 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>2.440154498405617</v>
+        <v>2.490000124105086</v>
       </c>
       <c r="C17">
-        <v>2.440002082757702</v>
+        <v>2.490000001250805</v>
       </c>
       <c r="D17">
-        <v>2.44</v>
+        <v>2.490000000004322</v>
       </c>
       <c r="E17">
-        <v>180</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -749,16 +839,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>2.429891751224342</v>
+        <v>2.489995072640924</v>
       </c>
       <c r="C18">
-        <v>2.429342857480136</v>
+        <v>2.489998289627142</v>
       </c>
       <c r="D18">
-        <v>2.44</v>
+        <v>2.489999982636934</v>
       </c>
       <c r="E18">
-        <v>192</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -766,16 +856,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2.420015399734612</v>
+        <v>2.489589667744992</v>
       </c>
       <c r="C19">
-        <v>2.43</v>
+        <v>2.482785794185848</v>
       </c>
       <c r="D19">
-        <v>2.43</v>
+        <v>2.489903834948081</v>
       </c>
       <c r="E19">
-        <v>204</v>
+        <v>81.59999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -783,16 +873,16 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2.41</v>
+        <v>2.479915851693828</v>
       </c>
       <c r="C20">
-        <v>2.419999280486741</v>
+        <v>2.479999978924453</v>
       </c>
       <c r="D20">
-        <v>2.43</v>
+        <v>2.479966340731228</v>
       </c>
       <c r="E20">
-        <v>216</v>
+        <v>86.39999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -800,16 +890,16 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2.400375561335369</v>
+        <v>2.479998647733882</v>
       </c>
       <c r="C21">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="D21">
-        <v>2.42</v>
+        <v>2.48000001382325</v>
       </c>
       <c r="E21">
-        <v>228</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -817,15 +907,525 @@
         <v>25</v>
       </c>
       <c r="B22">
+        <v>2.480000023074927</v>
+      </c>
+      <c r="C22">
+        <v>2.480000017856514</v>
+      </c>
+      <c r="D22">
+        <v>2.479999999968659</v>
+      </c>
+      <c r="E22">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>2.479997627025508</v>
+      </c>
+      <c r="C23">
+        <v>2.480069810298436</v>
+      </c>
+      <c r="D23">
+        <v>2.480000021515848</v>
+      </c>
+      <c r="E23">
+        <v>100.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>2.480128384614189</v>
+      </c>
+      <c r="C24">
+        <v>2.474587280817985</v>
+      </c>
+      <c r="D24">
+        <v>2.479971231542768</v>
+      </c>
+      <c r="E24">
+        <v>105.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25">
+        <v>2.469852820895288</v>
+      </c>
+      <c r="C25">
+        <v>2.470073905180516</v>
+      </c>
+      <c r="D25">
+        <v>2.476175666480674</v>
+      </c>
+      <c r="E25">
+        <v>110.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>2.469995007751593</v>
+      </c>
+      <c r="C26">
+        <v>2.470002575332223</v>
+      </c>
+      <c r="D26">
+        <v>2.470039152626418</v>
+      </c>
+      <c r="E26">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2.469997636749464</v>
+      </c>
+      <c r="C27">
+        <v>2.470000000000001</v>
+      </c>
+      <c r="D27">
+        <v>2.47</v>
+      </c>
+      <c r="E27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>2.470117890106914</v>
+      </c>
+      <c r="C28">
+        <v>2.45984406491221</v>
+      </c>
+      <c r="D28">
+        <v>2.46999769032744</v>
+      </c>
+      <c r="E28">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>2.474886292254106</v>
+      </c>
+      <c r="C29">
+        <v>2.460027896587066</v>
+      </c>
+      <c r="D29">
+        <v>2.470146529943916</v>
+      </c>
+      <c r="E29">
+        <v>129.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>2.460532671350595</v>
+      </c>
+      <c r="C30">
+        <v>2.460000166266445</v>
+      </c>
+      <c r="D30">
+        <v>2.458505065318633</v>
+      </c>
+      <c r="E30">
+        <v>134.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>2.460022462619984</v>
+      </c>
+      <c r="C31">
+        <v>2.460010995631992</v>
+      </c>
+      <c r="D31">
+        <v>2.459990599412635</v>
+      </c>
+      <c r="E31">
+        <v>139.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32">
+        <v>2.459998659875041</v>
+      </c>
+      <c r="C32">
+        <v>2.450000000000001</v>
+      </c>
+      <c r="D32">
+        <v>2.46</v>
+      </c>
+      <c r="E32">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33">
+        <v>2.46086607858413</v>
+      </c>
+      <c r="C33">
+        <v>2.450002718683725</v>
+      </c>
+      <c r="D33">
+        <v>2.459994274753182</v>
+      </c>
+      <c r="E33">
+        <v>148.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34">
+        <v>2.449725024491662</v>
+      </c>
+      <c r="C34">
+        <v>2.450004064495556</v>
+      </c>
+      <c r="D34">
+        <v>2.45744947661752</v>
+      </c>
+      <c r="E34">
+        <v>153.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>2.44995555023679</v>
+      </c>
+      <c r="C35">
+        <v>2.450296674865006</v>
+      </c>
+      <c r="D35">
+        <v>2.44996066687972</v>
+      </c>
+      <c r="E35">
+        <v>158.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2.451041857992208</v>
+      </c>
+      <c r="C36">
+        <v>2.453603109105049</v>
+      </c>
+      <c r="D36">
+        <v>2.449999812494139</v>
+      </c>
+      <c r="E36">
+        <v>163.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37">
+        <v>2.44</v>
+      </c>
+      <c r="C37">
+        <v>2.44057325361891</v>
+      </c>
+      <c r="D37">
+        <v>2.45</v>
+      </c>
+      <c r="E37">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38">
+        <v>2.439958616148652</v>
+      </c>
+      <c r="C38">
+        <v>2.439998405946219</v>
+      </c>
+      <c r="D38">
+        <v>2.45005979552858</v>
+      </c>
+      <c r="E38">
+        <v>172.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>2.440011103623555</v>
+      </c>
+      <c r="C39">
+        <v>2.440000035188972</v>
+      </c>
+      <c r="D39">
+        <v>2.441484957578088</v>
+      </c>
+      <c r="E39">
+        <v>177.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2.439353156586585</v>
+      </c>
+      <c r="C40">
+        <v>2.439997093402673</v>
+      </c>
+      <c r="D40">
+        <v>2.439997969616683</v>
+      </c>
+      <c r="E40">
+        <v>182.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>2.427991709732975</v>
+      </c>
+      <c r="C41">
+        <v>2.439714830212853</v>
+      </c>
+      <c r="D41">
+        <v>2.440000071099023</v>
+      </c>
+      <c r="E41">
+        <v>187.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>2.429891751224342</v>
+      </c>
+      <c r="C42">
+        <v>2.429342857480136</v>
+      </c>
+      <c r="D42">
+        <v>2.44</v>
+      </c>
+      <c r="E42">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>2.428251148349782</v>
+      </c>
+      <c r="C43">
+        <v>2.430001403802158</v>
+      </c>
+      <c r="D43">
+        <v>2.440061791899504</v>
+      </c>
+      <c r="E43">
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>2.420073546690566</v>
+      </c>
+      <c r="C44">
+        <v>2.43000465076093</v>
+      </c>
+      <c r="D44">
+        <v>2.430706736401744</v>
+      </c>
+      <c r="E44">
+        <v>201.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>2.420191976584769</v>
+      </c>
+      <c r="C45">
+        <v>2.432262007177107</v>
+      </c>
+      <c r="D45">
+        <v>2.429993089233683</v>
+      </c>
+      <c r="E45">
+        <v>206.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>2.412129410318576</v>
+      </c>
+      <c r="C46">
+        <v>2.418285522693018</v>
+      </c>
+      <c r="D46">
+        <v>2.430000005176665</v>
+      </c>
+      <c r="E46">
+        <v>211.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>2.41</v>
+      </c>
+      <c r="C47">
+        <v>2.419999280486741</v>
+      </c>
+      <c r="D47">
+        <v>2.43</v>
+      </c>
+      <c r="E47">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>2.410024510466242</v>
+      </c>
+      <c r="C48">
+        <v>2.419965857391382</v>
+      </c>
+      <c r="D48">
+        <v>2.430001519792279</v>
+      </c>
+      <c r="E48">
+        <v>220.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>2.40082237638086</v>
+      </c>
+      <c r="C49">
+        <v>2.421730932154816</v>
+      </c>
+      <c r="D49">
+        <v>2.430393636348344</v>
+      </c>
+      <c r="E49">
+        <v>225.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>2.400287438252909</v>
+      </c>
+      <c r="C50">
+        <v>2.409849413183947</v>
+      </c>
+      <c r="D50">
+        <v>2.420169315148204</v>
+      </c>
+      <c r="E50">
+        <v>230.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>2.399976290085855</v>
+      </c>
+      <c r="C51">
+        <v>2.410000968719962</v>
+      </c>
+      <c r="D51">
+        <v>2.420000392106276</v>
+      </c>
+      <c r="E51">
+        <v>235.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
         <v>2.4</v>
       </c>
-      <c r="C22">
+      <c r="C52">
         <v>2.41</v>
       </c>
-      <c r="D22">
+      <c r="D52">
         <v>2.42</v>
       </c>
-      <c r="E22">
+      <c r="E52">
         <v>240</v>
       </c>
     </row>
